--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B97B70B3-A00A-46F1-9ECC-E180F9811BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E3F3A-6ECA-4D0B-9DCE-C54FD289C638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
-    <sheet name="Skill - Class Quests" sheetId="4" r:id="rId2"/>
-    <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId3"/>
-    <sheet name="Class Guides" sheetId="2" r:id="rId4"/>
+    <sheet name="Perks" sheetId="5" r:id="rId2"/>
+    <sheet name="Skill - Class Quests" sheetId="4" r:id="rId3"/>
+    <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId4"/>
+    <sheet name="Class Guides" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="277">
   <si>
     <t>Strength</t>
   </si>
@@ -288,15 +289,9 @@
     <t>Buffs for others. Ranged. Maybe a shotgun</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
     <t>Total Hybrid</t>
   </si>
   <si>
-    <t>Strength summoning. Not sure about this one</t>
-  </si>
-  <si>
     <t>Debuff / Summoner</t>
   </si>
   <si>
@@ -363,24 +358,6 @@
     <t>melee range healer. Charges combos for healing or buffing</t>
   </si>
   <si>
-    <t>Crafting Skills?</t>
-  </si>
-  <si>
-    <t>Lumberjack</t>
-  </si>
-  <si>
-    <t>Alchemist</t>
-  </si>
-  <si>
-    <t>Angler</t>
-  </si>
-  <si>
-    <t>Smithy</t>
-  </si>
-  <si>
-    <t>&lt;--- Ver Very not sure on this one</t>
-  </si>
-  <si>
     <t>The main idea of summoning should be to get your summons out in a combo then use other combos for the hybrid. Like a shaman would summon a totem, then that combo would stay on CD, sort of, while the other combos come through the rotation. This could be a relic, a totem, a ghoul, a few ghouls, a fountain, a decoy, a tanking copy, illusion, barrier, song. Some could be focused on getting all their summons out and then just auto attacking. Some could be more focused on just one and then heavily rely on their other combos.</t>
   </si>
   <si>
@@ -402,9 +379,6 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>Some can be combines since they will have the same quests that give them skills and combos. Needs a few more glass canons and straights. Need to think higher tech too. Need something with toem, mech, summon for all blend types. Should blended classes be contained by stances, equipment type, attunements, or combination? Some of these could be collapsed into extensions of the main quest for the main class(example: Druid could contain all the shapeshifters. All the military could be together.)</t>
-  </si>
-  <si>
     <t>Gunner</t>
   </si>
   <si>
@@ -492,9 +466,6 @@
     <t>Crafting</t>
   </si>
   <si>
-    <t>This is pretty wide open. This covers everything from attunements, stances, weapon skills, perks, full classes, crafting recipes. You name it. This is where the intertwining part gets pretty dirty. Some quests will give you a class, a combo, or a recipe from multiple different stats.</t>
-  </si>
-  <si>
     <t>A lot of things are intertwined</t>
   </si>
   <si>
@@ -652,6 +623,249 @@
   </si>
   <si>
     <t>Shadow weaver, Heaven weaver</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Perks work like a talent but they can only be activated after they are unlocked and the conditions are met. Some items will enable a perk but they will be the Legendary items.</t>
+  </si>
+  <si>
+    <t>Perks include things like dual wielding 2H, bonus hits, extra combos, extra gathering. They are passives that are granted by either class, gear, or atunement.</t>
+  </si>
+  <si>
+    <t>Perks</t>
+  </si>
+  <si>
+    <t>Titans Grip</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>Atunement to Berserker at guild or mountain</t>
+  </si>
+  <si>
+    <t>Bonus Coal</t>
+  </si>
+  <si>
+    <t>Dual Wield</t>
+  </si>
+  <si>
+    <t>Level 30 Strength</t>
+  </si>
+  <si>
+    <t>Allows 2 1H melee weapons in the 1H slot</t>
+  </si>
+  <si>
+    <t>Level 40 Mining</t>
+  </si>
+  <si>
+    <t>Allows you to equip a coal sack in your back slot</t>
+  </si>
+  <si>
+    <t>Less Burnt</t>
+  </si>
+  <si>
+    <t>Chef hat equipped</t>
+  </si>
+  <si>
+    <t>Reduces fail chance on food</t>
+  </si>
+  <si>
+    <t>Big Rod</t>
+  </si>
+  <si>
+    <t>Big Rod equipped</t>
+  </si>
+  <si>
+    <t>Increases chance for getting a big fish</t>
+  </si>
+  <si>
+    <t>Allows 2H melee weapons in the 1H slots. Lost on atuning to other class.</t>
+  </si>
+  <si>
+    <t>Shift (Wolf)</t>
+  </si>
+  <si>
+    <t>Atunement to shapeshifter ( Maybe anywhere)</t>
+  </si>
+  <si>
+    <t>Allows player to equip "Shift (Wolf)" combo and more to weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills </t>
+  </si>
+  <si>
+    <t>This is pretty wide open. This covers everything from attunements, skills, perks, full classes, crafting recipes. You name it. This is where the intertwining part gets pretty dirty. Some quests will give you a class, a combo, or a recipe from multiple different stats.</t>
+  </si>
+  <si>
+    <t>Example Chain</t>
+  </si>
+  <si>
+    <t>GO to warrior guild. Talk to atunement guy for Berserker class</t>
+  </si>
+  <si>
+    <t>GAIN Berserker Rank X (Perks Light Up) Things like attack speed, Dual Wield 2H, things like that</t>
+  </si>
+  <si>
+    <t>UNDER Perks, there are 2 Lit up behind but not inside. These are the 2 stance choices for Berserker</t>
+  </si>
+  <si>
+    <t>You can choose one and go back and forth as much as you want. This will enable 1 more perk and the combos for that stance</t>
+  </si>
+  <si>
+    <t>Sometimes the atunement will give combos and perks. Somethings just one or the other. Depends on the class.</t>
+  </si>
+  <si>
+    <t>This is the way you get railroaded to a class but there are still lots of generic combos that will work in a class</t>
+  </si>
+  <si>
+    <t>For Berserker maybe there are 2 combos that increase attack speed. Then a normal combo that just deals the most reliable DPS</t>
+  </si>
+  <si>
+    <t>Stat or Class</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>Totem Rank 2</t>
+  </si>
+  <si>
+    <t>Shaman atunement</t>
+  </si>
+  <si>
+    <t>Totems summoned gain bonus health</t>
+  </si>
+  <si>
+    <t>Atunement - Perk Selection</t>
+  </si>
+  <si>
+    <t>Gain a X hitpoint shield every 5 seconds up to X</t>
+  </si>
+  <si>
+    <t>Shielding</t>
+  </si>
+  <si>
+    <t>Trying to decide if some perks should be toggle?</t>
+  </si>
+  <si>
+    <t>Atuenment - Perk Selection</t>
+  </si>
+  <si>
+    <t>Allows you to have 3 active buffs from your spellbook</t>
+  </si>
+  <si>
+    <t>Triple Tap</t>
+  </si>
+  <si>
+    <t>Running List. This should have a ton. This is where the classes will make the decision on gameplay before picking combos. Together, that is what makes the class.</t>
+  </si>
+  <si>
+    <t>Some can be combines since they will have the same quests that give them skills and combos. Needs a few more glass canons and straights. Need to think higher tech too. Need something with toem, mech, summon for all blend types. Should blended classes be contained by stances, equipment type, attunements, or combination? Some of these could be collapsed into extensions of the main quest for the main class(example: Druid could contain all the shapeshifters. All the military could be together.) I've noticed that some of the different blend classes could just be one with different [stances] and perk selections. That may make the list alittle shorter</t>
+  </si>
+  <si>
+    <t>Eagle Eye</t>
+  </si>
+  <si>
+    <t>Atunement to Ranger</t>
+  </si>
+  <si>
+    <t>Double range for bows and crossbows</t>
+  </si>
+  <si>
+    <t>The idea behind ranks in skills should be packaged versions of mini level ups for classes in combat and crafting. You should feel like training and getting through the next chapter of a quest increases a specific thing instead of a wide base most of the time. I think most quests should be access and skills. I'll use a druid quest line for example.</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Level 20 Agility, Level 20 Wisdom, Level 10 Alchemy, Quest 1</t>
+  </si>
+  <si>
+    <t>Access to Druid Land</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>From here, you can start making way in other areas like crafting from the druids OR a specific druid class</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Very Long</t>
+  </si>
+  <si>
+    <t>Quest 3</t>
+  </si>
+  <si>
+    <t>Special gathering, Access to Dungeon, Alchemy Recipe, Imbuing Recipes, XP, Ring</t>
+  </si>
+  <si>
+    <t>Access to some crafting zone, XP</t>
+  </si>
+  <si>
+    <t>Shapeshifter Perk (X), Alchemy recipes, XP</t>
+  </si>
+  <si>
+    <t>Some of these may be just for crafting or some could be mixed</t>
+  </si>
+  <si>
+    <t>Some may not get the real benefits until max Rank</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Classes: Shapeshifter: Wolf (Rank 1), Access to some new city, XP</t>
+  </si>
+  <si>
+    <t>Shapeshifter: Bear (Rank 1), Shapeshifter: Snake (Rank 1)</t>
+  </si>
+  <si>
+    <t>Class: Shapeshifter: Bear(Rank 2)</t>
+  </si>
+  <si>
+    <t>Class: Shapeshifter: Wolf (Rank 2)</t>
+  </si>
+  <si>
+    <t>Class: Shapeshifter: Snake (Rank 2)</t>
+  </si>
+  <si>
+    <t>Class: Shapeshifter: Support (Rank 1)</t>
+  </si>
+  <si>
+    <t>Level 30 Strength, Level 28 Agility, Level 31 Wisdom, Quest 2</t>
+  </si>
+  <si>
+    <t>Some classes need crafting requirements for the quests that unlock them</t>
   </si>
 </sst>
 </file>
@@ -682,7 +896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +972,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,25 +1139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,41 +1158,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,6 +1187,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,15 +1267,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>1228726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3104820</xdr:colOff>
+      <xdr:colOff>3714420</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1069,7 +1298,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8448676" y="409576"/>
+          <a:off x="7581901" y="295276"/>
           <a:ext cx="2485694" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1386,426 +1615,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D486571-9D67-47BB-9D65-E846FA7325BB}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
     <col min="4" max="4" width="107.42578125" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="E14" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="B31" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="E14" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="B32" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B33" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="B34" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D34" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="E34" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="D36" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="D37" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="D39" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="E39" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="37"/>
-    </row>
-    <row r="38" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1821,23 +2052,540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C6CA0F-F8AA-40DA-B4B8-895EEE50FAD8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4831EE7F-C145-4892-BCEC-22E778918A8D}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C6CA0F-F8AA-40DA-B4B8-895EEE50FAD8}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,767 +2598,796 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="13" t="s">
+      <c r="A2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="21"/>
+      <c r="K2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="23"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="23"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="23"/>
-      <c r="G4" s="19" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="30"/>
+      <c r="G4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="23"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="17" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="23"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="30"/>
+      <c r="G6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="30"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="23"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="23"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H12" s="34"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H13" s="34"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H14" s="34"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26"/>
+      <c r="G18" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="1" t="s">
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="30"/>
+      <c r="G20" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="23"/>
-      <c r="G19" s="1" t="s">
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="30"/>
+      <c r="G21" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="30"/>
+      <c r="G22" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="23"/>
-      <c r="G20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="23"/>
-      <c r="G21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="23"/>
-      <c r="G22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="23"/>
-      <c r="G23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="23"/>
-      <c r="G24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="G25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="28"/>
+      <c r="G25" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="G27" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="G28" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="G30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="G31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="G32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="G33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="G34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="G35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="1"/>
+      <c r="B35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="B37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="B39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="B46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="B48" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="69">
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="A2:E8"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
@@ -2627,72 +3404,18 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3881CE4-01D8-42F0-A452-3448CAC129CD}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,19 +3425,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="34"/>
       <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
@@ -2722,85 +3445,88 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="37"/>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="B4" s="37"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="37"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="38"/>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
+      <c r="B16" s="38"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="B21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E3F3A-6ECA-4D0B-9DCE-C54FD289C638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A32E327-B778-41B8-8DC6-40EA933DB8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Skill - Class Quests" sheetId="4" r:id="rId3"/>
     <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId4"/>
     <sheet name="Class Guides" sheetId="2" r:id="rId5"/>
+    <sheet name="Equipment" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="278">
   <si>
     <t>Strength</t>
   </si>
@@ -866,6 +867,9 @@
   </si>
   <si>
     <t>Some classes need crafting requirements for the quests that unlock them</t>
+  </si>
+  <si>
+    <t>Equipment Ideas</t>
   </si>
 </sst>
 </file>
@@ -1188,6 +1192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1209,6 +1219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1221,9 +1234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1232,12 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,6 +1313,116 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>554231</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3502800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>169049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C81495-8C4E-4609-B824-0E88E6FA8EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-227710" y="6315965"/>
+          <a:ext cx="6255525" cy="4691644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433969</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9FB9A-516D-4699-979F-3098ED2673A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-772416" y="3477516"/>
+          <a:ext cx="6255525" cy="4691644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1659,62 +1773,62 @@
       <c r="A7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="E14" s="24" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="26" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="24"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="24"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="24"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1734,7 +1848,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -1751,7 +1865,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1768,7 +1882,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1785,7 +1899,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -1802,7 +1916,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="24" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -1819,7 +1933,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -1836,7 +1950,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="24" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -1853,7 +1967,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="24" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -1870,7 +1984,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1887,7 +2001,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -1904,7 +2018,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -1921,7 +2035,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -1938,7 +2052,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="24" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -1955,7 +2069,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="24" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -1972,7 +2086,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -1989,7 +2103,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -2006,7 +2120,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -2023,7 +2137,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -2289,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C6CA0F-F8AA-40DA-B4B8-895EEE50FAD8}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,80 +2416,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2577,6 +2691,7 @@
     <mergeCell ref="A1:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2612,106 +2727,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="28"/>
       <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="26"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="30"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32"/>
       <c r="G4" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="32"/>
       <c r="G5" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32"/>
       <c r="G6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="32"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2726,10 +2841,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2747,10 +2862,10 @@
       <c r="G10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -2765,14 +2880,14 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="30"/>
+      <c r="H11" s="37"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2787,14 +2902,14 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="30"/>
+      <c r="H12" s="37"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -2809,147 +2924,147 @@
       <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="30"/>
+      <c r="H13" s="37"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="28"/>
+      <c r="H14" s="37"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="26"/>
-      <c r="G18" s="34" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="28"/>
+      <c r="G18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="34"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="34" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="32"/>
+      <c r="G19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="34" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="32"/>
+      <c r="G20" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="30"/>
-      <c r="G21" s="34" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="32"/>
+      <c r="G21" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="30"/>
-      <c r="G22" s="34" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="32"/>
+      <c r="G22" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="30"/>
-      <c r="G23" s="34" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="32"/>
+      <c r="G23" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="30"/>
-      <c r="G24" s="34" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="28"/>
-      <c r="G25" s="34" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2958,15 +3073,15 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="G27" s="34" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="G27" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2975,15 +3090,15 @@
       <c r="B28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="G28" s="34" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="G28" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2992,13 +3107,13 @@
       <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3007,13 +3122,13 @@
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3022,13 +3137,13 @@
       <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3037,13 +3152,13 @@
       <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3052,13 +3167,13 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3067,13 +3182,13 @@
       <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3082,13 +3197,13 @@
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3097,13 +3212,13 @@
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3112,13 +3227,13 @@
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3127,13 +3242,13 @@
       <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3142,13 +3257,13 @@
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3157,13 +3272,13 @@
       <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3172,13 +3287,13 @@
       <c r="B41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3187,13 +3302,13 @@
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3202,11 +3317,11 @@
       <c r="B43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3215,11 +3330,11 @@
       <c r="B44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3228,11 +3343,11 @@
       <c r="B45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3241,11 +3356,11 @@
       <c r="B46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3254,11 +3369,11 @@
       <c r="B47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3267,102 +3382,99 @@
       <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C31:E31"/>
@@ -3379,31 +3491,34 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3414,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3881CE4-01D8-42F0-A452-3448CAC129CD}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3425,10 +3540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="37"/>
       <c r="D1" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3552,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
@@ -3445,25 +3560,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
+      <c r="B3" s="39"/>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="D6" t="s">
         <v>276</v>
       </c>
@@ -3472,61 +3587,61 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+      <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
+      <c r="B21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3538,4 +3653,25 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A32E327-B778-41B8-8DC6-40EA933DB8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2279CAE6-D43D-4BD9-86F1-8C4953EF5C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId4"/>
     <sheet name="Class Guides" sheetId="2" r:id="rId5"/>
     <sheet name="Equipment" sheetId="6" r:id="rId6"/>
+    <sheet name="Checklist" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="332">
   <si>
     <t>Strength</t>
   </si>
@@ -870,6 +871,168 @@
   </si>
   <si>
     <t>Equipment Ideas</t>
+  </si>
+  <si>
+    <t>Checklist for undone</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Quick List</t>
+  </si>
+  <si>
+    <t>Items on Ground</t>
+  </si>
+  <si>
+    <t>Equipment Manager</t>
+  </si>
+  <si>
+    <t>Equipping from Inventory</t>
+  </si>
+  <si>
+    <t>Augmenting Equipment</t>
+  </si>
+  <si>
+    <t>Perks Panel</t>
+  </si>
+  <si>
+    <t>Perk Activate Panel - Equip</t>
+  </si>
+  <si>
+    <t>Simple combat</t>
+  </si>
+  <si>
+    <t>Advanced combat</t>
+  </si>
+  <si>
+    <t>Gathering - Server</t>
+  </si>
+  <si>
+    <t>Gathering - Client</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Quest Manager</t>
+  </si>
+  <si>
+    <t>Instancing: Server - Dungeons / Zones</t>
+  </si>
+  <si>
+    <t>Instancing: Client - Dungeons / Zones</t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>Server side will have multiple files along with scenes in Unity. As a player enters and instance, if it is a zone, the file will persist, if a dungeon or party specific dungeon, a file is created, persists, and then is deleted when the players reset or every certain amount of time if balancing is needed.</t>
+  </si>
+  <si>
+    <t>Server needs to create and maintain files for instanced parts of the environment including the terrain, the mobs, and players.</t>
+  </si>
+  <si>
+    <t>The client needs the resources to spawn the instance and render the data from the server. That data then needs to send to the other clients.</t>
+  </si>
+  <si>
+    <t>Similar to the main map the players can dictate the enemies movements and behavior and then send updates to the other clients.</t>
+  </si>
+  <si>
+    <t>When a mob dies, the loot needs to be on the ground. Not sure on players being able to drop items yet.</t>
+  </si>
+  <si>
+    <t>Client and server have to be exactly synced. Cosmetically can be done later. For now it can just change model color.</t>
+  </si>
+  <si>
+    <t>Technically, the server should only dictate 1 time on load and each instance. There has to be some mechanic that won't mess up the inventory since the item is in the equipment slots.</t>
+  </si>
+  <si>
+    <t>Very specific changes to stats and base stats for defense and armor.</t>
+  </si>
+  <si>
+    <t>As it leaves the inventory, it is immediately updated on the ui. At the same time, the stats have to change at the same time.</t>
+  </si>
+  <si>
+    <t>Things like a back piece that allows another back piece.</t>
+  </si>
+  <si>
+    <t>When an augmenting equipment piece is equipped. There needs to be a panel that shows the added augment: example: perks, stats, extra slots. All the slots should be in a separate panel together.</t>
+  </si>
+  <si>
+    <t>The panel that shows all the perks in the game. At the top, active; locked perks and how to unlock them; then a special place for toggleable perks.</t>
+  </si>
+  <si>
+    <t>Seems like there needs to be a quick panel for things like mounts or sprints or some teleports.</t>
+  </si>
+  <si>
+    <t>You have hits. You take the enemies down. They have hits. They take yours down. They die. They drop loot.</t>
+  </si>
+  <si>
+    <t>Advanced: Aggro for people not in your party. Aggro available for people in your party.</t>
+  </si>
+  <si>
+    <t>Experience (Single and Shared)</t>
+  </si>
+  <si>
+    <t>Hmmmmm. How would tanks and supports that focus on buffs get experience without doing traditional experience. This would also mean some sort of scaling for levels somehow.</t>
+  </si>
+  <si>
+    <t>Hmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmm</t>
+  </si>
+  <si>
+    <t>Kind of the main reason to make a different game. There needs to be engaging combat that doesn't destroy the system, makes lots of possibilities work efficiently with minor play style differences, and keeps a tempo. BONUS: could be easily moved to mobile. Not sure why, but it could be.</t>
+  </si>
+  <si>
+    <t>Time based combo system. I feel like there could be a book about this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources have to be managed on the server but dictated by client. Resources stack to a max number and then, can be gathered from in a shared manner. Just in and out on this one. </t>
+  </si>
+  <si>
+    <t>Clients will have lots of methods of gathering on their end. Combos will be just as important in gathering as in combat.</t>
+  </si>
+  <si>
+    <t>Woodcutting Example: You have lvl 10 WC. You can wield an iron hatchet with the combo simple cut. Every X seconds you will swing the axe to remove a resource. On the right timing, if you hit it, you can get an extra swing with the same chances. Some combos might increase your chance.</t>
+  </si>
+  <si>
+    <t>Should be pretty straight forward. Determine if the right tools are in the inventory, the right station is near, stats and perks are high enough, and the mats are in the inventory.</t>
+  </si>
+  <si>
+    <t>Trying to decide if crafting can have combos. Right now, my vote is no.</t>
+  </si>
+  <si>
+    <t>Store items at a specific place. I like mount storage. Tabs, sorting, search should be there.</t>
+  </si>
+  <si>
+    <t>I'm not sure if there is a reason to have limited bank space. That seems silly.</t>
+  </si>
+  <si>
+    <t>Tracks where you are in quests and what quests can be started.</t>
+  </si>
+  <si>
+    <t>All quests need to be followed by the journal. I think it could be grouped by specific rewards in the journal if you are looking for the way to a specific class at Rank 3 or a specific recipe.</t>
+  </si>
+  <si>
+    <t>Spellbooks</t>
+  </si>
+  <si>
+    <t>Augmented Spellbooks</t>
+  </si>
+  <si>
+    <t>Not sure how magic should work at all. Seems like there should be spells to cast but I think those should be pretty generic and mostly utility. The combat spells should be combos that cost resources. Your auto-attack could be a spell from the book I guess.</t>
+  </si>
+  <si>
+    <t>Needs a lot of work for utility. The combat part is the easiest. The trick is making sure there isn't a large group of classes that can just use spells. I think a book should have to be in the inventory with an active perk to have the spellbook. Maybe there are some class overlaps there.</t>
+  </si>
+  <si>
+    <t>This is just a continuation of the above idea. The different classes should be bound to their spell books and resources.</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +1145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,7 +1389,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1232,7 +1401,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1241,6 +1410,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2880,10 +3059,10 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="33"/>
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
@@ -2902,10 +3081,10 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="33"/>
       <c r="K12" s="31"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
@@ -2924,10 +3103,10 @@
       <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="33"/>
       <c r="K13" s="31"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -2937,10 +3116,10 @@
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="33"/>
       <c r="K14" s="29"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
@@ -2950,25 +3129,25 @@
       <c r="B15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
@@ -2978,10 +3157,10 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="28"/>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
@@ -2989,10 +3168,10 @@
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="32"/>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="37"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
@@ -3000,10 +3179,10 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="32"/>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
@@ -3011,10 +3190,10 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="32"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
@@ -3022,10 +3201,10 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="32"/>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
@@ -3033,10 +3212,10 @@
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="32"/>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
@@ -3044,10 +3223,10 @@
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="32"/>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
@@ -3055,16 +3234,16 @@
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="30"/>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3073,15 +3252,15 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="G27" s="37" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="G27" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3090,15 +3269,15 @@
       <c r="B28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="G28" s="37" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="G28" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3107,13 +3286,13 @@
       <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3122,13 +3301,13 @@
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3137,13 +3316,13 @@
       <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3152,13 +3331,13 @@
       <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3167,13 +3346,13 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3182,13 +3361,13 @@
       <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3197,13 +3376,13 @@
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3212,13 +3391,13 @@
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3227,13 +3406,13 @@
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3242,13 +3421,13 @@
       <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3257,13 +3436,13 @@
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3272,13 +3451,13 @@
       <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3287,13 +3466,13 @@
       <c r="B41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3302,13 +3481,13 @@
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3317,11 +3496,11 @@
       <c r="B43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3330,11 +3509,11 @@
       <c r="B44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3343,11 +3522,11 @@
       <c r="B45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3356,11 +3535,11 @@
       <c r="B46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3369,11 +3548,11 @@
       <c r="B47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3382,100 +3561,101 @@
       <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="K2:N14"/>
@@ -3492,33 +3672,32 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="A18:E25"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3540,10 +3719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="33"/>
       <c r="D1" t="s">
         <v>8</v>
       </c>
@@ -3659,7 +3838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3674,4 +3853,756 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" t="str">
+        <f>A4</f>
+        <v>Instancing: Server - Dungeons / Zones</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="F5" t="str">
+        <f>A8</f>
+        <v>Instancing: Client - Dungeons / Zones</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="F6" t="str">
+        <f>A12</f>
+        <v>Items on Ground</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="F7" t="str">
+        <f>A16</f>
+        <v>Equipment Manager</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" t="str">
+        <f>A20</f>
+        <v>Equipping from Inventory</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="F9" t="str">
+        <f>A24</f>
+        <v>Augmenting Equipment</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="F10" t="str">
+        <f>A28</f>
+        <v>Perks Panel</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="F11" t="str">
+        <f>A32</f>
+        <v>Perk Activate Panel - Equip</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="F12" t="str">
+        <f>A36</f>
+        <v>Simple combat</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="F13" t="str">
+        <f>A44</f>
+        <v>Advanced combat</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="F14" t="str">
+        <f>A48</f>
+        <v>Gathering - Server</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="F15" t="str">
+        <f>A52</f>
+        <v>Gathering - Client</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" t="str">
+        <f>A56</f>
+        <v>Crafting</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="F17" t="str">
+        <f>A60</f>
+        <v>Banking</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="F18" t="str">
+        <f>A64</f>
+        <v>Quest Manager</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="F19" t="str">
+        <f>A68</f>
+        <v>Spellbooks</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" t="str">
+        <f>A72</f>
+        <v>Augmented Spellbooks</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="44"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="44"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2279CAE6-D43D-4BD9-86F1-8C4953EF5C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE4A9C-AA34-4C12-ADD1-A46A55030804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="338">
   <si>
     <t>Strength</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Base damage and hit chances for magic spells. Same for items as Strength and Ability. Spell book should have lots of spells with high resource costs. You should be able to have lots of spells and multiple books. Everything will costs something. Keeping things on will tick down a resource. Only so many buffs allowed depending on class</t>
   </si>
   <si>
-    <t>Not sure how it is derived yet. It needs to be a combination of stats, but it also needs to be fairly squished. Maybe it should be trained like the other skills.</t>
-  </si>
-  <si>
     <t>Determines what mines you can have access to and what rocks you can mine.</t>
   </si>
   <si>
@@ -1033,6 +1030,27 @@
   </si>
   <si>
     <t>This is just a continuation of the above idea. The different classes should be bound to their spell books and resources.</t>
+  </si>
+  <si>
+    <t>Derived from highest stat of class or generic average. Most classes will have perks will flat increases or decreases</t>
+  </si>
+  <si>
+    <t>Needs defense and attack bonus listings</t>
+  </si>
+  <si>
+    <t>SO many</t>
+  </si>
+  <si>
+    <t>Repeatable quests can give a wide range of temporary buffs</t>
+  </si>
+  <si>
+    <t>Some perks can be awarded from quests but be usable in all classes or no class. I.e. Teleports</t>
+  </si>
+  <si>
+    <t>Camera Controls</t>
+  </si>
+  <si>
+    <t>UI and Menus</t>
   </si>
 </sst>
 </file>
@@ -1367,6 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1389,7 +1408,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1401,7 +1420,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1412,7 +1431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,13 +1926,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D486571-9D67-47BB-9D65-E846FA7325BB}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" customWidth="1"/>
     <col min="4" max="4" width="107.42578125" customWidth="1"/>
@@ -1952,62 +1970,62 @@
       <c r="A7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="E14" s="26" t="s">
-        <v>189</v>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="E14" s="27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="26"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="29"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="26"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2040,7 +2058,7 @@
         <v>160</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2075,7 @@
         <v>161</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2074,7 +2092,7 @@
         <v>162</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2088,10 +2106,10 @@
         <v>148</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,10 +2123,10 @@
         <v>149</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,10 +2140,10 @@
         <v>150</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,10 +2157,10 @@
         <v>151</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,10 +2174,10 @@
         <v>152</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,10 +2191,10 @@
         <v>153</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,13 +2205,13 @@
         <v>141</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,10 +2225,10 @@
         <v>154</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2224,10 +2242,10 @@
         <v>133</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,27 +2259,27 @@
         <v>155</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="E35" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,10 +2293,10 @@
         <v>156</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,10 +2310,10 @@
         <v>157</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2306,13 +2324,13 @@
         <v>142</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,10 +2344,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2346,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4831EE7F-C145-4892-BCEC-22E778918A8D}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,211 +2383,219 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>222</v>
+      <c r="A4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" t="s">
-        <v>226</v>
+      <c r="A9" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>210</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>217</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>243</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D19" t="s">
         <v>244</v>
       </c>
-      <c r="D16" t="s">
-        <v>245</v>
+      <c r="I19" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C6CA0F-F8AA-40DA-B4B8-895EEE50FAD8}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -2595,13 +2621,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2613,11 +2639,11 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -2629,9 +2655,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -2643,9 +2669,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -2657,9 +2683,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -2672,16 +2698,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
         <v>248</v>
-      </c>
-      <c r="C8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2689,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2703,13 +2729,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2717,22 +2743,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2741,7 +2767,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -2755,16 +2781,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,16 +2803,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,58 +2825,58 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" t="s">
         <v>260</v>
       </c>
-      <c r="C23" t="s">
-        <v>261</v>
-      </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" t="s">
         <v>260</v>
       </c>
-      <c r="C24" t="s">
-        <v>261</v>
-      </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" t="s">
         <v>260</v>
       </c>
-      <c r="C25" t="s">
-        <v>261</v>
-      </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" t="s">
         <v>260</v>
       </c>
-      <c r="C26" t="s">
-        <v>261</v>
-      </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,7 +2905,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,106 +2932,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="29"/>
       <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="28"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="32"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="33"/>
+      <c r="G3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="32"/>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="32"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="33"/>
+      <c r="G4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="32"/>
-      <c r="G5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="33"/>
+      <c r="G5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="32"/>
-      <c r="G6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="32"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="32"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="32"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="33"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -3020,10 +3046,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3041,10 +3067,10 @@
       <c r="G10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -3059,14 +3085,14 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="32"/>
+      <c r="H11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="33"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3081,14 +3107,14 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="32"/>
+      <c r="H12" s="38"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -3103,147 +3129,147 @@
       <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="32"/>
+      <c r="H13" s="38"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="30"/>
+      <c r="H14" s="38"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="28"/>
-      <c r="G18" s="33" t="s">
+      <c r="A18" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="33" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="33"/>
+      <c r="G19" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="32"/>
-      <c r="G20" s="33" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="33"/>
+      <c r="G20" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="32"/>
-      <c r="G21" s="33" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="32"/>
-      <c r="G23" s="33" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="33"/>
+      <c r="G23" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="32"/>
-      <c r="G24" s="33" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="33"/>
+      <c r="G24" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="30"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="33"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3252,15 +3278,15 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="G27" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="G27" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3269,15 +3295,15 @@
       <c r="B28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="G28" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="H28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="G28" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3286,13 +3312,13 @@
       <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3301,13 +3327,13 @@
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3316,13 +3342,13 @@
       <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3331,13 +3357,13 @@
       <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3346,13 +3372,13 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3361,13 +3387,13 @@
       <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3376,13 +3402,13 @@
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3391,13 +3417,13 @@
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3406,13 +3432,13 @@
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3421,13 +3447,13 @@
       <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3436,13 +3462,13 @@
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3451,13 +3477,13 @@
       <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3466,13 +3492,13 @@
       <c r="B41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3481,13 +3507,13 @@
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3496,11 +3522,11 @@
       <c r="B43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3509,11 +3535,11 @@
       <c r="B44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3522,11 +3548,11 @@
       <c r="B45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3535,11 +3561,11 @@
       <c r="B46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3548,11 +3574,11 @@
       <c r="B47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3561,85 +3587,115 @@
       <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C39:E39"/>
@@ -3656,48 +3712,18 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3719,10 +3745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="38"/>
       <c r="D1" t="s">
         <v>8</v>
       </c>
@@ -3731,7 +3757,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
@@ -3739,88 +3765,88 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3836,17 +3862,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3857,16 +3893,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="76.140625" customWidth="1"/>
     <col min="4" max="4" width="70.28515625" customWidth="1"/>
     <col min="6" max="6" width="50.42578125" customWidth="1"/>
@@ -3874,38 +3910,38 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="B3" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="C3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="F3" s="26" t="s">
         <v>281</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="F4" t="str">
         <f>A4</f>
@@ -3944,16 +3980,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>297</v>
-      </c>
       <c r="C8" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>300</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>301</v>
       </c>
       <c r="F8" t="str">
         <f>A20</f>
@@ -3992,13 +4028,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D12" s="44"/>
       <c r="F12" t="str">
@@ -4038,16 +4074,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>303</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>304</v>
       </c>
       <c r="F16" t="str">
         <f>A56</f>
@@ -4086,16 +4122,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C20" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>305</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>306</v>
       </c>
       <c r="F20" t="str">
         <f>A72</f>
@@ -4107,12 +4143,20 @@
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
+      <c r="F21" t="str">
+        <f>A76</f>
+        <v>Camera Controls</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
+      <c r="F22" t="str">
+        <f>A80</f>
+        <v>UI and Menus</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
@@ -4122,16 +4166,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>307</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4154,13 +4198,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D28" s="44"/>
     </row>
@@ -4184,13 +4228,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D32" s="44"/>
     </row>
@@ -4214,16 +4258,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>311</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,16 +4290,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="C40" s="44" t="s">
+      <c r="D40" s="44" t="s">
         <v>314</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4278,16 +4322,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C44" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" s="44" t="s">
         <v>316</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,13 +4354,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D48" s="44"/>
     </row>
@@ -4340,16 +4384,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C52" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="44" t="s">
         <v>319</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,13 +4419,13 @@
         <v>142</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C56" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="44" t="s">
         <v>321</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4404,16 +4448,16 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="44" t="s">
         <v>323</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,16 +4480,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C64" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" s="44" t="s">
         <v>325</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,16 +4512,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C68" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="44" t="s">
         <v>329</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,13 +4544,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D72" s="44"/>
     </row>
@@ -4528,8 +4572,128 @@
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="80">
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="C72:C75"/>
@@ -4546,62 +4710,6 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE4A9C-AA34-4C12-ADD1-A46A55030804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B660B-A915-4E60-A92E-7D5C51BB9D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId4"/>
     <sheet name="Class Guides" sheetId="2" r:id="rId5"/>
     <sheet name="Equipment" sheetId="6" r:id="rId6"/>
-    <sheet name="Checklist" sheetId="7" r:id="rId7"/>
+    <sheet name="Advanced Combat" sheetId="8" r:id="rId7"/>
+    <sheet name="Checklist" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="441">
   <si>
     <t>Strength</t>
   </si>
@@ -1051,6 +1052,315 @@
   </si>
   <si>
     <t>UI and Menus</t>
+  </si>
+  <si>
+    <t>Royalty</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Shift Demon</t>
+  </si>
+  <si>
+    <t>Shift Dragon</t>
+  </si>
+  <si>
+    <t>Rotten</t>
+  </si>
+  <si>
+    <t>Elementals</t>
+  </si>
+  <si>
+    <t>Sun King</t>
+  </si>
+  <si>
+    <t>Dark Lord</t>
+  </si>
+  <si>
+    <t>Frost Knight</t>
+  </si>
+  <si>
+    <t>Flame Knight</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Lunar</t>
+  </si>
+  <si>
+    <t>Scryer</t>
+  </si>
+  <si>
+    <t>Elixir Master</t>
+  </si>
+  <si>
+    <t>Expanding Class to contain similar classes to others but using cheaper crafting materials</t>
+  </si>
+  <si>
+    <t>For example, the Elixir master could be a copy of a mage but with hard to craft materials but very low costs per spell</t>
+  </si>
+  <si>
+    <t>Scroll Master</t>
+  </si>
+  <si>
+    <t>Example, Scrollmaster is similar to a support but the crafting material is just paper. It would be slightly weaker, but good for farming</t>
+  </si>
+  <si>
+    <t>Some classes can be highly bound with few options but low costs. Same play style, same quests to earn the classes sometimes.</t>
+  </si>
+  <si>
+    <t>Just another way to differentiate classes without making everything about them different.</t>
+  </si>
+  <si>
+    <t>Storm King</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>Cursed</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Shoud classes restrict or augment equipment severely. Example, should the snake shift of druid not allow any equipment except for 3 bracers lol. Idk</t>
+  </si>
+  <si>
+    <t>Or things like a stance in berserker changes you to only be able to equip 1 2H weapon</t>
+  </si>
+  <si>
+    <t>Fist weapon classes</t>
+  </si>
+  <si>
+    <t>No weapon classes</t>
+  </si>
+  <si>
+    <t>No armor classes</t>
+  </si>
+  <si>
+    <t>No armor or weapon classes</t>
+  </si>
+  <si>
+    <t>This may allow for some more freedom in equipment if we don't have to worry about weird crossovers</t>
+  </si>
+  <si>
+    <t>It also doesn't make sense for a wolf to use a sword</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Gunslinger</t>
+  </si>
+  <si>
+    <t>Fencer</t>
+  </si>
+  <si>
+    <t>Brewmaster</t>
+  </si>
+  <si>
+    <t>Treant - Tank</t>
+  </si>
+  <si>
+    <t>Advanced Combat</t>
+  </si>
+  <si>
+    <t>Combos</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>Temporary Perks</t>
+  </si>
+  <si>
+    <t>Gambler</t>
+  </si>
+  <si>
+    <t>Triggered events from combat rotation - Not sure what the hard limit should be 3 or 4 maybe 5 for some classes</t>
+  </si>
+  <si>
+    <t>Abilities like on ground effects casted from you spell book on to players, enemies, or ground. There should probably either be a lot of spells or a hihg combo cap for classes</t>
+  </si>
+  <si>
+    <t>Permanent buffs gathered from quests in the ranks of the particular class</t>
+  </si>
+  <si>
+    <t>Repeatable quest rewards that buff you temporarily. No cap</t>
+  </si>
+  <si>
+    <t>Food, elixirs, etc. All Temporary</t>
+  </si>
+  <si>
+    <t>Daily quests like bounty resets. You should be able to use a crafted item to boost dailies if you want</t>
+  </si>
+  <si>
+    <t>Combo Types</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Stacking</t>
+  </si>
+  <si>
+    <t>Ramping</t>
+  </si>
+  <si>
+    <t>Primers</t>
+  </si>
+  <si>
+    <t>Detonators</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Spell Types</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>AoE</t>
+  </si>
+  <si>
+    <t>Temporary Buffs / Debuffs</t>
+  </si>
+  <si>
+    <t>Hybrids</t>
+  </si>
+  <si>
+    <t>Telegraph</t>
+  </si>
+  <si>
+    <t>Junkie</t>
+  </si>
+  <si>
+    <t>Balancing</t>
+  </si>
+  <si>
+    <t>Skill Floor</t>
+  </si>
+  <si>
+    <t>Skill Ceiling</t>
+  </si>
+  <si>
+    <t>Passive Perks</t>
+  </si>
+  <si>
+    <t>Perk Choices</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Costly</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>Some gathering and crafting classes may make up some classes or at least sub classes</t>
+  </si>
+  <si>
+    <t>Class Pack Examples</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Sub - Berserker</t>
+  </si>
+  <si>
+    <t>Sub - Brawler</t>
+  </si>
+  <si>
+    <t>Sub - Weapon Master</t>
+  </si>
+  <si>
+    <t>Sub - War Chief</t>
+  </si>
+  <si>
+    <t>Class Derivations</t>
+  </si>
+  <si>
+    <t>Start - Warrior</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>Primal</t>
+  </si>
+  <si>
+    <t>Sub - Battlemind</t>
+  </si>
+  <si>
+    <t>Sub - Medic</t>
+  </si>
+  <si>
+    <t>Branch of Warrior with more emphasis on Primal aspects</t>
+  </si>
+  <si>
+    <t>Branch of Warrior with more emphasis on Martial and Military</t>
+  </si>
+  <si>
+    <t>Sub - Knight</t>
+  </si>
+  <si>
+    <t>Sub - Lancer</t>
+  </si>
+  <si>
+    <t>Sub - Commander</t>
+  </si>
+  <si>
+    <t>Attunement</t>
+  </si>
+  <si>
+    <t>Perk Select</t>
+  </si>
+  <si>
+    <t>Dual Wield | Mostly Combos - Few Spells</t>
+  </si>
+  <si>
+    <t>Fists, grappling | Balanced on Spells and Combos</t>
+  </si>
+  <si>
+    <t>2 Handed weapons | Mostly Combos</t>
+  </si>
+  <si>
+    <t>More buffs and control with aspects of all. Balanced. Maybe we have Hero classes or Legend classes</t>
+  </si>
+  <si>
+    <t>Sub - Tomahawk</t>
+  </si>
+  <si>
+    <t>Ranged warrior | Balanced</t>
+  </si>
+  <si>
+    <t>Sub - Gatling</t>
+  </si>
+  <si>
+    <t>Movement</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,6 +1481,29 @@
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FF92D050"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFF0000"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FF92D050"/>
+        </stop>
+        <stop position="0.5">
+          <color rgb="FFFF0000"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF92D050"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="14">
@@ -1330,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,6 +1719,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1407,6 +1752,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1420,6 +1771,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1970,62 +2324,62 @@
       <c r="A7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="27" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="E14" s="31" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="27"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="33"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="27"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="27"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2609,7 +2963,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,11 +2975,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="25" t="s">
         <v>264</v>
       </c>
@@ -2639,9 +2993,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
         <v>265</v>
       </c>
@@ -2655,10 +3009,12 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
+        <v>388</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -2669,9 +3025,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -2683,9 +3039,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -2902,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,106 +3288,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="33"/>
       <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="29"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="37"/>
       <c r="G3" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="33"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="37"/>
       <c r="G4" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="33"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="37"/>
       <c r="G5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="33"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="33"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="33"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="37"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -3046,10 +3402,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="33"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3067,10 +3423,10 @@
       <c r="G10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -3085,14 +3441,14 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="33"/>
+      <c r="H11" s="44"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3107,14 +3463,14 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="33"/>
+      <c r="H12" s="44"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -3129,241 +3485,307 @@
       <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="33"/>
+      <c r="H13" s="44"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="31"/>
+      <c r="H14" s="44"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="29"/>
-      <c r="G18" s="38" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="33"/>
+      <c r="G18" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="33"/>
-      <c r="G19" s="38" t="s">
+      <c r="H18" s="44"/>
+      <c r="J18" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="37"/>
+      <c r="G19" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="38" t="s">
+      <c r="H19" s="44"/>
+      <c r="J19" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="37"/>
+      <c r="G20" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="33"/>
-      <c r="G21" s="38" t="s">
+      <c r="H20" s="44"/>
+      <c r="J20" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="37"/>
+      <c r="G21" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="38" t="s">
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="33"/>
-      <c r="G23" s="38" t="s">
+      <c r="H22" s="44"/>
+      <c r="J22" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="37"/>
+      <c r="G23" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="33"/>
-      <c r="G24" s="38" t="s">
+      <c r="H23" s="44"/>
+      <c r="J23" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="37"/>
+      <c r="G24" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="31"/>
-      <c r="G25" s="38" t="s">
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="35"/>
+      <c r="G25" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="38" t="s">
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="G27" s="38" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="G27" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="G28" s="38" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="G28" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="G29" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="G30" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="G31" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="G32" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3372,13 +3794,15 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="G33" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3387,13 +3811,15 @@
       <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="G34" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3402,13 +3828,13 @@
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3417,13 +3843,13 @@
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3432,13 +3858,13 @@
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3447,13 +3873,13 @@
       <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3462,13 +3888,13 @@
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3477,13 +3903,13 @@
       <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3492,13 +3918,13 @@
       <c r="B41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3507,13 +3933,13 @@
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3522,11 +3948,11 @@
       <c r="B43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3535,11 +3961,11 @@
       <c r="B44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3548,11 +3974,11 @@
       <c r="B45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3561,11 +3987,11 @@
       <c r="B46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3574,11 +4000,11 @@
       <c r="B47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3587,74 +4013,182 @@
       <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>347</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>402</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="75">
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
@@ -3696,6 +4230,8 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="A2:E8"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C39:E39"/>
@@ -3712,6 +4248,10 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C33:E33"/>
@@ -3732,121 +4272,288 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3881CE4-01D8-42F0-A452-3448CAC129CD}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="77.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="D1" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="28"/>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="27"/>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="D3" t="s">
+      <c r="N2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="27"/>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="D4" t="s">
+      <c r="N3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="27"/>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="D5" t="s">
+      <c r="N4" t="s">
+        <v>414</v>
+      </c>
+      <c r="O4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="47"/>
+      <c r="C5" s="27"/>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="D6" t="s">
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="27"/>
+      <c r="E6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="47"/>
+      <c r="C9" s="27"/>
+      <c r="E9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="47"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="27"/>
+      <c r="D11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="27"/>
+      <c r="D12" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="47"/>
+      <c r="C13" s="27"/>
+      <c r="D13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="C14" s="27"/>
+      <c r="D14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+      <c r="C15" s="27"/>
+      <c r="D15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="27"/>
+      <c r="D16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+      <c r="C18" s="27"/>
+      <c r="D18" t="s">
+        <v>431</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="47"/>
+      <c r="C19" s="27"/>
+      <c r="D19" t="s">
+        <v>432</v>
+      </c>
+      <c r="E19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="27"/>
+      <c r="D20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" s="27"/>
+      <c r="D21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>432</v>
+      </c>
+      <c r="E22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" t="s">
+        <v>439</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3862,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,6 +4592,46 @@
         <v>333</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3892,10 +4639,142 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3931,16 +4810,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="51" t="s">
         <v>297</v>
       </c>
       <c r="F4" t="str">
@@ -3949,46 +4828,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="51" t="s">
         <v>300</v>
       </c>
       <c r="F8" t="str">
@@ -3997,92 +4876,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="51"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="51" t="s">
         <v>303</v>
       </c>
       <c r="F16" t="str">
@@ -4091,46 +4970,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="51" t="s">
         <v>305</v>
       </c>
       <c r="F20" t="str">
@@ -4139,494 +5018,494 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="51" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="51" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="51" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="51" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="51" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="51" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D72" s="44"/>
+      <c r="D72" s="51"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="80">

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B660B-A915-4E60-A92E-7D5C51BB9D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A2292-5274-411A-AD26-B14CC4F3F9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="444">
   <si>
     <t>Strength</t>
   </si>
@@ -1361,6 +1361,15 @@
   </si>
   <si>
     <t>Movement</t>
+  </si>
+  <si>
+    <t>Mechano-Wizard</t>
+  </si>
+  <si>
+    <t>On right click, on left click on menu</t>
+  </si>
+  <si>
+    <t>Right click should always open menu on object. Left and Right clicks need to be blocked by ui buttons and panels</t>
   </si>
 </sst>
 </file>
@@ -3258,10 +3267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,6 +4194,11 @@
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -4642,7 +4656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4774,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,8 +5500,12 @@
       <c r="B80" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
+      <c r="C80" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A2292-5274-411A-AD26-B14CC4F3F9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF3C1A-88B1-4F92-8EA6-744B83E3C872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" activeTab="1" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="3" r:id="rId1"/>
-    <sheet name="Perks" sheetId="5" r:id="rId2"/>
-    <sheet name="Skill - Class Quests" sheetId="4" r:id="rId3"/>
-    <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId4"/>
-    <sheet name="Class Guides" sheetId="2" r:id="rId5"/>
-    <sheet name="Equipment" sheetId="6" r:id="rId6"/>
-    <sheet name="Advanced Combat" sheetId="8" r:id="rId7"/>
-    <sheet name="Checklist" sheetId="7" r:id="rId8"/>
+    <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
+    <sheet name="Stats - Gathering" sheetId="9" r:id="rId2"/>
+    <sheet name="Stats- Crafting" sheetId="10" r:id="rId3"/>
+    <sheet name="Perks" sheetId="5" r:id="rId4"/>
+    <sheet name="Skill - Class Quests" sheetId="4" r:id="rId5"/>
+    <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId6"/>
+    <sheet name="Class Guides" sheetId="2" r:id="rId7"/>
+    <sheet name="Equipment" sheetId="6" r:id="rId8"/>
+    <sheet name="Advanced Combat" sheetId="8" r:id="rId9"/>
+    <sheet name="Checklist" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="464">
   <si>
     <t>Strength</t>
   </si>
@@ -1370,6 +1372,66 @@
   </si>
   <si>
     <t>Right click should always open menu on object. Left and Right clicks need to be blocked by ui buttons and panels</t>
+  </si>
+  <si>
+    <t>Equipment Change Rendering Player and other Characters</t>
+  </si>
+  <si>
+    <t>How do we render different models onto the same master model for each player and character.</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>General Concept: There is more to gathering than just clicking and access to better areas and equipment.</t>
+  </si>
+  <si>
+    <t>Solo Mini games</t>
+  </si>
+  <si>
+    <t>Multiplayer mini games</t>
+  </si>
+  <si>
+    <t>Cross over form other gathering skills</t>
+  </si>
+  <si>
+    <t>Combos on gathering. Makes it closer resembling combat</t>
+  </si>
+  <si>
+    <t>Instanced gathering</t>
+  </si>
+  <si>
+    <t>Mining Brainstorm</t>
+  </si>
+  <si>
+    <t>Fishing Brainstorm</t>
+  </si>
+  <si>
+    <t>Woodcutting Brainstorm</t>
+  </si>
+  <si>
+    <t>Farming Brainstorm</t>
+  </si>
+  <si>
+    <t>Hunting Brainstorm</t>
+  </si>
+  <si>
+    <t>Whale hunting from combining hunting and fishing</t>
+  </si>
+  <si>
+    <t>two man saws</t>
+  </si>
+  <si>
+    <t>Lots of access areas. Drills?</t>
+  </si>
+  <si>
+    <t>Traps, ranged, tracking, baiting</t>
+  </si>
+  <si>
+    <t>Gardening tools with combos. Areas with a lot of gardening things to do. Most solo mini games</t>
+  </si>
+  <si>
+    <t>Ideas</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,8 +1576,20 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1668,11 +1742,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1802,6 +1928,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2289,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D486571-9D67-47BB-9D65-E846FA7325BB}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2872,1106 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84:D87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="str">
+        <f>A4</f>
+        <v>Instancing: Server - Dungeons / Zones</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="F5" t="str">
+        <f>A8</f>
+        <v>Instancing: Client - Dungeons / Zones</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="F6" t="str">
+        <f>A12</f>
+        <v>Items on Ground</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="F7" t="str">
+        <f>A16</f>
+        <v>Equipment Manager</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="str">
+        <f>A20</f>
+        <v>Equipping from Inventory</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="F9" t="str">
+        <f>A24</f>
+        <v>Augmenting Equipment</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="F10" t="str">
+        <f>A28</f>
+        <v>Perks Panel</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="F11" t="str">
+        <f>A32</f>
+        <v>Perk Activate Panel - Equip</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="F12" t="str">
+        <f>A36</f>
+        <v>Simple combat</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="F13" t="str">
+        <f>A44</f>
+        <v>Advanced combat</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="F14" t="str">
+        <f>A48</f>
+        <v>Gathering - Server</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="F15" t="str">
+        <f>A52</f>
+        <v>Gathering - Client</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" t="str">
+        <f>A56</f>
+        <v>Crafting</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="F17" t="str">
+        <f>A60</f>
+        <v>Banking</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="F18" t="str">
+        <f>A64</f>
+        <v>Quest Manager</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="F19" t="str">
+        <f>A68</f>
+        <v>Spellbooks</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" t="str">
+        <f>A72</f>
+        <v>Augmented Spellbooks</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="F21" t="str">
+        <f>A76</f>
+        <v>Camera Controls</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="F22" t="str">
+        <f>A80</f>
+        <v>UI and Menus</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="51"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" s="51"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="49"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="49"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="49"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D030F2-414B-46C8-BD50-E67A9BF07732}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="92.28515625" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EE11E3-B7CB-4B2F-A2BC-E990E1B4F667}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4831EE7F-C145-4892-BCEC-22E778918A8D}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -2967,7 +4213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C6CA0F-F8AA-40DA-B4B8-895EEE50FAD8}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -3265,7 +4511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
   <dimension ref="A1:O73"/>
   <sheetViews>
@@ -4284,7 +5530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3881CE4-01D8-42F0-A452-3448CAC129CD}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -4581,7 +5827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -4652,7 +5898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -4782,832 +6028,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
-  <dimension ref="A1:F83"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80:D83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" t="str">
-        <f>A4</f>
-        <v>Instancing: Server - Dungeons / Zones</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="F5" t="str">
-        <f>A8</f>
-        <v>Instancing: Client - Dungeons / Zones</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="F6" t="str">
-        <f>A12</f>
-        <v>Items on Ground</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="F7" t="str">
-        <f>A16</f>
-        <v>Equipment Manager</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" t="str">
-        <f>A20</f>
-        <v>Equipping from Inventory</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="F9" t="str">
-        <f>A24</f>
-        <v>Augmenting Equipment</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="F10" t="str">
-        <f>A28</f>
-        <v>Perks Panel</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="F11" t="str">
-        <f>A32</f>
-        <v>Perk Activate Panel - Equip</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="F12" t="str">
-        <f>A36</f>
-        <v>Simple combat</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="F13" t="str">
-        <f>A44</f>
-        <v>Advanced combat</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="F14" t="str">
-        <f>A48</f>
-        <v>Gathering - Server</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="F15" t="str">
-        <f>A52</f>
-        <v>Gathering - Client</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" t="str">
-        <f>A56</f>
-        <v>Crafting</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="F17" t="str">
-        <f>A60</f>
-        <v>Banking</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="F18" t="str">
-        <f>A64</f>
-        <v>Quest Manager</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="F19" t="str">
-        <f>A68</f>
-        <v>Spellbooks</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" t="str">
-        <f>A72</f>
-        <v>Augmented Spellbooks</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="F21" t="str">
-        <f>A76</f>
-        <v>Camera Controls</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="F22" t="str">
-        <f>A80</f>
-        <v>UI and Menus</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="D28" s="51"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="51"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="B68" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="D72" s="51"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="B76" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF3C1A-88B1-4F92-8EA6-744B83E3C872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EBF4C-BF63-434B-9E17-989014AD416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" activeTab="1" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="472">
   <si>
     <t>Strength</t>
   </si>
@@ -1383,9 +1383,6 @@
     <t>Stat</t>
   </si>
   <si>
-    <t>General Concept: There is more to gathering than just clicking and access to better areas and equipment.</t>
-  </si>
-  <si>
     <t>Solo Mini games</t>
   </si>
   <si>
@@ -1416,22 +1413,49 @@
     <t>Hunting Brainstorm</t>
   </si>
   <si>
-    <t>Whale hunting from combining hunting and fishing</t>
-  </si>
-  <si>
-    <t>two man saws</t>
-  </si>
-  <si>
-    <t>Lots of access areas. Drills?</t>
-  </si>
-  <si>
-    <t>Traps, ranged, tracking, baiting</t>
-  </si>
-  <si>
-    <t>Gardening tools with combos. Areas with a lot of gardening things to do. Most solo mini games</t>
-  </si>
-  <si>
     <t>Ideas</t>
+  </si>
+  <si>
+    <t>Fruitist, Veggiteer, Treemonger, Cloud farmer, Underwater</t>
+  </si>
+  <si>
+    <t>Burrower, Dwarven, Archaeologist, Mountaineer, Sludge Mine</t>
+  </si>
+  <si>
+    <t>Big Game Hunter, Stalker, Crawler, Aviary, Insect Hunting, Swamp</t>
+  </si>
+  <si>
+    <t>General Concept: There is more to gathering than just clicking and access to better areas and equipment. All gathering should be less find and click then other games</t>
+  </si>
+  <si>
+    <t>Combos should feel a lot like combat without the synergy. More of a specialty type for efficiency, deep mining for getting up to the mat you want, or increased secondary like gems and such. Certain items can then augment to get specific combos like a miners hat or something like that. Some perks may be required so use certain combos in certain areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuts that lower the odds of the tree from falling. Ways to gather trees without letting them fall at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving bait, extending waiting time, increasing line strength, wiggling the line, fishing with spear, cage, traps, fly fishing, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of different ways to hunt so different hunts will have different skills with different combos. Easiest should be bow hunting. It should feel a lot like a to do list and bring carcasses back to the trainer. Aiming combo. Staying quiet combo. Staying stealth combo. </t>
+  </si>
+  <si>
+    <t>Gardening tools with combos. Areas with a lot of gardening things to do. Most solo mini games. Farming should also include milking cows and slaughtering stuff. Has to be able to make everything for cooking. Should have overlap with items for imbuing and alchemy as well.</t>
+  </si>
+  <si>
+    <t>two man saws. Should have some overlap for all weapon making and provides a lot for farming and alchemy.</t>
+  </si>
+  <si>
+    <t>Whale hunting from combining hunting and fishing. Pole + Bait. Almost solely for alchemy and cooking. Provides for some hunting and some imbuing.</t>
+  </si>
+  <si>
+    <t>Lots of access areas. Drills? Tunneling. Mine carts. Has to contain some of the gathering for imbuing magic items and other ammo. Should be some mining tools that give extra inventory for ore or perks that allow weird equipment configurations. Needs to be some mining equipment that takes ammo. Drill could use electricity crystals or something. Provides most of the smithing supplies.</t>
+  </si>
+  <si>
+    <t>Traps, ranged, tracking, baiting, taming then harvesting, stalking. Provides for leatherworking, smithing, alchemy, cooking, and maybe imbuing. Should provide the monster specific gear parts for smithing, tailoring, and leatherworking.</t>
+  </si>
+  <si>
+    <t>Fertilizing, protecting from elements, insecticides, keeping sunlight off of mushrooms</t>
   </si>
 </sst>
 </file>
@@ -1866,6 +1890,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1887,14 +1923,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1906,9 +1951,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1917,37 +1968,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2480,62 +2504,62 @@
       <c r="A7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="E14" s="31" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="E14" s="35" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="31"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="37"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="31"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="31"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2912,16 +2936,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="46" t="s">
         <v>297</v>
       </c>
       <c r="F4" t="str">
@@ -2930,46 +2954,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>300</v>
       </c>
       <c r="F8" t="str">
@@ -2978,92 +3002,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="46"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="46" t="s">
         <v>303</v>
       </c>
       <c r="F16" t="str">
@@ -3072,46 +3096,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="46" t="s">
         <v>305</v>
       </c>
       <c r="F20" t="str">
@@ -3120,601 +3144,533 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="46" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="46" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="46" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="46" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="46" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="46" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="46" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="46" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="46"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="46" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="46" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="C84:C87"/>
@@ -3731,6 +3687,74 @@
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3738,214 +3762,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D030F2-414B-46C8-BD50-E67A9BF07732}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="92.28515625" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
-    <col min="6" max="6" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="B12" s="23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="55" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
-        <v>453</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-    </row>
-    <row r="16" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
-        <v>454</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-    </row>
-    <row r="18" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="B18" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-    </row>
-    <row r="19" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="B19" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="31" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4230,11 +4210,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="25" t="s">
         <v>264</v>
       </c>
@@ -4248,9 +4228,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="25" t="s">
         <v>265</v>
       </c>
@@ -4264,9 +4244,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="29" t="s">
         <v>388</v>
       </c>
@@ -4280,9 +4260,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -4294,9 +4274,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -4543,106 +4523,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="37"/>
       <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="41"/>
       <c r="G3" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="37"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="37"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="37"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="41"/>
       <c r="G5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="37"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="37"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="37"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="41"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="37"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="37"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -4657,10 +4637,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="37"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4678,10 +4658,10 @@
       <c r="G10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="37"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -4696,14 +4676,14 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="37"/>
+      <c r="H11" s="47"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4718,14 +4698,14 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="37"/>
+      <c r="H12" s="47"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -4740,205 +4720,205 @@
       <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="47"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="33"/>
-      <c r="G18" s="44" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="37"/>
+      <c r="G18" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="J18" s="45" t="s">
+      <c r="H18" s="47"/>
+      <c r="J18" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="37"/>
-      <c r="G19" s="44" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="41"/>
+      <c r="G19" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="47"/>
       <c r="J19" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="26" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="37"/>
-      <c r="G20" s="44" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="41"/>
+      <c r="G20" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="47"/>
       <c r="J20" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
       <c r="O20" s="26" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="37"/>
-      <c r="G21" s="44" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="41"/>
+      <c r="G21" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="47"/>
       <c r="J21" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="26" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="37"/>
-      <c r="G22" s="44" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="41"/>
+      <c r="G22" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="44"/>
+      <c r="H22" s="47"/>
       <c r="J22" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="26" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="44" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="41"/>
+      <c r="G23" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="47"/>
       <c r="J23" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="26" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="37"/>
-      <c r="G24" s="44" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="41"/>
+      <c r="G24" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="35"/>
-      <c r="G25" s="44" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4947,15 +4927,15 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="G27" s="44" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="G27" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4964,15 +4944,15 @@
       <c r="B28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="G28" s="44" t="s">
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="G28" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4981,15 +4961,15 @@
       <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="G29" s="44" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4998,15 +4978,15 @@
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="G30" s="44" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="G30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5015,15 +4995,15 @@
       <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="G31" s="44" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="G31" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5032,15 +5012,15 @@
       <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="G32" s="44" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="G32" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="H32" s="44"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5049,15 +5029,15 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="G33" s="44" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="G33" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -5066,15 +5046,15 @@
       <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="G34" s="44" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="G34" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="H34" s="44"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -5083,13 +5063,13 @@
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5098,13 +5078,13 @@
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5113,13 +5093,13 @@
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5128,13 +5108,13 @@
       <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5143,13 +5123,13 @@
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -5158,13 +5138,13 @@
       <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -5173,13 +5153,13 @@
       <c r="B41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -5188,13 +5168,13 @@
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5203,11 +5183,11 @@
       <c r="B43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -5216,11 +5196,11 @@
       <c r="B44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5229,11 +5209,11 @@
       <c r="B45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5242,11 +5222,11 @@
       <c r="B46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -5255,11 +5235,11 @@
       <c r="B47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -5268,16 +5248,16 @@
       <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
       <c r="F49" t="s">
         <v>354</v>
       </c>
@@ -5286,9 +5266,9 @@
       <c r="B50" t="s">
         <v>339</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" t="s">
         <v>355</v>
       </c>
@@ -5297,9 +5277,9 @@
       <c r="B51" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
       <c r="F51" t="s">
         <v>357</v>
       </c>
@@ -5308,9 +5288,9 @@
       <c r="B52" t="s">
         <v>341</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
       <c r="F52" t="s">
         <v>358</v>
       </c>
@@ -5319,9 +5299,9 @@
       <c r="B53" t="s">
         <v>342</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
       <c r="F53" t="s">
         <v>359</v>
       </c>
@@ -5330,57 +5310,57 @@
       <c r="B54" t="s">
         <v>343</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>344</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>345</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>346</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>347</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>348</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>349</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -5449,6 +5429,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
@@ -5465,65 +5504,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5550,10 +5530,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="28"/>
       <c r="E1" t="s">
         <v>8</v>
@@ -5566,7 +5546,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="27"/>
@@ -5578,7 +5558,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
@@ -5591,7 +5571,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
@@ -5604,7 +5584,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
@@ -5617,7 +5597,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="27"/>
       <c r="E6" t="s">
         <v>275</v>
@@ -5633,28 +5613,28 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="27"/>
       <c r="D11" t="s">
         <v>431</v>
@@ -5670,7 +5650,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="27"/>
@@ -5685,7 +5665,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="27"/>
       <c r="D13" t="s">
         <v>432</v>
@@ -5698,7 +5678,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="27"/>
       <c r="D14" t="s">
         <v>432</v>
@@ -5711,7 +5691,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="27"/>
       <c r="D15" t="s">
         <v>432</v>
@@ -5724,7 +5704,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="27"/>
       <c r="D16" t="s">
         <v>432</v>
@@ -5740,13 +5720,13 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="27"/>
       <c r="D18" t="s">
         <v>431</v>
@@ -5759,7 +5739,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="27"/>
       <c r="D19" t="s">
         <v>432</v>
@@ -5769,7 +5749,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="27"/>
       <c r="D20" t="s">
         <v>432</v>
@@ -5779,7 +5759,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="27"/>
       <c r="D21" t="s">
         <v>432</v>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EBF4C-BF63-434B-9E17-989014AD416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A531CF72-49D8-414B-AA10-0EFE1CA5DD53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" activeTab="1" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="512">
   <si>
     <t>Strength</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Cleric</t>
   </si>
   <si>
-    <t>Pugulist</t>
-  </si>
-  <si>
     <t>Zealot</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>Gunner</t>
-  </si>
-  <si>
     <t>Pures require the fewest requirements for quests and no blending. I think it would be fair to make them the weakest classes. Unless we make requirements higher with crafting. Intro intended as a class that falls off so you pick a path. Specific weapons will allow for targeting allies, or targeting both allies and enemies. Since the begining paths are limited, all straight supports should target both or have weapons for allies only as their support. Probably could put some more straight pures in with more difficult quest lines.</t>
   </si>
   <si>
@@ -1296,15 +1290,6 @@
     <t>Sub - Weapon Master</t>
   </si>
   <si>
-    <t>Sub - War Chief</t>
-  </si>
-  <si>
-    <t>Class Derivations</t>
-  </si>
-  <si>
-    <t>Start - Warrior</t>
-  </si>
-  <si>
     <t>Sub</t>
   </si>
   <si>
@@ -1350,9 +1335,6 @@
     <t>2 Handed weapons | Mostly Combos</t>
   </si>
   <si>
-    <t>More buffs and control with aspects of all. Balanced. Maybe we have Hero classes or Legend classes</t>
-  </si>
-  <si>
     <t>Sub - Tomahawk</t>
   </si>
   <si>
@@ -1456,6 +1438,144 @@
   </si>
   <si>
     <t>Fertilizing, protecting from elements, insecticides, keeping sunlight off of mushrooms</t>
+  </si>
+  <si>
+    <t>Full Round (Class)</t>
+  </si>
+  <si>
+    <t>Full Round (Gathering)</t>
+  </si>
+  <si>
+    <t>Full Round (Crafting)</t>
+  </si>
+  <si>
+    <t>A full path for a single class. Should have all the side quests and requirments even if they are wrong in the future.</t>
+  </si>
+  <si>
+    <t>A full path for a single crafting stat. Should have all the side quests and requirments even if they are wrong in the future.</t>
+  </si>
+  <si>
+    <t>A full path for a single gathering stat. Should have all the side quests and requirments even if they are wrong in the future.</t>
+  </si>
+  <si>
+    <t>Should have the first class quest, requirements for further chain, rewards, perks, restrictions</t>
+  </si>
+  <si>
+    <t>Should have the first class quests, requirements for further chains, rewards, perks, restrictions</t>
+  </si>
+  <si>
+    <t>Archivist</t>
+  </si>
+  <si>
+    <t>Almost every Pure and Blend on here is wrong now. Going to try and organize main classes and sub classes</t>
+  </si>
+  <si>
+    <t>Full Round (Regular Quest Line)</t>
+  </si>
+  <si>
+    <t>Single quest chain with no class rewards. Stricly a story and access granting quest.</t>
+  </si>
+  <si>
+    <t>Should have requirements, full chain, rewards, and perks</t>
+  </si>
+  <si>
+    <t>Branch of Warrior with more emphasis on Primal Tanking</t>
+  </si>
+  <si>
+    <t>Soldier (blend of support and damage)</t>
+  </si>
+  <si>
+    <t>Guardian (primarily tanks some support)</t>
+  </si>
+  <si>
+    <t>Sub - Hoplite</t>
+  </si>
+  <si>
+    <t>Sub - Mech Tank</t>
+  </si>
+  <si>
+    <t>Sub - Shield-bearer</t>
+  </si>
+  <si>
+    <t>Sub - Dragoon</t>
+  </si>
+  <si>
+    <t>Sub - Markings Warrior (buffs / Paints)</t>
+  </si>
+  <si>
+    <t>Sub - War Caller</t>
+  </si>
+  <si>
+    <t>Sub - Titan - Nature or storm or mountain</t>
+  </si>
+  <si>
+    <t>More buffs and control with aspects of all. Balanced</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Primal / Elemental</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Class Difference for Blending</t>
+  </si>
+  <si>
+    <t>10 Main Classes</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>AGL</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>Can sub classes use different main stats?</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Druid - Shapeshift for snake versus shapeshift for bear?</t>
+  </si>
+  <si>
+    <t>Warrior has 3 Attunements and 17 sub classes</t>
+  </si>
+  <si>
+    <t>Sub classes need to be similar in play style with slight variations or role changes</t>
+  </si>
+  <si>
+    <t>Main stats can change</t>
+  </si>
+  <si>
+    <t>Needs to be versatile with gear and weapons</t>
+  </si>
+  <si>
+    <t>Some should be railroaded</t>
+  </si>
+  <si>
+    <t>Some should be very restricted</t>
+  </si>
+  <si>
+    <t>Some could be very flexible</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1634,30 +1754,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1822,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1847,7 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,16 +1989,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1911,43 +2022,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1962,18 +2064,16 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2477,105 +2577,105 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="37"/>
+        <v>216</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="E14" s="35" t="s">
-        <v>188</v>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="E14" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="E16" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="35"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="35"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,33 +2700,33 @@
         <v>5</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2634,254 +2734,254 @@
         <v>7</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="E35" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2898,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84:D87"/>
+    <sheetView topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,38 +3015,38 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="C4" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>297</v>
+      <c r="D4" s="44" t="s">
+        <v>295</v>
       </c>
       <c r="F4" t="str">
         <f>A4</f>
@@ -2954,47 +3054,47 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="58"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="58"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>295</v>
+      <c r="A8" s="59" t="s">
+        <v>293</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>298</v>
       </c>
       <c r="F8" t="str">
         <f>A20</f>
@@ -3002,93 +3102,93 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="58"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="58"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="58"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>282</v>
+      <c r="A12" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="46"/>
+        <v>294</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="44"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="58"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="58"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>283</v>
+      <c r="A16" s="59" t="s">
+        <v>281</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>301</v>
       </c>
       <c r="F16" t="str">
         <f>A56</f>
@@ -3096,47 +3196,47 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="58"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="58"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>284</v>
+      <c r="A20" s="59" t="s">
+        <v>282</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>303</v>
       </c>
       <c r="F20" t="str">
         <f>A72</f>
@@ -3144,533 +3244,661 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="58"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="58"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="44"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="46" t="s">
+      <c r="B32" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="46" t="s">
+      <c r="B36" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="46"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="D36" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="46"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="B44" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="B48" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="D44" s="46" t="s">
+      <c r="B52" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="D52" s="44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="59"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="59"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="46"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="B60" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="59"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C60" s="46" t="s">
+      <c r="B64" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D64" s="44" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C64" s="46" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="B68" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="59" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="B68" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C68" s="46" t="s">
+      <c r="B72" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B72" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="D72" s="46"/>
+      <c r="D72" s="44"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="58"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="58"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="57" t="s">
-        <v>336</v>
+      <c r="A76" s="59" t="s">
+        <v>334</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
+        <v>294</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="58"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="58"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="58"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="57" t="s">
-        <v>337</v>
+      <c r="A80" s="59" t="s">
+        <v>335</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>443</v>
+        <v>294</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="58"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="58"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>443</v>
+        <v>294</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="58"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="58"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="57"/>
       <c r="B87" s="58"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="57"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="57"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="57"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="B92" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="57"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="57"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="57"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="57"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="57"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="57"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="57"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="57"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="57"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="100">
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="C84:C87"/>
@@ -3698,6 +3926,7 @@
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="C64:C67"/>
@@ -3738,7 +3967,6 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
@@ -3755,6 +3983,22 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3764,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D030F2-414B-46C8-BD50-E67A9BF07732}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3778,144 +4022,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="43"/>
+        <v>440</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="46"/>
       <c r="D14" s="34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="44"/>
+        <v>446</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="31" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="C16" s="46"/>
+        <v>447</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="44"/>
       <c r="D16" s="31" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C17" s="46"/>
+        <v>448</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="44"/>
       <c r="D17" s="31" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" s="46"/>
+        <v>449</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="D18" s="31" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" s="46"/>
+        <v>450</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19" s="31" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3943,7 +4187,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -3972,219 +4216,219 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
         <v>199</v>
       </c>
-      <c r="C10" t="s">
-        <v>201</v>
-      </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
         <v>208</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" t="s">
-        <v>210</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" t="s">
         <v>211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>213</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
         <v>215</v>
-      </c>
-      <c r="B15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" t="s">
-        <v>217</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
         <v>230</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4210,13 +4454,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -4228,11 +4472,11 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -4244,11 +4488,11 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -4260,9 +4504,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -4274,9 +4518,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -4289,16 +4533,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
         <v>246</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4306,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
         <v>252</v>
-      </c>
-      <c r="D9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4320,13 +4564,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4334,22 +4578,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4358,7 +4602,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -4372,16 +4616,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
         <v>258</v>
       </c>
-      <c r="C17" t="s">
-        <v>260</v>
-      </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,16 +4638,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" t="s">
         <v>258</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>260</v>
-      </c>
-      <c r="D20" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,58 +4660,58 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,10 +4737,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,119 +4754,119 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="37"/>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="37"/>
+      <c r="K2" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="41"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="42"/>
       <c r="G3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="42"/>
+      <c r="G4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="41"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="41"/>
-      <c r="G4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="42"/>
       <c r="G5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="41"/>
+        <v>83</v>
+      </c>
+      <c r="K5" s="41"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="41"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="41"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="42"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="41"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="41"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="39"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="41"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -4637,10 +4881,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4655,13 +4899,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="41"/>
+      <c r="G10" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -4676,14 +4921,14 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="41"/>
+      <c r="G11" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4696,16 +4941,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -4718,721 +4963,780 @@
         <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="G14" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="41"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="47" t="s">
+      <c r="H14" s="49"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="G15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="39"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="47" t="s">
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="47"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="J17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="38"/>
+      <c r="G18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="37"/>
-      <c r="G18" s="47" t="s">
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="42"/>
+      <c r="G19" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="J18" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="41"/>
-      <c r="G19" s="47" t="s">
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="42"/>
+      <c r="G20" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="J19" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="41"/>
-      <c r="G20" s="47" t="s">
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="42"/>
+      <c r="G21" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="42"/>
+      <c r="G22" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="J20" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="41"/>
-      <c r="G21" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="J21" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="26" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="41"/>
-      <c r="G22" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="J22" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="26" t="s">
-        <v>409</v>
-      </c>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="41"/>
-      <c r="G23" s="47" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="42"/>
+      <c r="G23" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="42"/>
+      <c r="G24" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="J23" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="26" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="41"/>
-      <c r="G24" s="47" t="s">
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="47" t="s">
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="G27" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="G27" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="G28" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="H28" s="47"/>
+        <v>107</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="G28" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="G29" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="H29" s="47"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="G29" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="G30" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="H30" s="47"/>
+        <v>60</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="G30" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="G31" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="H31" s="47"/>
+        <v>80</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="G31" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="G32" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="J32" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="G33" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="J33" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="G32" s="47" t="s">
+      <c r="B34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="G34" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="H34" s="49"/>
+      <c r="J34" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="G35" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="J35" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="G36" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="H36" s="49"/>
+      <c r="J36" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="G37" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="J37" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="G33" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C40" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="G34" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>344</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>350</v>
+      </c>
+      <c r="F61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>354</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>359</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>370</v>
+      </c>
+      <c r="F66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>372</v>
+      </c>
+      <c r="F68" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>374</v>
+      </c>
+      <c r="F70" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>339</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>340</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>341</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>342</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>345</v>
-      </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>346</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>347</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>348</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>349</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>441</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
+  <mergeCells count="76">
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C33:E33"/>
@@ -5445,6 +5749,12 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C39:E39"/>
@@ -5460,7 +5770,6 @@
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
     <mergeCell ref="K2:N14"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -5475,8 +5784,8 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="A2:E8"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="A18:E25"/>
     <mergeCell ref="G21:H21"/>
@@ -5488,6 +5797,7 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
@@ -5503,7 +5813,6 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5512,296 +5821,449 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3881CE4-01D8-42F0-A452-3448CAC129CD}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="28"/>
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="27"/>
+      <c r="B2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
-        <v>421</v>
-      </c>
-      <c r="O3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
-        <v>414</v>
-      </c>
-      <c r="O4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="27"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="27"/>
       <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="27"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="27"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="27"/>
-      <c r="E9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="27"/>
-      <c r="D11" t="s">
-        <v>431</v>
-      </c>
+      <c r="B7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="27"/>
+      <c r="F9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="27"/>
       <c r="E11" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="G11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" t="s">
+      <c r="B12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="27"/>
+      <c r="E12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="27"/>
+      <c r="E13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="27"/>
+      <c r="E14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="27"/>
+      <c r="E15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="27"/>
+      <c r="E16" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" t="s">
         <v>432</v>
       </c>
-      <c r="E12" t="s">
-        <v>415</v>
-      </c>
-      <c r="F12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="27"/>
-      <c r="D13" t="s">
-        <v>432</v>
-      </c>
-      <c r="E13" t="s">
-        <v>416</v>
-      </c>
-      <c r="F13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="27"/>
-      <c r="D14" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="27"/>
-      <c r="D15" t="s">
-        <v>432</v>
-      </c>
-      <c r="E15" t="s">
-        <v>418</v>
-      </c>
-      <c r="F15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="27"/>
-      <c r="D16" t="s">
-        <v>432</v>
-      </c>
-      <c r="E16" t="s">
-        <v>437</v>
-      </c>
-      <c r="F16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="27"/>
-      <c r="D18" t="s">
-        <v>431</v>
-      </c>
+      <c r="B17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="27"/>
       <c r="E18" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" t="s">
+        <v>480</v>
+      </c>
+      <c r="G18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="27"/>
+      <c r="E19" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="27"/>
+      <c r="E20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="27"/>
+      <c r="E21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>490</v>
+      </c>
+      <c r="B25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" t="s">
+        <v>481</v>
+      </c>
+      <c r="G26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="27"/>
-      <c r="D19" t="s">
-        <v>432</v>
-      </c>
-      <c r="E19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="27"/>
-      <c r="D20" t="s">
-        <v>432</v>
-      </c>
-      <c r="E20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="27"/>
-      <c r="D21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E21" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>432</v>
-      </c>
-      <c r="E22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" t="s">
-        <v>432</v>
-      </c>
-      <c r="E23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E24" t="s">
-        <v>439</v>
+      <c r="F27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>491</v>
+      </c>
+      <c r="E28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>492</v>
+      </c>
+      <c r="E29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>492</v>
+      </c>
+      <c r="E30" t="s">
+        <v>427</v>
+      </c>
+      <c r="F30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>492</v>
+      </c>
+      <c r="E31" t="s">
+        <v>427</v>
+      </c>
+      <c r="F31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>427</v>
+      </c>
+      <c r="F32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="B12:C16"/>
+    <mergeCell ref="B17:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5819,57 +6281,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5897,112 +6359,112 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A531CF72-49D8-414B-AA10-0EFE1CA5DD53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABDBE41-B3A8-40CA-97E2-23EAE583B272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="6" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="8" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="569">
   <si>
     <t>Strength</t>
   </si>
@@ -1576,13 +1576,184 @@
   </si>
   <si>
     <t>Some could be very flexible</t>
+  </si>
+  <si>
+    <t>Marksman</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Ranged Mix</t>
+  </si>
+  <si>
+    <t>Melee finesse</t>
+  </si>
+  <si>
+    <t>Melee stealth</t>
+  </si>
+  <si>
+    <t>Sorceror</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>DPS ranged</t>
+  </si>
+  <si>
+    <t>Tank and some support</t>
+  </si>
+  <si>
+    <t>Tanking support</t>
+  </si>
+  <si>
+    <t>Supporting</t>
+  </si>
+  <si>
+    <t>List of Triggers</t>
+  </si>
+  <si>
+    <t>List of Affects</t>
+  </si>
+  <si>
+    <t>on Heal</t>
+  </si>
+  <si>
+    <t>on Hit</t>
+  </si>
+  <si>
+    <t>on Auto</t>
+  </si>
+  <si>
+    <t>on Combo Hit</t>
+  </si>
+  <si>
+    <t>on Combo Stack Hit (x2 x3 x4)</t>
+  </si>
+  <si>
+    <t>on Cooldown</t>
+  </si>
+  <si>
+    <t>on Buff</t>
+  </si>
+  <si>
+    <t>on Debuff</t>
+  </si>
+  <si>
+    <t>on Move</t>
+  </si>
+  <si>
+    <t>after Time moving</t>
+  </si>
+  <si>
+    <t>after Time without heal</t>
+  </si>
+  <si>
+    <t>after Time without damage</t>
+  </si>
+  <si>
+    <t>after Time without buff</t>
+  </si>
+  <si>
+    <t>after Time without debuff</t>
+  </si>
+  <si>
+    <t>after Time without moving</t>
+  </si>
+  <si>
+    <t>after particular spell</t>
+  </si>
+  <si>
+    <t>after particular combo</t>
+  </si>
+  <si>
+    <t>after particular debuff</t>
+  </si>
+  <si>
+    <t>after particular buff</t>
+  </si>
+  <si>
+    <t>after particular damage type</t>
+  </si>
+  <si>
+    <t>on Damage Type</t>
+  </si>
+  <si>
+    <t>on Damage</t>
+  </si>
+  <si>
+    <t>on Combo Miss</t>
+  </si>
+  <si>
+    <t>on Combo Miss Stack Hit (2x 3x 4x)</t>
+  </si>
+  <si>
+    <t>on Movement Skill Activated</t>
+  </si>
+  <si>
+    <t>while Movement Skill Charged</t>
+  </si>
+  <si>
+    <t>while ally "" ""</t>
+  </si>
+  <si>
+    <t>while enemy "" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deal damage</t>
+  </si>
+  <si>
+    <t>debuff</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>add combo to chain</t>
+  </si>
+  <si>
+    <t>remove combo from chain</t>
+  </si>
+  <si>
+    <t>heal damage</t>
+  </si>
+  <si>
+    <t>add charge movement</t>
+  </si>
+  <si>
+    <t>add charge spell</t>
+  </si>
+  <si>
+    <t>clear cooldown spell</t>
+  </si>
+  <si>
+    <t>clear cooldown perk</t>
+  </si>
+  <si>
+    <t>clear cooldown combo</t>
+  </si>
+  <si>
+    <t>add effect to ground</t>
+  </si>
+  <si>
+    <t>trigger detonate</t>
+  </si>
+  <si>
+    <t>add stack of combo</t>
+  </si>
+  <si>
+    <t>on Hold</t>
+  </si>
+  <si>
+    <t>on Release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,8 +1776,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1729,6 +1907,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2001,6 +2185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2037,9 +2222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2058,6 +2240,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2073,7 +2258,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2604,62 +2791,62 @@
       <c r="A7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="E14" s="37" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="36"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3036,16 +3223,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="45" t="s">
         <v>295</v>
       </c>
       <c r="F4" t="str">
@@ -3054,46 +3241,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="45" t="s">
         <v>298</v>
       </c>
       <c r="F8" t="str">
@@ -3102,92 +3289,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="45" t="s">
         <v>301</v>
       </c>
       <c r="F16" t="str">
@@ -3196,46 +3383,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="45" t="s">
         <v>303</v>
       </c>
       <c r="F20" t="str">
@@ -3244,658 +3431,658 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="45" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="45" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="45" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="45" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="45" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="45" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="45" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="45" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="45" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="D72" s="44"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="45" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
+      <c r="A84" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="45" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="45" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="D92" s="44" t="s">
+      <c r="D92" s="45" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="45" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C100" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="D100" s="44" t="s">
+      <c r="D100" s="45" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="100">
@@ -4094,10 +4281,10 @@
       <c r="A14" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="34" t="s">
         <v>376</v>
       </c>
@@ -4106,10 +4293,10 @@
       <c r="A15" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="31" t="s">
         <v>456</v>
       </c>
@@ -4118,10 +4305,10 @@
       <c r="A16" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="31" t="s">
         <v>458</v>
       </c>
@@ -4130,10 +4317,10 @@
       <c r="A17" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>461</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="31" t="s">
         <v>457</v>
       </c>
@@ -4142,10 +4329,10 @@
       <c r="A18" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="31" t="s">
         <v>465</v>
       </c>
@@ -4154,10 +4341,10 @@
       <c r="A19" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="31" t="s">
         <v>459</v>
       </c>
@@ -4454,11 +4641,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="25" t="s">
         <v>262</v>
       </c>
@@ -4472,9 +4659,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="25" t="s">
         <v>263</v>
       </c>
@@ -4488,9 +4675,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="29" t="s">
         <v>386</v>
       </c>
@@ -4504,9 +4691,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -4518,9 +4705,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -4767,106 +4954,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="G2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
-      <c r="N2" s="38"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
-      <c r="E3" s="42"/>
+      <c r="E3" s="43"/>
       <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
-      <c r="N3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
-      <c r="E4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="G4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="42"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
-      <c r="E5" s="42"/>
+      <c r="E5" s="43"/>
       <c r="G5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
-      <c r="N5" s="42"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
-      <c r="E6" s="42"/>
-      <c r="K6" s="41"/>
+      <c r="E6" s="43"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
-      <c r="N6" s="42"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
-      <c r="E7" s="42"/>
-      <c r="K7" s="41"/>
+      <c r="E7" s="43"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
-      <c r="E8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -4881,10 +5068,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4899,14 +5086,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="55"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -4925,10 +5112,10 @@
         <v>91</v>
       </c>
       <c r="H11" s="49"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4947,10 +5134,10 @@
         <v>92</v>
       </c>
       <c r="H12" s="49"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
-      <c r="N12" s="42"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -4969,30 +5156,30 @@
         <v>93</v>
       </c>
       <c r="H13" s="49"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="42"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="G14" s="49" t="s">
         <v>94</v>
       </c>
       <c r="H14" s="49"/>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="40"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="G15" s="49" t="s">
         <v>95</v>
       </c>
@@ -5017,90 +5204,90 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>239</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="G18" s="49" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="43"/>
       <c r="G19" s="49" t="s">
         <v>99</v>
       </c>
       <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="43"/>
       <c r="G20" s="49" t="s">
         <v>100</v>
       </c>
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="43"/>
       <c r="G21" s="49" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="43"/>
       <c r="G22" s="49" t="s">
         <v>101</v>
       </c>
       <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="43"/>
       <c r="G23" s="49" t="s">
         <v>109</v>
       </c>
       <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="43"/>
       <c r="G24" s="49" t="s">
         <v>110</v>
       </c>
       <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="G25" s="49" t="s">
         <v>111</v>
       </c>
@@ -5241,10 +5428,10 @@
       <c r="J33" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
       <c r="O33" s="26" t="s">
         <v>403</v>
       </c>
@@ -5268,10 +5455,10 @@
       <c r="J34" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
       <c r="O34" s="26" t="s">
         <v>377</v>
       </c>
@@ -5295,10 +5482,10 @@
       <c r="J35" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
       <c r="O35" s="26" t="s">
         <v>405</v>
       </c>
@@ -5322,10 +5509,10 @@
       <c r="J36" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
       <c r="O36" s="26" t="s">
         <v>407</v>
       </c>
@@ -5349,10 +5536,10 @@
       <c r="J37" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
       <c r="O37" s="26" t="s">
         <v>409</v>
       </c>
@@ -5737,7 +5924,7 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
@@ -5749,7 +5936,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C52:E52"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="K35:N35"/>
@@ -5770,6 +5956,7 @@
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="K2:N14"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -5785,7 +5972,7 @@
     <mergeCell ref="A2:E8"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="A18:E25"/>
     <mergeCell ref="G21:H21"/>
@@ -5797,7 +5984,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
@@ -5813,6 +5999,7 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5823,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3881CE4-01D8-42F0-A452-3448CAC129CD}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,42 +6041,42 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
         <v>273</v>
@@ -5899,33 +6086,33 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>426</v>
@@ -5941,10 +6128,10 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>427</v>
@@ -5957,8 +6144,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>427</v>
@@ -5971,8 +6158,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>427</v>
@@ -5985,8 +6172,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>427</v>
@@ -5999,8 +6186,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>427</v>
@@ -6016,15 +6203,15 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>426</v>
@@ -6037,8 +6224,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>427</v>
@@ -6048,8 +6235,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>427</v>
@@ -6059,8 +6246,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>427</v>
@@ -6165,6 +6352,12 @@
       <c r="A29" t="s">
         <v>492</v>
       </c>
+      <c r="B29" t="s">
+        <v>512</v>
+      </c>
+      <c r="C29" t="s">
+        <v>514</v>
+      </c>
       <c r="E29" t="s">
         <v>427</v>
       </c>
@@ -6176,6 +6369,12 @@
       <c r="A30" t="s">
         <v>492</v>
       </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>515</v>
+      </c>
       <c r="E30" t="s">
         <v>427</v>
       </c>
@@ -6187,6 +6386,12 @@
       <c r="A31" t="s">
         <v>492</v>
       </c>
+      <c r="B31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" t="s">
+        <v>516</v>
+      </c>
       <c r="E31" t="s">
         <v>427</v>
       </c>
@@ -6198,6 +6403,12 @@
       <c r="A32" t="s">
         <v>20</v>
       </c>
+      <c r="B32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C32" t="s">
+        <v>519</v>
+      </c>
       <c r="E32" t="s">
         <v>427</v>
       </c>
@@ -6209,11 +6420,23 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
+      <c r="B34" t="s">
+        <v>518</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
       <c r="E34" t="s">
         <v>505</v>
       </c>
@@ -6222,6 +6445,12 @@
       <c r="A35" t="s">
         <v>21</v>
       </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>521</v>
+      </c>
       <c r="F35" t="s">
         <v>506</v>
       </c>
@@ -6230,6 +6459,12 @@
       <c r="A36" t="s">
         <v>21</v>
       </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
       <c r="F36" t="s">
         <v>507</v>
       </c>
@@ -6237,6 +6472,12 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>522</v>
       </c>
       <c r="F37" t="s">
         <v>508</v>
@@ -6342,10 +6583,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6353,16 +6594,16 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>376</v>
       </c>
@@ -6370,7 +6611,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>377</v>
       </c>
@@ -6378,7 +6619,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -6386,7 +6627,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -6394,7 +6635,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -6402,69 +6643,249 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>388</v>
       </c>
       <c r="B11" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
       <c r="B12" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>527</v>
+      </c>
+      <c r="E12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>389</v>
       </c>
       <c r="B13" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>391</v>
       </c>
       <c r="B14" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>530</v>
+      </c>
+      <c r="E15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>399</v>
+      </c>
+      <c r="D19" t="s">
+        <v>545</v>
+      </c>
+      <c r="E19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>546</v>
+      </c>
+      <c r="E20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>548</v>
+      </c>
+      <c r="E22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>539</v>
+      </c>
+      <c r="E23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABDBE41-B3A8-40CA-97E2-23EAE583B272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE9845A-8AD8-4ECD-B975-653FAF5C7633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="8" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="577">
   <si>
     <t>Strength</t>
   </si>
@@ -1701,9 +1701,6 @@
     <t>while enemy "" ""</t>
   </si>
   <si>
-    <t xml:space="preserve"> deal damage</t>
-  </si>
-  <si>
     <t>debuff</t>
   </si>
   <si>
@@ -1747,6 +1744,33 @@
   </si>
   <si>
     <t>on Release</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt; Can make some cool combinations</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt; Hoping we can get an example of all of them</t>
+  </si>
+  <si>
+    <t>Increased / Decreased (Stat)</t>
+  </si>
+  <si>
+    <t>Increased / Decreased (Damage Type)</t>
+  </si>
+  <si>
+    <t>Increased / Decreased (Resistance)</t>
+  </si>
+  <si>
+    <t>Increased / Decreased (Hits)</t>
+  </si>
+  <si>
+    <t>Empower Spell</t>
+  </si>
+  <si>
+    <t>Empower Combo</t>
+  </si>
+  <si>
+    <t>deal damage</t>
   </si>
 </sst>
 </file>
@@ -2186,6 +2210,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2257,9 +2284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2791,62 +2815,62 @@
       <c r="A7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="E14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="E14" s="38" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="37"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3223,16 +3247,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>295</v>
       </c>
       <c r="F4" t="str">
@@ -3241,46 +3265,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>298</v>
       </c>
       <c r="F8" t="str">
@@ -3289,92 +3313,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="46" t="s">
         <v>301</v>
       </c>
       <c r="F16" t="str">
@@ -3383,46 +3407,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="46" t="s">
         <v>303</v>
       </c>
       <c r="F20" t="str">
@@ -3431,658 +3455,658 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="46" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="46" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="46" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="46" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="46" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="46" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="46" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="46" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="46" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="60" t="s">
+      <c r="A72" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="D72" s="45"/>
+      <c r="D72" s="46"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D80" s="46" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="D84" s="45" t="s">
+      <c r="D84" s="46" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="58" t="s">
+      <c r="A88" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D88" s="46" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58" t="s">
+      <c r="A92" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="C92" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="D92" s="45" t="s">
+      <c r="D92" s="46" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="46" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
+      <c r="A100" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="D100" s="45" t="s">
+      <c r="D100" s="46" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="100">
@@ -4281,10 +4305,10 @@
       <c r="A14" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="34" t="s">
         <v>376</v>
       </c>
@@ -4293,10 +4317,10 @@
       <c r="A15" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="31" t="s">
         <v>456</v>
       </c>
@@ -4305,10 +4329,10 @@
       <c r="A16" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="31" t="s">
         <v>458</v>
       </c>
@@ -4317,10 +4341,10 @@
       <c r="A17" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="31" t="s">
         <v>457</v>
       </c>
@@ -4329,10 +4353,10 @@
       <c r="A18" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>460</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="31" t="s">
         <v>465</v>
       </c>
@@ -4341,10 +4365,10 @@
       <c r="A19" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>464</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="31" t="s">
         <v>459</v>
       </c>
@@ -4641,11 +4665,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="25" t="s">
         <v>262</v>
       </c>
@@ -4659,9 +4683,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="25" t="s">
         <v>263</v>
       </c>
@@ -4675,9 +4699,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="29" t="s">
         <v>386</v>
       </c>
@@ -4691,9 +4715,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -4705,9 +4729,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -4954,106 +4978,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="40"/>
       <c r="G2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="44"/>
       <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="44"/>
       <c r="G4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="44"/>
       <c r="G5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="43"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="43"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="44"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -5068,10 +5092,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -5086,14 +5110,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="43"/>
+      <c r="H10" s="56"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -5108,14 +5132,14 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="43"/>
+      <c r="H11" s="50"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -5130,14 +5154,14 @@
       <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="43"/>
+      <c r="H12" s="50"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -5152,152 +5176,152 @@
       <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="43"/>
+      <c r="H13" s="50"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="41"/>
+      <c r="H14" s="50"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="49"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="J17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="39"/>
-      <c r="G18" s="49" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="40"/>
+      <c r="G18" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="49"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="43"/>
-      <c r="G19" s="49" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="44"/>
+      <c r="G19" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="49"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="43"/>
-      <c r="G20" s="49" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="44"/>
+      <c r="G20" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="49"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="43"/>
-      <c r="G21" s="49" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="44"/>
+      <c r="G21" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="43"/>
-      <c r="G22" s="49" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="44"/>
+      <c r="G22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="43"/>
-      <c r="G23" s="49" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="44"/>
+      <c r="G23" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="49"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="43"/>
-      <c r="G24" s="49" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="44"/>
+      <c r="G24" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="41"/>
-      <c r="G25" s="49" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="42"/>
+      <c r="G25" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="49"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="49"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5306,15 +5330,15 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="G27" s="49" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="G27" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5323,15 +5347,15 @@
       <c r="B28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="G28" s="49" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="G28" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5340,15 +5364,15 @@
       <c r="B29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="G29" s="49" t="s">
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="G29" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5357,15 +5381,15 @@
       <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="G30" s="49" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="G30" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5374,15 +5398,15 @@
       <c r="B31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="G31" s="49" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="G31" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="H31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5391,23 +5415,23 @@
       <c r="B32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="G32" s="49" t="s">
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="G32" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="J32" s="54" t="s">
+      <c r="H32" s="50"/>
+      <c r="J32" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5416,22 +5440,22 @@
       <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="G33" s="49" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="G33" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="H33" s="49"/>
+      <c r="H33" s="50"/>
       <c r="J33" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
       <c r="O33" s="26" t="s">
         <v>403</v>
       </c>
@@ -5443,22 +5467,22 @@
       <c r="B34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="G34" s="49" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="G34" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="H34" s="49"/>
+      <c r="H34" s="50"/>
       <c r="J34" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
       <c r="O34" s="26" t="s">
         <v>377</v>
       </c>
@@ -5470,22 +5494,22 @@
       <c r="B35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="G35" s="49" t="s">
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="G35" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="H35" s="49"/>
+      <c r="H35" s="50"/>
       <c r="J35" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="26" t="s">
         <v>405</v>
       </c>
@@ -5497,22 +5521,22 @@
       <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="G36" s="49" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="G36" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="H36" s="49"/>
+      <c r="H36" s="50"/>
       <c r="J36" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="26" t="s">
         <v>407</v>
       </c>
@@ -5524,22 +5548,22 @@
       <c r="B37" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="G37" s="49" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="G37" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="H37" s="49"/>
+      <c r="H37" s="50"/>
       <c r="J37" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
       <c r="O37" s="26" t="s">
         <v>409</v>
       </c>
@@ -5551,13 +5575,13 @@
       <c r="B38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5566,13 +5590,13 @@
       <c r="B39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -5581,13 +5605,13 @@
       <c r="B40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -5596,13 +5620,13 @@
       <c r="B41" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -5611,13 +5635,13 @@
       <c r="B42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5626,11 +5650,11 @@
       <c r="B43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -5639,11 +5663,11 @@
       <c r="B44" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5652,11 +5676,11 @@
       <c r="B45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5665,11 +5689,11 @@
       <c r="B46" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -5678,11 +5702,11 @@
       <c r="B47" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -5691,16 +5715,16 @@
       <c r="B48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
       <c r="F49" t="s">
         <v>352</v>
       </c>
@@ -5709,9 +5733,9 @@
       <c r="B50" t="s">
         <v>337</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
       <c r="F50" t="s">
         <v>353</v>
       </c>
@@ -5720,9 +5744,9 @@
       <c r="B51" t="s">
         <v>338</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
       <c r="F51" t="s">
         <v>355</v>
       </c>
@@ -5731,9 +5755,9 @@
       <c r="B52" t="s">
         <v>339</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
       <c r="F52" t="s">
         <v>356</v>
       </c>
@@ -5742,9 +5766,9 @@
       <c r="B53" t="s">
         <v>340</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
       <c r="F53" t="s">
         <v>357</v>
       </c>
@@ -5753,41 +5777,41 @@
       <c r="B54" t="s">
         <v>341</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>342</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>343</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>344</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>345</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
       <c r="F58" t="s">
         <v>497</v>
       </c>
@@ -5805,17 +5829,17 @@
       <c r="B59" t="s">
         <v>346</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>347</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
       <c r="F60" t="s">
         <v>498</v>
       </c>
@@ -6027,10 +6051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -6041,42 +6065,42 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
         <v>273</v>
@@ -6086,33 +6110,33 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>426</v>
@@ -6128,10 +6152,10 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>427</v>
@@ -6144,8 +6168,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>427</v>
@@ -6158,8 +6182,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>427</v>
@@ -6172,8 +6196,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>427</v>
@@ -6186,8 +6210,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>427</v>
@@ -6203,15 +6227,15 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>426</v>
@@ -6224,8 +6248,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>427</v>
@@ -6235,8 +6259,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>427</v>
@@ -6246,8 +6270,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>427</v>
@@ -6583,10 +6607,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,12 +6622,12 @@
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>376</v>
       </c>
@@ -6611,7 +6635,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>377</v>
       </c>
@@ -6619,7 +6643,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -6627,7 +6651,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -6635,7 +6659,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -6643,15 +6667,18 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="61" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="37" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>387</v>
       </c>
@@ -6662,10 +6689,13 @@
         <v>525</v>
       </c>
       <c r="E10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="G10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>388</v>
       </c>
@@ -6676,10 +6706,10 @@
         <v>526</v>
       </c>
       <c r="E11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -6690,10 +6720,10 @@
         <v>527</v>
       </c>
       <c r="E12" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>389</v>
       </c>
@@ -6704,10 +6734,10 @@
         <v>528</v>
       </c>
       <c r="E13" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>391</v>
       </c>
@@ -6718,10 +6748,10 @@
         <v>529</v>
       </c>
       <c r="E14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -6729,10 +6759,10 @@
         <v>530</v>
       </c>
       <c r="E15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>393</v>
       </c>
@@ -6740,7 +6770,7 @@
         <v>531</v>
       </c>
       <c r="E16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6751,7 +6781,7 @@
         <v>532</v>
       </c>
       <c r="E17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6762,7 +6792,7 @@
         <v>533</v>
       </c>
       <c r="E18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,7 +6803,7 @@
         <v>545</v>
       </c>
       <c r="E19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6781,7 +6811,7 @@
         <v>546</v>
       </c>
       <c r="E20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6789,7 +6819,7 @@
         <v>547</v>
       </c>
       <c r="E21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6797,7 +6827,7 @@
         <v>548</v>
       </c>
       <c r="E22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,38 +6835,56 @@
         <v>539</v>
       </c>
       <c r="E23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>534</v>
       </c>
+      <c r="E24" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>535</v>
       </c>
+      <c r="E25" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>536</v>
       </c>
+      <c r="E26" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>537</v>
       </c>
+      <c r="E27" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>538</v>
       </c>
+      <c r="E28" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>540</v>
       </c>
+      <c r="E29" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
@@ -6880,12 +6928,12 @@
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE9845A-8AD8-4ECD-B975-653FAF5C7633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A591EB-45B9-40C2-BF52-F3F1976B377E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="8" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Skill - Class Quests" sheetId="4" r:id="rId5"/>
     <sheet name="Pure - Blend Class Chart" sheetId="1" r:id="rId6"/>
     <sheet name="Class Guides" sheetId="2" r:id="rId7"/>
-    <sheet name="Equipment" sheetId="6" r:id="rId8"/>
-    <sheet name="Advanced Combat" sheetId="8" r:id="rId9"/>
-    <sheet name="Checklist" sheetId="7" r:id="rId10"/>
+    <sheet name="Class Packs" sheetId="11" r:id="rId8"/>
+    <sheet name="Equipment" sheetId="6" r:id="rId9"/>
+    <sheet name="Advanced Combat" sheetId="8" r:id="rId10"/>
+    <sheet name="Checklist" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="692">
   <si>
     <t>Strength</t>
   </si>
@@ -111,12 +112,6 @@
     <t>Ranger</t>
   </si>
   <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Swachbuckler</t>
-  </si>
-  <si>
     <t>Sorcerer</t>
   </si>
   <si>
@@ -1467,9 +1462,6 @@
     <t>Archivist</t>
   </si>
   <si>
-    <t>Almost every Pure and Blend on here is wrong now. Going to try and organize main classes and sub classes</t>
-  </si>
-  <si>
     <t>Full Round (Regular Quest Line)</t>
   </si>
   <si>
@@ -1771,13 +1763,367 @@
   </si>
   <si>
     <t>deal damage</t>
+  </si>
+  <si>
+    <t>Brawler</t>
+  </si>
+  <si>
+    <t>Weapon Master</t>
+  </si>
+  <si>
+    <t>War Caller</t>
+  </si>
+  <si>
+    <t>Tomahawk</t>
+  </si>
+  <si>
+    <t>Battlemind</t>
+  </si>
+  <si>
+    <t>Lancer</t>
+  </si>
+  <si>
+    <t>Gatling</t>
+  </si>
+  <si>
+    <t>Shield-bearer</t>
+  </si>
+  <si>
+    <t>Hoplite</t>
+  </si>
+  <si>
+    <t>Dragoon</t>
+  </si>
+  <si>
+    <t>Titan - Nature or storm or mountain</t>
+  </si>
+  <si>
+    <t>Markings Warrior (buffs / Paints)</t>
+  </si>
+  <si>
+    <t>Warrior (Strength)</t>
+  </si>
+  <si>
+    <t>Rogue (Agility)</t>
+  </si>
+  <si>
+    <t>Scoundrel</t>
+  </si>
+  <si>
+    <t>Swashbuckler</t>
+  </si>
+  <si>
+    <t>Thaumaturge</t>
+  </si>
+  <si>
+    <t>Shadowblade</t>
+  </si>
+  <si>
+    <t>Musketeer</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>Duelist</t>
+  </si>
+  <si>
+    <t>Poisoner</t>
+  </si>
+  <si>
+    <t>Arcane Trickster</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>Mastermind</t>
+  </si>
+  <si>
+    <t>Beret</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Charlatan</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Blackguard</t>
+  </si>
+  <si>
+    <t>Imposter</t>
+  </si>
+  <si>
+    <t>Corsair</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Mage (Intellect)</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Conjurer</t>
+  </si>
+  <si>
+    <t>Magician</t>
+  </si>
+  <si>
+    <t>Magus</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Cultist</t>
+  </si>
+  <si>
+    <t>Deputy</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>Chronomancer</t>
+  </si>
+  <si>
+    <t>Geomancer</t>
+  </si>
+  <si>
+    <t>Technomancer</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Ascended</t>
+  </si>
+  <si>
+    <t>Mana-junkie</t>
+  </si>
+  <si>
+    <t>Priest (Wisdom)</t>
+  </si>
+  <si>
+    <t>escapist</t>
+  </si>
+  <si>
+    <t>dreamer</t>
+  </si>
+  <si>
+    <t>Mystic</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Pharoah</t>
+  </si>
+  <si>
+    <t>crystalsmith</t>
+  </si>
+  <si>
+    <t>Undertaker</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>Avenger</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Templar</t>
+  </si>
+  <si>
+    <t>Peacekeeper</t>
+  </si>
+  <si>
+    <t>Blood Herald</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>Paragon</t>
+  </si>
+  <si>
+    <t>Reclaimer</t>
+  </si>
+  <si>
+    <t>Nemesis</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Shaman (Agility + Wisdom)</t>
+  </si>
+  <si>
+    <t>Paladin (Strength + Wisdom)</t>
+  </si>
+  <si>
+    <t>Warlock (Intellect + Wisdom)</t>
+  </si>
+  <si>
+    <t>Monk (Strength + Wisdom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ranger (Agility + Intellect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elixir Master (Intellect + Wisdom)</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>&lt; These should have more varying damage types like elements, dark</t>
+  </si>
+  <si>
+    <t>Engineer (Strength + Intellect)</t>
+  </si>
+  <si>
+    <t>&lt;?</t>
+  </si>
+  <si>
+    <t>Dragonborn (Agility + Intellect)</t>
+  </si>
+  <si>
+    <t>Druid (Strength + Agility)</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Lots of shifts</t>
+  </si>
+  <si>
+    <t>Nature, Sun, Moon</t>
+  </si>
+  <si>
+    <t>Hunstman</t>
+  </si>
+  <si>
+    <t>Turrets</t>
+  </si>
+  <si>
+    <t>Contains lots of different damage type Knights</t>
+  </si>
+  <si>
+    <t>Melee support hybrids</t>
+  </si>
+  <si>
+    <t>Shadow, poison, corrupt casters / Demon shifts</t>
+  </si>
+  <si>
+    <t>defender</t>
+  </si>
+  <si>
+    <t>demigod</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>fighter</t>
+  </si>
+  <si>
+    <t>gallant</t>
+  </si>
+  <si>
+    <t>crusader</t>
+  </si>
+  <si>
+    <t>prodigy</t>
+  </si>
+  <si>
+    <t>genius</t>
+  </si>
+  <si>
+    <t>cavalier</t>
+  </si>
+  <si>
+    <t>herald</t>
+  </si>
+  <si>
+    <t>windwalker</t>
+  </si>
+  <si>
+    <t>soothsayer</t>
+  </si>
+  <si>
+    <t>medicine man</t>
+  </si>
+  <si>
+    <t>witch doctor</t>
+  </si>
+  <si>
+    <t>Disciple</t>
+  </si>
+  <si>
+    <t>Adept</t>
+  </si>
+  <si>
+    <t>magefist</t>
+  </si>
+  <si>
+    <t>mediate</t>
+  </si>
+  <si>
+    <t>Stratagem</t>
+  </si>
+  <si>
+    <t>Stormcaller</t>
+  </si>
+  <si>
+    <t>Monkey King</t>
+  </si>
+  <si>
+    <t>Justicar</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Raindancer</t>
+  </si>
+  <si>
+    <t>Pugilist</t>
+  </si>
+  <si>
+    <t>&lt; Maybe some classes can have subs with different main stat combinations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,6 +2149,22 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2126,7 +2488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2214,6 +2576,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2250,6 +2615,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2262,18 +2633,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2284,6 +2649,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,105 +3159,105 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="40"/>
+        <v>114</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="40"/>
+        <v>214</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="E14" s="38" t="s">
-        <v>186</v>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="E14" s="39" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="E16" s="38"/>
+        <v>116</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="38"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="38"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,33 +3282,33 @@
         <v>5</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,254 +3316,254 @@
         <v>7</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>171</v>
-      </c>
       <c r="E35" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3208,6 +3579,342 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="G9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" t="s">
+        <v>573</v>
+      </c>
+      <c r="G10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" t="s">
+        <v>528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" t="s">
+        <v>529</v>
+      </c>
+      <c r="E17" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" t="s">
+        <v>542</v>
+      </c>
+      <c r="E19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>543</v>
+      </c>
+      <c r="E20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>544</v>
+      </c>
+      <c r="E21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>533</v>
+      </c>
+      <c r="E26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>537</v>
+      </c>
+      <c r="E29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -3226,38 +3933,38 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="C4" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>295</v>
+      <c r="D4" s="47" t="s">
+        <v>293</v>
       </c>
       <c r="F4" t="str">
         <f>A4</f>
@@ -3265,47 +3972,47 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>298</v>
+      <c r="A8" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>296</v>
       </c>
       <c r="F8" t="str">
         <f>A20</f>
@@ -3313,93 +4020,93 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="46"/>
+      <c r="A12" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="47"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>301</v>
+      <c r="A16" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>299</v>
       </c>
       <c r="F16" t="str">
         <f>A56</f>
@@ -3407,47 +4114,47 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>303</v>
+      <c r="A20" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>301</v>
       </c>
       <c r="F20" t="str">
         <f>A72</f>
@@ -3455,661 +4162,745 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="47"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="46" t="s">
+      <c r="B32" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" s="46" t="s">
+      <c r="B36" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="D28" s="46"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="D36" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="D32" s="46"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="B44" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B36" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
+      <c r="B48" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" s="47"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="B44" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="46" t="s">
+      <c r="B52" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="47" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="D52" s="47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="62"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="62"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="D48" s="46"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="61" t="s">
+      <c r="B60" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="62"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="62"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="62"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="46" t="s">
+      <c r="B64" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D64" s="47" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="B64" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="46" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="62"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="62"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="62"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="B68" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="62"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="62"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="62"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="62" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="B68" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" s="46" t="s">
+      <c r="B72" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="D68" s="46" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="B72" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="D72" s="46"/>
+      <c r="D72" s="47"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="B76" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
+      <c r="A76" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="B80" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C80" s="46" t="s">
+      <c r="A80" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="62"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="62"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="B84" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" s="47" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="B84" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>437</v>
+      <c r="D84" s="47" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="B88" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="60"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="60"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="60"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="60"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="60"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="60"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="B88" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
-        <v>467</v>
-      </c>
-      <c r="B92" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="46" t="s">
+      <c r="B96" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="60"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="60"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="60"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="60" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="B96" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
-        <v>476</v>
-      </c>
-      <c r="B100" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>478</v>
+      <c r="B100" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="C84:C87"/>
@@ -4126,90 +4917,6 @@
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="D80:D83"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4233,144 +4940,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" s="48"/>
+        <v>438</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="49"/>
       <c r="D14" s="34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>444</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="46"/>
+        <v>445</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="47"/>
       <c r="D16" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17" s="46"/>
+        <v>446</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="C18" s="46"/>
+        <v>447</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="C19" s="46"/>
+        <v>448</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4398,7 +5105,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4427,219 +5134,219 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>198</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
         <v>197</v>
       </c>
-      <c r="C10" t="s">
-        <v>199</v>
-      </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" t="s">
         <v>206</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" t="s">
-        <v>208</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" t="s">
         <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" t="s">
-        <v>211</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
         <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" t="s">
-        <v>215</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
         <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4665,13 +5372,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -4683,11 +5390,11 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -4699,11 +5406,11 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -4715,9 +5422,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -4729,9 +5436,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -4744,16 +5451,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
         <v>244</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4761,13 +5468,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
         <v>250</v>
-      </c>
-      <c r="D9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4775,13 +5482,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4789,22 +5496,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4813,7 +5520,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -4827,16 +5534,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
         <v>256</v>
       </c>
-      <c r="C17" t="s">
-        <v>258</v>
-      </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,16 +5556,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" t="s">
         <v>256</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>258</v>
-      </c>
-      <c r="D20" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,58 +5578,58 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4948,10 +5655,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,119 +5672,119 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="41"/>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="40"/>
-      <c r="G2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="40"/>
+      <c r="K2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="44"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="45"/>
       <c r="G3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="45"/>
       <c r="G4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="44"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="45"/>
       <c r="G5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="44"/>
+        <v>81</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="44"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="44"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="44"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="44"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="44"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -5092,10 +5799,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -5110,861 +5817,1052 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="44"/>
+      <c r="G10" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="59"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>588</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>589</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>590</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="42"/>
+      <c r="G14" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="50"/>
+      <c r="G15" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="50"/>
+      <c r="G16" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="J17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="41"/>
+      <c r="G18" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="57"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="45"/>
+      <c r="G19" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="J17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="40"/>
-      <c r="G18" s="50" t="s">
+      <c r="H19" s="57"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="45"/>
+      <c r="G20" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="44"/>
-      <c r="G19" s="50" t="s">
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="45"/>
+      <c r="G21" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="57"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="45"/>
+      <c r="G22" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="44"/>
-      <c r="G20" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="50"/>
+      <c r="H22" s="57"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="50" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="45"/>
+      <c r="G23" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="57"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="45"/>
+      <c r="G24" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="57"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="44"/>
-      <c r="G24" s="50" t="s">
+      <c r="H25" s="57"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="42"/>
-      <c r="G25" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="50"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="G27" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="H27" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="G27" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="G28" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="50"/>
+        <v>105</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="G28" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="G29" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="H29" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="G30" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="H30" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="G30" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="G31" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="G31" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="57"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="G32" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="H32" s="50"/>
-      <c r="J32" s="55" t="s">
-        <v>401</v>
-      </c>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+        <v>57</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="G32" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="J32" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="G33" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="H33" s="50"/>
+        <v>55</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="G33" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="H33" s="57"/>
       <c r="J33" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+        <v>400</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
       <c r="O33" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="G34" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="H34" s="50"/>
+        <v>43</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="G34" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="H34" s="57"/>
       <c r="J34" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
+        <v>374</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
       <c r="O34" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="G35" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="H35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="G35" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="H35" s="57"/>
       <c r="J35" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
+        <v>402</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="G36" s="50" t="s">
-        <v>494</v>
-      </c>
-      <c r="H36" s="50"/>
+        <v>72</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="G36" s="57" t="s">
+        <v>491</v>
+      </c>
+      <c r="H36" s="57"/>
       <c r="J36" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+        <v>404</v>
+      </c>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="G37" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="H37" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="G37" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="H37" s="57"/>
       <c r="J37" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+        <v>406</v>
+      </c>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
       <c r="O37" s="26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
+        <v>56</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+        <v>51</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
+        <v>54</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
+        <v>74</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
+        <v>49</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
+        <v>106</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
       <c r="F49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>337</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
+        <v>335</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>338</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
+        <v>336</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
       <c r="F51" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>339</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
+        <v>337</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>340</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
+        <v>338</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
+        <v>339</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
+        <v>340</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>343</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
+        <v>341</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
+        <v>342</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>345</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
+        <v>343</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
       <c r="F58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G58" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J58" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K58" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>346</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
+        <v>344</v>
+      </c>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>347</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
+        <v>345</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F61" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F62" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F63" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>368</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>369</v>
+      </c>
+      <c r="F67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>370</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>371</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>372</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>373</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>374</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>475</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C39:E39"/>
@@ -5981,49 +6879,23 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C53:E53"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6035,7 +6907,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E11" sqref="E11:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,10 +6923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -6065,257 +6937,257 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="40"/>
+      <c r="B2" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="41"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="40"/>
+      <c r="B7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="41"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="40"/>
+      <c r="B12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="41"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" t="s">
         <v>427</v>
       </c>
-      <c r="F13" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="40"/>
+      <c r="B17" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="41"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6323,19 +7195,19 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F26" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G26" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6346,13 +7218,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6363,64 +7235,64 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F28" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B31" t="s">
+        <v>510</v>
+      </c>
+      <c r="C31" t="s">
         <v>513</v>
       </c>
-      <c r="C31" t="s">
-        <v>516</v>
-      </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6428,16 +7300,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6445,10 +7317,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6456,13 +7328,13 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6470,13 +7342,13 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6484,13 +7356,13 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6498,28 +7370,28 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F37" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -6535,6 +7407,647 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
+  <dimension ref="A1:D126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="63"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="64"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="64"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="64"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="63" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="63"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="B23" s="64"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="B30" s="64"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="63" t="s">
+        <v>607</v>
+      </c>
+      <c r="B45" s="63"/>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="B46" s="64"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="64"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="64"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="63" t="s">
+        <v>624</v>
+      </c>
+      <c r="B68" s="63"/>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="64"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="64"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="64"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A94" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="B94" s="63"/>
+      <c r="D94" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A97" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" s="63"/>
+      <c r="D97" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A100" s="63" t="s">
+        <v>646</v>
+      </c>
+      <c r="B100" s="63"/>
+      <c r="C100" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A103" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="B103" s="63"/>
+      <c r="C103" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A106" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="B106" s="63"/>
+      <c r="C106" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A109" s="63" t="s">
+        <v>647</v>
+      </c>
+      <c r="B109" s="63"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A114" s="63" t="s">
+        <v>648</v>
+      </c>
+      <c r="B114" s="63"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A120" s="63" t="s">
+        <v>651</v>
+      </c>
+      <c r="B120" s="63"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A125" s="63" t="s">
+        <v>653</v>
+      </c>
+      <c r="B125" s="63"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -6546,397 +8059,61 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>524</v>
-      </c>
-      <c r="G9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D10" t="s">
-        <v>525</v>
-      </c>
-      <c r="E10" t="s">
-        <v>576</v>
-      </c>
-      <c r="G10" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D11" t="s">
-        <v>526</v>
-      </c>
-      <c r="E11" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" t="s">
-        <v>527</v>
-      </c>
-      <c r="E12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D13" t="s">
-        <v>528</v>
-      </c>
-      <c r="E13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
-      <c r="D14" t="s">
-        <v>529</v>
-      </c>
-      <c r="E14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>392</v>
-      </c>
-      <c r="D15" t="s">
-        <v>530</v>
-      </c>
-      <c r="E15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D16" t="s">
-        <v>531</v>
-      </c>
-      <c r="E16" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>398</v>
-      </c>
-      <c r="D17" t="s">
-        <v>532</v>
-      </c>
-      <c r="E17" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D18" t="s">
-        <v>533</v>
-      </c>
-      <c r="E18" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D19" t="s">
-        <v>545</v>
-      </c>
-      <c r="E19" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>546</v>
-      </c>
-      <c r="E20" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>547</v>
-      </c>
-      <c r="E21" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>548</v>
-      </c>
-      <c r="E22" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>539</v>
-      </c>
-      <c r="E23" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E24" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>535</v>
-      </c>
-      <c r="E25" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E26" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>538</v>
-      </c>
-      <c r="E28" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>540</v>
-      </c>
-      <c r="E29" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>567</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A591EB-45B9-40C2-BF52-F3F1976B377E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E098D-7E35-4798-8F9B-71B2ECC2399E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="5" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="705">
   <si>
     <t>Strength</t>
   </si>
@@ -2086,9 +2086,6 @@
     <t>magefist</t>
   </si>
   <si>
-    <t>mediate</t>
-  </si>
-  <si>
     <t>Stratagem</t>
   </si>
   <si>
@@ -2117,6 +2114,48 @@
   </si>
   <si>
     <t>&lt; Maybe some classes can have subs with different main stat combinations</t>
+  </si>
+  <si>
+    <t>Voidwalker</t>
+  </si>
+  <si>
+    <t>ShadowWalker</t>
+  </si>
+  <si>
+    <t>Lightspawn</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Bloodknight</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>Jade Serpent</t>
+  </si>
+  <si>
+    <t>Mindflayer</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Ghostwhisperer</t>
+  </si>
+  <si>
+    <t>Necromancer</t>
+  </si>
+  <si>
+    <t>Raider</t>
+  </si>
+  <si>
+    <t>Spectre</t>
+  </si>
+  <si>
+    <t>meditate</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2299,6 +2338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,7 +2533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2614,6 +2659,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2641,6 +2689,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2649,12 +2703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3954,10 +4002,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -3972,8 +4020,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="F5" t="str">
@@ -3982,8 +4030,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="F6" t="str">
@@ -3992,8 +4040,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="F7" t="str">
@@ -4002,10 +4050,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -4020,8 +4068,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="F9" t="str">
@@ -4030,8 +4078,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="F10" t="str">
@@ -4040,8 +4088,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="F11" t="str">
@@ -4050,10 +4098,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C12" s="47" t="s">
@@ -4066,8 +4114,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="F13" t="str">
@@ -4076,8 +4124,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="F14" t="str">
@@ -4086,8 +4134,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="F15" t="str">
@@ -4096,10 +4144,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C16" s="47" t="s">
@@ -4114,8 +4162,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="F17" t="str">
@@ -4124,8 +4172,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="F18" t="str">
@@ -4134,8 +4182,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="F19" t="str">
@@ -4144,10 +4192,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -4162,8 +4210,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="F21" t="str">
@@ -4172,8 +4220,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="F22" t="str">
@@ -4182,16 +4230,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -4202,28 +4250,28 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="61"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C28" s="47" t="s">
@@ -4232,28 +4280,28 @@
       <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -4262,28 +4310,28 @@
       <c r="D32" s="47"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C36" s="47" t="s">
@@ -4294,28 +4342,28 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C40" s="47" t="s">
@@ -4326,28 +4374,28 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="61"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -4358,28 +4406,28 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="61"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="61"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -4388,28 +4436,28 @@
       <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="61"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C52" s="47" t="s">
@@ -4420,28 +4468,28 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -4452,28 +4500,28 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="61"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="61"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="61"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C60" s="47" t="s">
@@ -4484,28 +4532,28 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="61"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="47"/>
       <c r="D61" s="47"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="61"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="47"/>
       <c r="D62" s="47"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="61"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="47"/>
       <c r="D63" s="47"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C64" s="47" t="s">
@@ -4516,28 +4564,28 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="47"/>
       <c r="D65" s="47"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="61"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="47"/>
       <c r="D66" s="47"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="61"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="47"/>
       <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C68" s="47" t="s">
@@ -4548,28 +4596,28 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="61"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="47"/>
       <c r="D69" s="47"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="61"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="47"/>
       <c r="D70" s="47"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="61"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="47"/>
       <c r="D71" s="47"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C72" s="47" t="s">
@@ -4578,56 +4626,56 @@
       <c r="D72" s="47"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="47"/>
       <c r="D73" s="47"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="61"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="47"/>
       <c r="D74" s="47"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="61"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="47"/>
       <c r="D75" s="47"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="47"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="61"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="47"/>
       <c r="D77" s="47"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="61"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="47"/>
       <c r="D78" s="47"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
-      <c r="B79" s="61"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="47"/>
       <c r="D79" s="47"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C80" s="47" t="s">
@@ -4638,28 +4686,28 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="61"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="47"/>
       <c r="D81" s="47"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="61"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="47"/>
       <c r="D82" s="47"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="61"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="47"/>
       <c r="D83" s="47"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="60" t="s">
+      <c r="A84" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C84" s="47" t="s">
@@ -4670,28 +4718,28 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
-      <c r="B85" s="61"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="47"/>
       <c r="D85" s="47"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="60"/>
-      <c r="B86" s="61"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="47"/>
       <c r="D86" s="47"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="60"/>
-      <c r="B87" s="61"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="47"/>
       <c r="D87" s="47"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="60" t="s">
+      <c r="A88" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="61" t="s">
+      <c r="B88" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C88" s="47" t="s">
@@ -4702,28 +4750,28 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
-      <c r="B89" s="61"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="47"/>
       <c r="D89" s="47"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="60"/>
-      <c r="B90" s="61"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="47"/>
       <c r="D90" s="47"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="60"/>
-      <c r="B91" s="61"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="47"/>
       <c r="D91" s="47"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="61" t="s">
+      <c r="B92" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C92" s="47" t="s">
@@ -4734,28 +4782,28 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="60"/>
-      <c r="B93" s="61"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="47"/>
       <c r="D93" s="47"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="60"/>
-      <c r="B94" s="61"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="47"/>
       <c r="D94" s="47"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="60"/>
-      <c r="B95" s="61"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="64"/>
       <c r="C95" s="47"/>
       <c r="D95" s="47"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="B96" s="61" t="s">
+      <c r="B96" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C96" s="47" t="s">
@@ -4766,28 +4814,28 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="60"/>
-      <c r="B97" s="61"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="47"/>
       <c r="D97" s="47"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
-      <c r="B98" s="61"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="47"/>
       <c r="D98" s="47"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="60"/>
-      <c r="B99" s="61"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="47"/>
       <c r="D99" s="47"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="60" t="s">
+      <c r="A100" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C100" s="47" t="s">
@@ -4798,20 +4846,20 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="60"/>
-      <c r="B101" s="61"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="47"/>
       <c r="D101" s="47"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
-      <c r="B102" s="61"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="47"/>
       <c r="D102" s="47"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="60"/>
-      <c r="B103" s="61"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="47"/>
       <c r="D103" s="47"/>
     </row>
@@ -5655,10 +5703,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5688,9 +5736,9 @@
       <c r="A2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="41"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -5701,15 +5749,15 @@
       <c r="K2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
@@ -5718,15 +5766,15 @@
         <v>64</v>
       </c>
       <c r="K3" s="44"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="45"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
@@ -5735,55 +5783,55 @@
         <v>65</v>
       </c>
       <c r="K4" s="44"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="45"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="44"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="45"/>
       <c r="K6" s="44"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
       <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="45"/>
       <c r="K7" s="44"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="43"/>
       <c r="K8" s="44"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5800,8 +5848,8 @@
         <v>4</v>
       </c>
       <c r="K9" s="44"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5817,13 +5865,13 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5839,13 +5887,13 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="58"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5861,13 +5909,13 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="58"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5883,13 +5931,13 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="58"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5897,13 +5945,13 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="58"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5911,25 +5959,25 @@
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="57"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="58"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
@@ -5938,97 +5986,97 @@
       <c r="A18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="41"/>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="45"/>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="45"/>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="45"/>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="45"/>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="45"/>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="45"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="43"/>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6037,15 +6085,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="G27" s="57" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="G27" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6054,15 +6102,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="G28" s="57" t="s">
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="G28" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="57"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6071,15 +6119,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="G29" s="57" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="G29" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6088,15 +6136,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="G30" s="57" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="G30" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="57"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6105,15 +6153,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="G31" s="57" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="G31" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="57"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6122,23 +6170,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="G32" s="57" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="G32" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="J32" s="58" t="s">
+      <c r="H32" s="58"/>
+      <c r="J32" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6147,22 +6195,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="G33" s="57" t="s">
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="G33" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="57"/>
+      <c r="H33" s="58"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6174,22 +6222,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="G34" s="57" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="G34" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="57"/>
+      <c r="H34" s="58"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6201,22 +6249,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="G35" s="57" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="G35" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="57"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6228,22 +6276,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="G36" s="57" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="G36" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="57"/>
+      <c r="H36" s="58"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6255,22 +6303,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="G37" s="57" t="s">
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="G37" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="57"/>
+      <c r="H37" s="58"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6282,13 +6330,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6297,13 +6345,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6312,13 +6360,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6327,13 +6375,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6342,13 +6390,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6357,11 +6405,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6370,11 +6418,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6383,11 +6431,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6396,11 +6444,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6409,11 +6457,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6422,103 +6470,103 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -6528,30 +6576,33 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="51" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>348</v>
       </c>
@@ -6559,7 +6610,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>352</v>
       </c>
@@ -6567,7 +6618,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>349</v>
       </c>
@@ -6575,7 +6626,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>356</v>
       </c>
@@ -6770,65 +6821,121 @@
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>690</v>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+  <mergeCells count="77">
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
@@ -6847,6 +6954,11 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="K2:N14"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -6863,27 +6975,29 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J32:O32"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C53:E53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K58:N58"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C33:E33"/>
@@ -6896,6 +7010,9 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6923,10 +7040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -7410,7 +7527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
@@ -7421,16 +7538,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -7473,10 +7590,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="62"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -7509,10 +7626,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="62"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -7540,16 +7657,16 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="61"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="62" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="62"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
@@ -7582,10 +7699,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="62" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="62"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
@@ -7618,10 +7735,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="62"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
@@ -7654,16 +7771,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="63"/>
+      <c r="B45" s="61"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="62" t="s">
         <v>608</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="62"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -7696,10 +7813,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="64"/>
+      <c r="B53" s="62"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -7732,10 +7849,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="64"/>
+      <c r="B60" s="62"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -7768,16 +7885,16 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="61" t="s">
         <v>624</v>
       </c>
-      <c r="B68" s="63"/>
+      <c r="B68" s="61"/>
     </row>
     <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="64"/>
+      <c r="B69" s="62"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -7810,10 +7927,10 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="64"/>
+      <c r="B76" s="62"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -7846,10 +7963,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="64"/>
+      <c r="B83" s="62"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
@@ -7882,10 +7999,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A94" s="63" t="s">
+      <c r="A94" s="61" t="s">
         <v>654</v>
       </c>
-      <c r="B94" s="63"/>
+      <c r="B94" s="61"/>
       <c r="D94" t="s">
         <v>650</v>
       </c>
@@ -7896,12 +8013,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A97" s="63" t="s">
+      <c r="A97" s="61" t="s">
         <v>643</v>
       </c>
-      <c r="B97" s="63"/>
+      <c r="B97" s="61"/>
       <c r="D97" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -7910,10 +8027,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="61" t="s">
         <v>646</v>
       </c>
-      <c r="B100" s="63"/>
+      <c r="B100" s="61"/>
       <c r="C100" t="s">
         <v>652</v>
       </c>
@@ -7924,10 +8041,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A103" s="63" t="s">
+      <c r="A103" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B103" s="63"/>
+      <c r="B103" s="61"/>
       <c r="C103" t="s">
         <v>652</v>
       </c>
@@ -7938,10 +8055,10 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A106" s="63" t="s">
+      <c r="A106" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="B106" s="63"/>
+      <c r="B106" s="61"/>
       <c r="C106" t="s">
         <v>652</v>
       </c>
@@ -7952,10 +8069,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A109" s="63" t="s">
+      <c r="A109" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="B109" s="63"/>
+      <c r="B109" s="61"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -7978,10 +8095,10 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A114" s="63" t="s">
+      <c r="A114" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="B114" s="63"/>
+      <c r="B114" s="61"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -7989,10 +8106,10 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A120" s="63" t="s">
+      <c r="A120" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B120" s="63"/>
+      <c r="B120" s="61"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -8005,10 +8122,10 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A125" s="63" t="s">
+      <c r="A125" s="61" t="s">
         <v>653</v>
       </c>
-      <c r="B125" s="63"/>
+      <c r="B125" s="61"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -8026,11 +8143,10 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
@@ -8038,10 +8154,11 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A76:B76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E098D-7E35-4798-8F9B-71B2ECC2399E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF3BBE-07E6-4EF5-AB75-355B7D293255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="5" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="737">
   <si>
     <t>Strength</t>
   </si>
@@ -2026,9 +2026,6 @@
     <t>Contains lots of different damage type Knights</t>
   </si>
   <si>
-    <t>Melee support hybrids</t>
-  </si>
-  <si>
     <t>Shadow, poison, corrupt casters / Demon shifts</t>
   </si>
   <si>
@@ -2156,6 +2153,105 @@
   </si>
   <si>
     <t>meditate</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Courage</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Windwalker</t>
+  </si>
+  <si>
+    <t>Spirit Walker</t>
+  </si>
+  <si>
+    <t>Way of the Fist</t>
+  </si>
+  <si>
+    <t>Builds debuff for dps and buff for hps</t>
+  </si>
+  <si>
+    <t>Builds buff on self and one other target</t>
+  </si>
+  <si>
+    <t>Monk tank?</t>
+  </si>
+  <si>
+    <t>On hit heals plus aoe</t>
+  </si>
+  <si>
+    <t>On hit heals plus control</t>
+  </si>
+  <si>
+    <t>Movement based range monk / Channeler / Stands still</t>
+  </si>
+  <si>
+    <t>Attack speed / Builds self buff for defense</t>
+  </si>
+  <si>
+    <t>Clones for damage</t>
+  </si>
+  <si>
+    <t>DoTs from melee</t>
+  </si>
+  <si>
+    <t>Builds big, random, ally buffs / Click to cast ally on build</t>
+  </si>
+  <si>
+    <t>Melee channel dps</t>
+  </si>
+  <si>
+    <t>Control and damage</t>
+  </si>
+  <si>
+    <t>Clones? Walk towards allies, some towards enemies</t>
+  </si>
+  <si>
+    <t>Clones for control / Ground bonuses</t>
+  </si>
+  <si>
+    <t>Technique based perk. Levels up with weapon hits over time. Build on 2x 3x combo triggers</t>
+  </si>
+  <si>
+    <t>Cyclone</t>
+  </si>
+  <si>
+    <t>Pacifist</t>
+  </si>
+  <si>
+    <t>Exalted</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>The Tireless</t>
+  </si>
+  <si>
+    <t>Light Binder</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>Essence Weaver</t>
+  </si>
+  <si>
+    <t>Blessed Union</t>
+  </si>
+  <si>
+    <t>Soul Binder</t>
+  </si>
+  <si>
+    <t>Chi based? Left Right slider control</t>
+  </si>
+  <si>
+    <t>Beacon</t>
   </si>
 </sst>
 </file>
@@ -2659,17 +2755,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2679,9 +2778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5703,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,9 +5832,9 @@
       <c r="A2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="41"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -5749,15 +5845,15 @@
       <c r="K2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
@@ -5766,15 +5862,15 @@
         <v>64</v>
       </c>
       <c r="K3" s="44"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="45"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
@@ -5783,55 +5879,55 @@
         <v>65</v>
       </c>
       <c r="K4" s="44"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="45"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="44"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="45"/>
       <c r="K6" s="44"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="45"/>
       <c r="K7" s="44"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="43"/>
       <c r="K8" s="44"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5848,8 +5944,8 @@
         <v>4</v>
       </c>
       <c r="K9" s="44"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5870,8 +5966,8 @@
       </c>
       <c r="H10" s="60"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5887,13 +5983,13 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="54"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5909,13 +6005,13 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="54"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5931,13 +6027,13 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="54"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5945,13 +6041,13 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="54"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5959,25 +6055,25 @@
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="54"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
@@ -5986,97 +6082,97 @@
       <c r="A18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="41"/>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="45"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="45"/>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="58"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="45"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="45"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="45"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="45"/>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="43"/>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6085,15 +6181,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="G27" s="58" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="G27" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6102,15 +6198,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="G28" s="58" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="G28" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="58"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6119,15 +6215,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="G29" s="58" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="G29" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6136,15 +6232,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="G30" s="58" t="s">
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="G30" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6153,15 +6249,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="G31" s="58" t="s">
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="G31" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6170,15 +6266,15 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="G32" s="58" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="G32" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="54"/>
       <c r="J32" s="59" t="s">
         <v>399</v>
       </c>
@@ -6195,22 +6291,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="G33" s="58" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="G33" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="54"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6222,22 +6318,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="G34" s="58" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="G34" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="54"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6249,22 +6345,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="G35" s="58" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="G35" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="58"/>
+      <c r="H35" s="54"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6276,22 +6372,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="G36" s="58" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="G36" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="58"/>
+      <c r="H36" s="54"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6303,22 +6399,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="G37" s="58" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="G37" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="58"/>
+      <c r="H37" s="54"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6330,13 +6426,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6345,13 +6441,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6360,13 +6456,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6375,13 +6471,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6390,13 +6486,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6405,11 +6501,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6418,11 +6514,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6431,11 +6527,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6444,11 +6540,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6457,11 +6553,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6470,16 +6566,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -6488,9 +6584,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -6499,9 +6595,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -6510,9 +6606,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -6521,9 +6617,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -6532,41 +6628,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -6576,28 +6672,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="51" t="s">
+      <c r="K58" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -6731,212 +6827,216 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>703</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
@@ -6959,6 +7059,7 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="K2:N14"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -6975,16 +7076,18 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J32:O32"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="C60:E60"/>
@@ -7000,19 +7103,17 @@
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7040,10 +7141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -7525,10 +7626,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8018,7 +8119,7 @@
       </c>
       <c r="B97" s="61"/>
       <c r="D97" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -8035,114 +8136,258 @@
         <v>652</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A103" s="61" t="s">
-        <v>644</v>
-      </c>
-      <c r="B103" s="61"/>
-      <c r="C103" t="s">
-        <v>652</v>
+    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="62" t="s">
+        <v>704</v>
+      </c>
+      <c r="B101" s="62"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>707</v>
+      </c>
+      <c r="B102" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>729</v>
+      </c>
+      <c r="B103" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A106" s="61" t="s">
-        <v>645</v>
-      </c>
-      <c r="B106" s="61"/>
-      <c r="C106" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A109" s="61" t="s">
-        <v>647</v>
-      </c>
-      <c r="B109" s="61"/>
+        <v>731</v>
+      </c>
+      <c r="B104" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>708</v>
+      </c>
+      <c r="B105" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>726</v>
+      </c>
+      <c r="B106" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="62" t="s">
+        <v>705</v>
+      </c>
+      <c r="B107" s="62"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>727</v>
+      </c>
+      <c r="B108" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>733</v>
+      </c>
+      <c r="B109" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>649</v>
+        <v>734</v>
+      </c>
+      <c r="B110" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>509</v>
+        <v>682</v>
+      </c>
+      <c r="B111" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>736</v>
+      </c>
+      <c r="B112" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="B113" s="62"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>709</v>
+      </c>
+      <c r="B114" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>730</v>
+      </c>
+      <c r="B116" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>631</v>
+      </c>
+      <c r="B117" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>728</v>
+      </c>
+      <c r="B118" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>732</v>
+      </c>
+      <c r="B119" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A121" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="B121" s="61"/>
+      <c r="C121" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A124" s="61" t="s">
+        <v>645</v>
+      </c>
+      <c r="B124" s="61"/>
+      <c r="C124" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A127" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="B127" s="61"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A114" s="61" t="s">
+    <row r="132" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A132" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="B114" s="61"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B132" s="61"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A120" s="61" t="s">
+    <row r="138" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A138" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B120" s="61"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B138" s="61"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A125" s="61" t="s">
+    <row r="143" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A143" s="61" t="s">
         <v>653</v>
       </c>
-      <c r="B125" s="61"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B143" s="61"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>655</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A125:B125"/>
+  <mergeCells count="28">
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A143:B143"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A113:B113"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF3BBE-07E6-4EF5-AB75-355B7D293255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCD93C-8B21-46BD-B547-D5131951866B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="5" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="735">
   <si>
     <t>Strength</t>
   </si>
@@ -1924,9 +1924,6 @@
     <t>dreamer</t>
   </si>
   <si>
-    <t>Mystic</t>
-  </si>
-  <si>
     <t>Angel</t>
   </si>
   <si>
@@ -1957,9 +1954,6 @@
     <t>Blood Herald</t>
   </si>
   <si>
-    <t>Binder</t>
-  </si>
-  <si>
     <t>Paragon</t>
   </si>
   <si>
@@ -1972,18 +1966,12 @@
     <t>Avatar</t>
   </si>
   <si>
-    <t>Shaman (Agility + Wisdom)</t>
-  </si>
-  <si>
     <t>Paladin (Strength + Wisdom)</t>
   </si>
   <si>
     <t>Warlock (Intellect + Wisdom)</t>
   </si>
   <si>
-    <t>Monk (Strength + Wisdom)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ranger (Agility + Intellect)</t>
   </si>
   <si>
@@ -1993,30 +1981,15 @@
     <t>Archer</t>
   </si>
   <si>
-    <t>&lt; These should have more varying damage types like elements, dark</t>
-  </si>
-  <si>
     <t>Engineer (Strength + Intellect)</t>
   </si>
   <si>
-    <t>&lt;?</t>
-  </si>
-  <si>
     <t>Dragonborn (Agility + Intellect)</t>
   </si>
   <si>
-    <t>Druid (Strength + Agility)</t>
-  </si>
-  <si>
     <t>Shift</t>
   </si>
   <si>
-    <t>Lots of shifts</t>
-  </si>
-  <si>
-    <t>Nature, Sun, Moon</t>
-  </si>
-  <si>
     <t>Hunstman</t>
   </si>
   <si>
@@ -2155,15 +2128,6 @@
     <t>meditate</t>
   </si>
   <si>
-    <t>Discipline</t>
-  </si>
-  <si>
-    <t>Courage</t>
-  </si>
-  <si>
-    <t>Fear</t>
-  </si>
-  <si>
     <t>Windwalker</t>
   </si>
   <si>
@@ -2182,12 +2146,6 @@
     <t>Monk tank?</t>
   </si>
   <si>
-    <t>On hit heals plus aoe</t>
-  </si>
-  <si>
-    <t>On hit heals plus control</t>
-  </si>
-  <si>
     <t>Movement based range monk / Channeler / Stands still</t>
   </si>
   <si>
@@ -2252,6 +2210,42 @@
   </si>
   <si>
     <t>Beacon</t>
+  </si>
+  <si>
+    <t>On hit heals plus aoe / Chi Balance</t>
+  </si>
+  <si>
+    <t>Heretic</t>
+  </si>
+  <si>
+    <t>Deathspeaker</t>
+  </si>
+  <si>
+    <t>Ancient Mystic</t>
+  </si>
+  <si>
+    <t>Monk (Strength + Agility + Wisdom)</t>
+  </si>
+  <si>
+    <t>Courage (Agility + Wisdom)</t>
+  </si>
+  <si>
+    <t>Fear (Agility + Wisdom)</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Inquisitor</t>
+  </si>
+  <si>
+    <t>Discipline (Strength + Wisdom)</t>
+  </si>
+  <si>
+    <t>On hit heals plus control / Ground</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2720,6 +2714,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2785,10 +2785,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3330,62 +3330,62 @@
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="E14" s="39" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="E14" s="41" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="39"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="43"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="39"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="39"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -4098,16 +4098,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="49" t="s">
         <v>293</v>
       </c>
       <c r="F4" t="str">
@@ -4116,46 +4116,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="49" t="s">
         <v>296</v>
       </c>
       <c r="F8" t="str">
@@ -4164,92 +4164,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="49"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="49" t="s">
         <v>299</v>
       </c>
       <c r="F16" t="str">
@@ -4258,46 +4258,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="49" t="s">
         <v>301</v>
       </c>
       <c r="F20" t="str">
@@ -4306,658 +4306,658 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="49" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="49" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="49" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="49" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="47"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="49" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="49" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="49" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="D68" s="49" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D72" s="47"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="D80" s="47" t="s">
+      <c r="D80" s="49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="63" t="s">
+      <c r="A84" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="D84" s="49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="D88" s="47" t="s">
+      <c r="D88" s="49" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="65" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="49" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="49" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="63"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="C100" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="49" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="100">
@@ -5156,10 +5156,10 @@
       <c r="A14" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="34" t="s">
         <v>374</v>
       </c>
@@ -5168,10 +5168,10 @@
       <c r="A15" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="31" t="s">
         <v>454</v>
       </c>
@@ -5180,10 +5180,10 @@
       <c r="A16" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="31" t="s">
         <v>456</v>
       </c>
@@ -5192,10 +5192,10 @@
       <c r="A17" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="31" t="s">
         <v>455</v>
       </c>
@@ -5204,10 +5204,10 @@
       <c r="A18" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="31" t="s">
         <v>463</v>
       </c>
@@ -5216,10 +5216,10 @@
       <c r="A19" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="31" t="s">
         <v>457</v>
       </c>
@@ -5516,11 +5516,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="25" t="s">
         <v>260</v>
       </c>
@@ -5534,9 +5534,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="25" t="s">
         <v>261</v>
       </c>
@@ -5550,9 +5550,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="29" t="s">
         <v>384</v>
       </c>
@@ -5566,9 +5566,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -5580,9 +5580,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -5799,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,106 +5829,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="43"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="47"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="47"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="47"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="45"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="47"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="47"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -5943,10 +5943,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -5961,14 +5961,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="45"/>
+      <c r="H10" s="62"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -5983,14 +5983,14 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="45"/>
+      <c r="H11" s="56"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -6005,14 +6005,14 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="45"/>
+      <c r="H12" s="56"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -6027,152 +6027,152 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="45"/>
+      <c r="H13" s="56"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="43"/>
+      <c r="H14" s="56"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="54"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="54"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="54"/>
+      <c r="H17" s="56"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="41"/>
-      <c r="G18" s="54" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="43"/>
+      <c r="G18" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="54"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="45"/>
-      <c r="G19" s="54" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="47"/>
+      <c r="G19" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="45"/>
-      <c r="G20" s="54" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="47"/>
+      <c r="G20" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="54"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="45"/>
-      <c r="G21" s="54" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="54"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="45"/>
-      <c r="G22" s="54" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="54"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="45"/>
-      <c r="G23" s="54" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="54"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="45"/>
-      <c r="G24" s="54" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="54"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="45"/>
+      <c r="G25" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6181,15 +6181,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="G27" s="54" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="G27" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="54"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6198,15 +6198,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="G28" s="54" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="G28" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6215,15 +6215,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="G29" s="54" t="s">
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="G29" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6232,15 +6232,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="G30" s="54" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="G30" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6249,15 +6249,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="G31" s="54" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="G31" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="56"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6266,23 +6266,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="G32" s="54" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="G32" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="J32" s="59" t="s">
+      <c r="H32" s="56"/>
+      <c r="J32" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6291,22 +6291,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="G33" s="54" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="G33" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="56"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6318,22 +6318,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="G34" s="54" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="G34" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="54"/>
+      <c r="H34" s="56"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6345,22 +6345,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="G35" s="54" t="s">
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="G35" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="54"/>
+      <c r="H35" s="56"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6372,22 +6372,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="G36" s="54" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="G36" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="54"/>
+      <c r="H36" s="56"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6399,22 +6399,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="G37" s="54" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="G37" s="56" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="54"/>
+      <c r="H37" s="56"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6426,13 +6426,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6441,13 +6441,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6456,13 +6456,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6471,13 +6471,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6486,13 +6486,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6501,11 +6501,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6514,11 +6514,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6527,11 +6527,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6540,11 +6540,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6553,11 +6553,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6566,16 +6566,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -6584,9 +6584,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -6595,9 +6595,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -6606,9 +6606,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -6617,9 +6617,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -6628,41 +6628,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -6672,28 +6672,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="55" t="s">
+      <c r="K58" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -6822,217 +6822,227 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>725</v>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -7088,6 +7098,11 @@
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="C60:E60"/>
@@ -7104,11 +7119,6 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="K35:N35"/>
@@ -7141,10 +7151,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -7155,42 +7165,42 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
         <v>271</v>
@@ -7200,33 +7210,33 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>424</v>
@@ -7242,10 +7252,10 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>425</v>
@@ -7258,8 +7268,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>425</v>
@@ -7272,8 +7282,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>425</v>
@@ -7286,8 +7296,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>425</v>
@@ -7300,8 +7310,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>425</v>
@@ -7317,15 +7327,15 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>424</v>
@@ -7338,8 +7348,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>425</v>
@@ -7349,8 +7359,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>425</v>
@@ -7360,8 +7370,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>425</v>
@@ -7626,31 +7636,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.42578125" customWidth="1"/>
+    <col min="2" max="2" width="97.42578125" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="61"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="62"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
@@ -7658,7 +7671,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>574</v>
       </c>
@@ -7666,7 +7679,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>575</v>
       </c>
@@ -7674,7 +7687,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>576</v>
       </c>
@@ -7682,7 +7695,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>577</v>
       </c>
@@ -7690,398 +7703,412 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="62"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="62"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="61"/>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="62"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="62"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="62"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="61" t="s">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="61"/>
-    </row>
-    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
         <v>608</v>
       </c>
-      <c r="B46" s="62"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="62"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="62" t="s">
+    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="62"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="61" t="s">
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="B68" s="61"/>
-    </row>
-    <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="62"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="62" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="62"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="62"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>627</v>
+        <v>726</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -8091,319 +8118,298 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A94" s="61" t="s">
-        <v>654</v>
-      </c>
-      <c r="B94" s="61"/>
-      <c r="D94" t="s">
-        <v>650</v>
+      <c r="A89" s="39" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="63" t="s">
+        <v>733</v>
+      </c>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="B93" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="B94" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A97" s="61" t="s">
+      <c r="A95" s="40" t="s">
+        <v>717</v>
+      </c>
+      <c r="B95" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="B96" t="s">
+        <v>709</v>
+      </c>
+      <c r="D96" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
+        <v>712</v>
+      </c>
+      <c r="B97" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="63" t="s">
+        <v>728</v>
+      </c>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="40" t="s">
+        <v>713</v>
+      </c>
+      <c r="B99" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="40" t="s">
+        <v>719</v>
+      </c>
+      <c r="B100" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="40" t="s">
+        <v>720</v>
+      </c>
+      <c r="B101" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="B102" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="B103" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="63" t="s">
+        <v>729</v>
+      </c>
+      <c r="B104" s="63"/>
+      <c r="C104" s="63"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="B105" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="B107" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="B108" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="B109" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="B110" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A120" s="64" t="s">
+        <v>641</v>
+      </c>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A123" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A126" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="B97" s="61"/>
-      <c r="D97" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A100" s="61" t="s">
-        <v>646</v>
-      </c>
-      <c r="B100" s="61"/>
-      <c r="C100" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="62" t="s">
-        <v>704</v>
-      </c>
-      <c r="B101" s="62"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>707</v>
-      </c>
-      <c r="B102" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>729</v>
-      </c>
-      <c r="B103" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>731</v>
-      </c>
-      <c r="B104" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>708</v>
-      </c>
-      <c r="B105" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>726</v>
-      </c>
-      <c r="B106" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="62" t="s">
-        <v>705</v>
-      </c>
-      <c r="B107" s="62"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>727</v>
-      </c>
-      <c r="B108" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>733</v>
-      </c>
-      <c r="B109" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>734</v>
-      </c>
-      <c r="B110" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>682</v>
-      </c>
-      <c r="B111" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>736</v>
-      </c>
-      <c r="B112" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="62" t="s">
-        <v>706</v>
-      </c>
-      <c r="B113" s="62"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>709</v>
-      </c>
-      <c r="B114" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>730</v>
-      </c>
-      <c r="B116" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>631</v>
-      </c>
-      <c r="B117" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>728</v>
-      </c>
-      <c r="B118" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>732</v>
-      </c>
-      <c r="B119" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A121" s="61" t="s">
-        <v>644</v>
-      </c>
-      <c r="B121" s="61"/>
-      <c r="C121" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A124" s="61" t="s">
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>645</v>
       </c>
-      <c r="B124" s="61"/>
-      <c r="C124" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A127" s="61" t="s">
-        <v>647</v>
-      </c>
-      <c r="B127" s="61"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A132" s="61" t="s">
+    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A131" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A137" s="64" t="s">
+        <v>646</v>
+      </c>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A142" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>648</v>
       </c>
-      <c r="B132" s="61"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A138" s="61" t="s">
-        <v>651</v>
-      </c>
-      <c r="B138" s="61"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A143" s="61" t="s">
-        <v>653</v>
-      </c>
-      <c r="B143" s="61"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>655</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A76:B76"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A98:C98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCD93C-8B21-46BD-B547-D5131951866B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F22EC5-439F-4D33-8DAE-94E987692BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="805">
   <si>
     <t>Strength</t>
   </si>
@@ -1984,9 +1984,6 @@
     <t>Engineer (Strength + Intellect)</t>
   </si>
   <si>
-    <t>Dragonborn (Agility + Intellect)</t>
-  </si>
-  <si>
     <t>Shift</t>
   </si>
   <si>
@@ -1996,12 +1993,6 @@
     <t>Turrets</t>
   </si>
   <si>
-    <t>Contains lots of different damage type Knights</t>
-  </si>
-  <si>
-    <t>Shadow, poison, corrupt casters / Demon shifts</t>
-  </si>
-  <si>
     <t>defender</t>
   </si>
   <si>
@@ -2246,6 +2237,225 @@
   </si>
   <si>
     <t>On hit heals plus control / Ground</t>
+  </si>
+  <si>
+    <t>Chaos</t>
+  </si>
+  <si>
+    <t>Summoning</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Dragonborn (Strength + Agility)</t>
+  </si>
+  <si>
+    <t>Nightborne</t>
+  </si>
+  <si>
+    <t>Witch Doctor</t>
+  </si>
+  <si>
+    <t>Voodoo Priest</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Curses and hexes</t>
+  </si>
+  <si>
+    <t>Demon Binder</t>
+  </si>
+  <si>
+    <t>Aberattion</t>
+  </si>
+  <si>
+    <t>Abomination</t>
+  </si>
+  <si>
+    <t>Gravekeeper</t>
+  </si>
+  <si>
+    <t>Abyssal Flayer</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Dread Reaper</t>
+  </si>
+  <si>
+    <t>Shadowborn</t>
+  </si>
+  <si>
+    <t>Plague Doctor</t>
+  </si>
+  <si>
+    <t>Bone Collector</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>stacking burst</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Panther</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Elk</t>
+  </si>
+  <si>
+    <t>Soothsayer</t>
+  </si>
+  <si>
+    <t>Nomad</t>
+  </si>
+  <si>
+    <t>Hermit</t>
+  </si>
+  <si>
+    <t>Raincaller</t>
+  </si>
+  <si>
+    <t>Void Walker</t>
+  </si>
+  <si>
+    <t>Doom</t>
+  </si>
+  <si>
+    <t>Storm Herald</t>
+  </si>
+  <si>
+    <t>Shroud</t>
+  </si>
+  <si>
+    <t>Sunblade</t>
+  </si>
+  <si>
+    <t>Warden</t>
+  </si>
+  <si>
+    <t>Archdruid</t>
+  </si>
+  <si>
+    <t>Grove Master</t>
+  </si>
+  <si>
+    <t>Forest (Intellect + Wisdom)</t>
+  </si>
+  <si>
+    <t>Fierce (Strength + Agility)</t>
+  </si>
+  <si>
+    <t>Cunning (Agility + Wisdom)</t>
+  </si>
+  <si>
+    <t>Serpents</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>Primalist</t>
+  </si>
+  <si>
+    <t>Totemic</t>
+  </si>
+  <si>
+    <t>Earthen Guard</t>
+  </si>
+  <si>
+    <t>Tribal</t>
+  </si>
+  <si>
+    <t>Spiritual</t>
+  </si>
+  <si>
+    <t>Pathfinder</t>
+  </si>
+  <si>
+    <t>Farseer</t>
+  </si>
+  <si>
+    <t>Spirit Guide</t>
+  </si>
+  <si>
+    <t>Omen</t>
+  </si>
+  <si>
+    <t>Trophy Hunter</t>
+  </si>
+  <si>
+    <t>Bloodlust</t>
+  </si>
+  <si>
+    <t>Ancestor</t>
+  </si>
+  <si>
+    <t>Runic Carver</t>
+  </si>
+  <si>
+    <t>Windspeaker</t>
+  </si>
+  <si>
+    <t>Companion? Crow, Bear, Cat</t>
+  </si>
+  <si>
+    <t>Ranged Mix damage</t>
+  </si>
+  <si>
+    <t>Tank / Support (Two handed Totem)</t>
+  </si>
+  <si>
+    <t>Stacking. Leveling</t>
+  </si>
+  <si>
+    <t>Support, still</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Debuffing</t>
+  </si>
+  <si>
+    <t>Debuffs for ally help</t>
+  </si>
+  <si>
+    <t>Lots of ally control totems</t>
+  </si>
+  <si>
+    <t>Lots of ally healing totems</t>
+  </si>
+  <si>
+    <t>Attack speed. Melee</t>
+  </si>
+  <si>
+    <t>Astral Mystic</t>
+  </si>
+  <si>
+    <t>Sky Sage</t>
+  </si>
+  <si>
+    <t>Lighting / Wind spells / Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial Dreamer </t>
   </si>
 </sst>
 </file>
@@ -2785,10 +2995,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5799,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6827,222 +7037,247 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>732</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -7636,10 +7871,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7650,18 +7885,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -7704,11 +7939,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -7741,11 +7976,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -7773,18 +8008,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="63" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
@@ -7817,11 +8052,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
@@ -7854,11 +8089,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
@@ -7891,18 +8126,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="63" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -7935,11 +8170,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -7972,11 +8207,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -8009,18 +8244,18 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
     </row>
     <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -8053,11 +8288,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="63" t="s">
+      <c r="A76" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -8086,15 +8321,15 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="63" t="s">
+      <c r="A83" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
@@ -8103,7 +8338,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,126 +8358,126 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="64" t="s">
-        <v>727</v>
-      </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
+      <c r="A91" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="63" t="s">
-        <v>733</v>
-      </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="63"/>
+      <c r="A92" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B93" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B94" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B95" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B96" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D96" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B97" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="63" t="s">
-        <v>728</v>
-      </c>
-      <c r="B98" s="63"/>
-      <c r="C98" s="63"/>
+      <c r="A98" s="64" t="s">
+        <v>725</v>
+      </c>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B99" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B100" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B101" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B102" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B103" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="63" t="s">
-        <v>729</v>
-      </c>
-      <c r="B104" s="63"/>
-      <c r="C104" s="63"/>
+      <c r="A104" s="64" t="s">
+        <v>726</v>
+      </c>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B105" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -8250,15 +8485,15 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B107" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -8266,124 +8501,513 @@
         <v>630</v>
       </c>
       <c r="B108" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B109" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B110" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A112" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+    </row>
+    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>749</v>
+      </c>
+      <c r="B117" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>750</v>
+      </c>
+      <c r="B119" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="64" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="B120" s="64"/>
       <c r="C120" s="64"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A123" s="64" t="s">
-        <v>642</v>
-      </c>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="64" t="s">
-        <v>643</v>
+        <v>734</v>
       </c>
       <c r="B126" s="64"/>
       <c r="C126" s="64"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>645</v>
+        <v>736</v>
+      </c>
+      <c r="B127" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>509</v>
+        <v>743</v>
+      </c>
+      <c r="B128" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>649</v>
+        <v>737</v>
+      </c>
+      <c r="B129" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A131" s="64" t="s">
-        <v>644</v>
-      </c>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A134" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="B134" s="63"/>
+      <c r="C134" s="63"/>
+    </row>
+    <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+    </row>
+    <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+    </row>
+    <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+    </row>
+    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A144" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="B144" s="63"/>
+      <c r="C144" s="63"/>
+    </row>
+    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A150" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="B150" s="63"/>
+      <c r="C150" s="63"/>
+    </row>
+    <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A137" s="64" t="s">
+    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A157" s="63" t="s">
         <v>646</v>
       </c>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B157" s="63"/>
+      <c r="C157" s="63"/>
+    </row>
+    <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="64"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A142" s="64" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A163" s="63" t="s">
+        <v>735</v>
+      </c>
+      <c r="B163" s="63"/>
+      <c r="C163" s="63"/>
+    </row>
+    <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="64"/>
+      <c r="B164" s="64"/>
+      <c r="C164" s="64"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>647</v>
       </c>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>648</v>
+    </row>
+    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A168" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B168" s="63"/>
+      <c r="C168" s="63"/>
+    </row>
+    <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="B169" s="64"/>
+      <c r="C169" s="64"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A176" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="B176" s="64"/>
+      <c r="C176" s="64"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A182" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="B182" s="64"/>
+      <c r="C182" s="64"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A191" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B191" s="63"/>
+      <c r="C191" s="63"/>
+    </row>
+    <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A192" s="64" t="s">
+        <v>777</v>
+      </c>
+      <c r="B192" s="64"/>
+      <c r="C192" s="64"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>778</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>768</v>
+      </c>
+      <c r="B194" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>788</v>
+      </c>
+      <c r="B195" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>801</v>
+      </c>
+      <c r="B196" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>789</v>
+      </c>
+      <c r="B197" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A198" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="B198" s="64"/>
+      <c r="C198" s="64"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>781</v>
+      </c>
+      <c r="B199" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>785</v>
+      </c>
+      <c r="B200" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>786</v>
+      </c>
+      <c r="B201" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>804</v>
+      </c>
+      <c r="B202" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>802</v>
+      </c>
+      <c r="B203" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A204" s="64" t="s">
+        <v>780</v>
+      </c>
+      <c r="B204" s="64"/>
+      <c r="C204" s="64"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>782</v>
+      </c>
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>787</v>
+      </c>
+      <c r="B206" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>759</v>
+      </c>
+      <c r="B207" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>784</v>
+      </c>
+      <c r="B208" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="44">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A8:C8"/>
@@ -8400,18 +9024,37 @@
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A134:C134"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A176:C176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F22EC5-439F-4D33-8DAE-94E987692BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449AD7EE-0448-4535-87F1-E7B9104AC9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="850">
   <si>
     <t>Strength</t>
   </si>
@@ -1987,12 +1987,6 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Hunstman</t>
-  </si>
-  <si>
-    <t>Turrets</t>
-  </si>
-  <si>
     <t>defender</t>
   </si>
   <si>
@@ -2456,6 +2450,147 @@
   </si>
   <si>
     <t xml:space="preserve">Celestial Dreamer </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Needs the hardcore animal companions and the long range agility dps</t>
+  </si>
+  <si>
+    <t>Also needs a handful of melee dps</t>
+  </si>
+  <si>
+    <t>Phylactery</t>
+  </si>
+  <si>
+    <t>Companion</t>
+  </si>
+  <si>
+    <t>multiples</t>
+  </si>
+  <si>
+    <t>Norse</t>
+  </si>
+  <si>
+    <t>Chemist</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>Tamer</t>
+  </si>
+  <si>
+    <t>Beast Master</t>
+  </si>
+  <si>
+    <t>Brewer</t>
+  </si>
+  <si>
+    <t>Tinkerer</t>
+  </si>
+  <si>
+    <t>Blockade</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>Mad Scientist</t>
+  </si>
+  <si>
+    <t>Jeckyl Hyde Balance</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Somewhat literal</t>
+  </si>
+  <si>
+    <t>Throws Potions</t>
+  </si>
+  <si>
+    <t>Throws brews</t>
+  </si>
+  <si>
+    <t>Has buffs but also debuffs same target in some way. Some random</t>
+  </si>
+  <si>
+    <t>Barrel Master</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Stables</t>
+  </si>
+  <si>
+    <t>Falconer</t>
+  </si>
+  <si>
+    <t>Huntsman</t>
+  </si>
+  <si>
+    <t>Traps</t>
+  </si>
+  <si>
+    <t>Blaster</t>
+  </si>
+  <si>
+    <t>Hood</t>
+  </si>
+  <si>
+    <t>Detect Weakness</t>
+  </si>
+  <si>
+    <t>Single Turret</t>
+  </si>
+  <si>
+    <t>Single Turret (Tanking)</t>
+  </si>
+  <si>
+    <t>Jet pack</t>
+  </si>
+  <si>
+    <t>Visor (Range)</t>
+  </si>
+  <si>
+    <t>Mech gloves</t>
+  </si>
+  <si>
+    <t>Wrenches</t>
+  </si>
+  <si>
+    <t>Oil / Grease / Fire</t>
+  </si>
+  <si>
+    <t>Mech companion</t>
+  </si>
+  <si>
+    <t>Ally injections (attached)</t>
+  </si>
+  <si>
+    <t>Microchips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tank engineer </t>
+  </si>
+  <si>
+    <t>Shileld and hand gun. Bunker?</t>
+  </si>
+  <si>
+    <t>Steam</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2930,6 +3065,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2965,20 +3106,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2989,10 +3118,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3540,62 +3681,62 @@
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="E14" s="41" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="E14" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="41"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="E16" s="41"/>
+      <c r="C16" s="45"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="41"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="41"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -4308,16 +4449,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="51" t="s">
         <v>293</v>
       </c>
       <c r="F4" t="str">
@@ -4326,46 +4467,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="51" t="s">
         <v>296</v>
       </c>
       <c r="F8" t="str">
@@ -4374,92 +4515,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="51"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="51" t="s">
         <v>299</v>
       </c>
       <c r="F16" t="str">
@@ -4468,46 +4609,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="51" t="s">
         <v>301</v>
       </c>
       <c r="F20" t="str">
@@ -4516,693 +4657,713 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="51" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="51" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="51" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="51" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="51" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="51" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="51"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="51" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="51" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="51" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="67" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="66" t="s">
+      <c r="B92" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="51" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="65" t="s">
+      <c r="A96" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="B96" s="66" t="s">
+      <c r="B96" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="51" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="51" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="A103" s="67"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="C44:C47"/>
@@ -5219,58 +5380,38 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5366,10 +5507,10 @@
       <c r="A14" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="34" t="s">
         <v>374</v>
       </c>
@@ -5378,10 +5519,10 @@
       <c r="A15" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="31" t="s">
         <v>454</v>
       </c>
@@ -5390,10 +5531,10 @@
       <c r="A16" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="31" t="s">
         <v>456</v>
       </c>
@@ -5402,10 +5543,10 @@
       <c r="A17" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="31" t="s">
         <v>455</v>
       </c>
@@ -5414,10 +5555,10 @@
       <c r="A18" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="31" t="s">
         <v>463</v>
       </c>
@@ -5426,10 +5567,10 @@
       <c r="A19" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="31" t="s">
         <v>457</v>
       </c>
@@ -5726,11 +5867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="25" t="s">
         <v>260</v>
       </c>
@@ -5744,9 +5885,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="25" t="s">
         <v>261</v>
       </c>
@@ -5760,9 +5901,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="29" t="s">
         <v>384</v>
       </c>
@@ -5776,9 +5917,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -5790,9 +5931,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -6009,10 +6150,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6039,106 +6180,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="45"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="43"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="49"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="49"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="47"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="47"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="49"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="47"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="47"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="49"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -6153,10 +6294,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="47"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -6171,14 +6312,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="47"/>
+      <c r="H10" s="61"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -6193,14 +6334,14 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="47"/>
+      <c r="H11" s="55"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -6215,14 +6356,14 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="47"/>
+      <c r="H12" s="55"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -6237,152 +6378,152 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="47"/>
+      <c r="H13" s="55"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="45"/>
+      <c r="H14" s="55"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="56"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="56"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="56"/>
+      <c r="H17" s="55"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="43"/>
-      <c r="G18" s="56" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="45"/>
+      <c r="G18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="47"/>
-      <c r="G19" s="56" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="49"/>
+      <c r="G19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="56"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="47"/>
-      <c r="G20" s="56" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="49"/>
+      <c r="G20" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="47"/>
-      <c r="G21" s="56" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="49"/>
+      <c r="G21" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="47"/>
-      <c r="G22" s="56" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="49"/>
+      <c r="G22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="47"/>
-      <c r="G23" s="56" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="49"/>
+      <c r="G23" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="56"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="56" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="49"/>
+      <c r="G24" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="56"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="45"/>
-      <c r="G25" s="56" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="47"/>
+      <c r="G25" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="56"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6391,15 +6532,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="G27" s="56" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="G27" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6408,15 +6549,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="G28" s="56" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="G28" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="56"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6425,15 +6566,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="G29" s="56" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="G29" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="56"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6442,15 +6583,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="G30" s="56" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="G30" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6459,15 +6600,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="G31" s="56" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="G31" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6476,23 +6617,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="G32" s="56" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="G32" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="J32" s="61" t="s">
+      <c r="H32" s="55"/>
+      <c r="J32" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6501,22 +6642,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="G33" s="56" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="G33" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="55"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6528,22 +6669,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="G34" s="56" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="G34" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="56"/>
+      <c r="H34" s="55"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6555,22 +6696,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="G35" s="56" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="G35" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="56"/>
+      <c r="H35" s="55"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6582,22 +6723,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="G36" s="56" t="s">
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="G36" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="55"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6609,22 +6750,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="G37" s="56" t="s">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="G37" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="55"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6636,13 +6777,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6651,13 +6792,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6666,13 +6807,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6681,13 +6822,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6696,13 +6837,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6711,11 +6852,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6724,11 +6865,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6737,11 +6878,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6750,11 +6891,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6763,11 +6904,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6776,16 +6917,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -6794,9 +6935,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -6805,9 +6946,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -6816,9 +6957,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -6827,9 +6968,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -6838,41 +6979,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -6882,28 +7023,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="57" t="s">
+      <c r="K58" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -7037,258 +7178,310 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>760</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A18:E25"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -7305,60 +7498,13 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7386,10 +7532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -7400,42 +7546,42 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
         <v>271</v>
@@ -7445,33 +7591,33 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>424</v>
@@ -7487,10 +7633,10 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>425</v>
@@ -7503,8 +7649,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>425</v>
@@ -7517,8 +7663,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>425</v>
@@ -7531,8 +7677,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>425</v>
@@ -7545,8 +7691,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>425</v>
@@ -7562,15 +7708,15 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>424</v>
@@ -7583,8 +7729,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>425</v>
@@ -7594,8 +7740,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>425</v>
@@ -7605,8 +7751,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>425</v>
@@ -7871,10 +8017,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7885,18 +8031,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -7939,11 +8085,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -7976,11 +8122,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -8008,18 +8154,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="65" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
@@ -8052,11 +8198,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
@@ -8089,11 +8235,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
@@ -8126,18 +8272,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="65" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="66" t="s">
         <v>608</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -8170,11 +8316,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -8207,11 +8353,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -8244,18 +8390,18 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>624</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
     </row>
     <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -8288,11 +8434,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -8321,15 +8467,15 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
@@ -8338,7 +8484,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,126 +8504,126 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="65" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="63" t="s">
-        <v>724</v>
-      </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
-        <v>730</v>
-      </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
+      <c r="A92" s="66" t="s">
+        <v>728</v>
+      </c>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B93" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B94" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B95" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B96" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D96" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B97" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="64" t="s">
-        <v>725</v>
-      </c>
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
+      <c r="A98" s="66" t="s">
+        <v>723</v>
+      </c>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B99" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B100" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B101" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B102" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B103" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="64" t="s">
-        <v>726</v>
-      </c>
-      <c r="B104" s="64"/>
-      <c r="C104" s="64"/>
+      <c r="A104" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B105" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -8485,15 +8631,15 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B107" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -8501,532 +8647,794 @@
         <v>630</v>
       </c>
       <c r="B108" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B109" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A112" s="63" t="s">
+      <c r="A112" s="65" t="s">
         <v>642</v>
       </c>
-      <c r="B112" s="63"/>
-      <c r="C112" s="63"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
     </row>
     <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="64" t="s">
+      <c r="A113" s="66" t="s">
+        <v>730</v>
+      </c>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="41" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="41" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
+        <v>742</v>
+      </c>
+      <c r="B116" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="B117" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="41" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="41" t="s">
+        <v>748</v>
+      </c>
+      <c r="B119" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="66" t="s">
+        <v>731</v>
+      </c>
+      <c r="B120" s="66"/>
+      <c r="C120" s="66"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="41" t="s">
+        <v>686</v>
+      </c>
+      <c r="B121" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="B122" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="B123" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="41" t="s">
+        <v>761</v>
+      </c>
+      <c r="B124" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="41" t="s">
+        <v>744</v>
+      </c>
+      <c r="B125" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="66" t="s">
         <v>732</v>
       </c>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>749</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="B126" s="66"/>
+      <c r="C126" s="66"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="B127" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="41" t="s">
+        <v>741</v>
+      </c>
+      <c r="B128" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="41" t="s">
+        <v>735</v>
+      </c>
+      <c r="B129" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="41" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="41" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="41" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A134" s="65" t="s">
+        <v>641</v>
+      </c>
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
+    </row>
+    <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="66"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+    </row>
+    <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="66"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+    </row>
+    <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="66"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+    </row>
+    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A144" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+    </row>
+    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="66" t="s">
+        <v>783</v>
+      </c>
+      <c r="B145" s="66"/>
+      <c r="C145" s="66"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="B146" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="41" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="41" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="41" t="s">
+        <v>832</v>
+      </c>
+      <c r="B149" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="41" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A151" s="66" t="s">
+        <v>811</v>
+      </c>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="41" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="41" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="41"/>
+    </row>
+    <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A156" s="66" t="s">
+        <v>812</v>
+      </c>
+      <c r="B156" s="66"/>
+      <c r="C156" s="66"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="41" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="41" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="41" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+    </row>
+    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A162" s="65" t="s">
+        <v>644</v>
+      </c>
+      <c r="B162" s="65"/>
+      <c r="C162" s="65"/>
+    </row>
+    <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="66" t="s">
+        <v>810</v>
+      </c>
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="41" t="s">
+        <v>818</v>
+      </c>
+      <c r="B164" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="41" t="s">
+        <v>820</v>
+      </c>
+      <c r="B165" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="41" t="s">
+        <v>822</v>
+      </c>
+      <c r="B166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="41" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="41"/>
+    </row>
+    <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="66" t="s">
+        <v>814</v>
+      </c>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="41" t="s">
+        <v>823</v>
+      </c>
+      <c r="B170" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="41" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="41"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="41"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="41"/>
+    </row>
+    <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="66" t="s">
+        <v>826</v>
+      </c>
+      <c r="B175" s="66"/>
+      <c r="C175" s="66"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="41" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="41" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="41" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="41"/>
+    </row>
+    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A181" s="65" t="s">
+        <v>646</v>
+      </c>
+      <c r="B181" s="65"/>
+      <c r="C181" s="65"/>
+    </row>
+    <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A182" s="66" t="s">
+        <v>815</v>
+      </c>
+      <c r="B182" s="66"/>
+      <c r="C182" s="66"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="41" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="41" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="41" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="42" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="41" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A189" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="B189" s="66"/>
+      <c r="C189" s="66"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="41" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="41" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="41" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="41" t="s">
+        <v>847</v>
+      </c>
+      <c r="B193" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A194" s="66" t="s">
+        <v>817</v>
+      </c>
+      <c r="B194" s="66"/>
+      <c r="C194" s="66"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="41" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="41" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="41" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="41" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="41"/>
+    </row>
+    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A200" s="65" t="s">
+        <v>733</v>
+      </c>
+      <c r="B200" s="65"/>
+      <c r="C200" s="65"/>
+    </row>
+    <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A201" s="66"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="66"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="41" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="41"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="41"/>
+    </row>
+    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A205" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B205" s="65"/>
+      <c r="C205" s="65"/>
+    </row>
+    <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A206" s="66" t="s">
+        <v>770</v>
+      </c>
+      <c r="B206" s="66"/>
+      <c r="C206" s="66"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="41" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>750</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="41" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="64" t="s">
-        <v>733</v>
-      </c>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="41" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="41" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A211" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="B211" s="66"/>
+      <c r="C211" s="66"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="41" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="41" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="41" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="41" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="41" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A217" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="B217" s="66"/>
+      <c r="C217" s="66"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="41" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="41" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="41" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="64" t="s">
-        <v>734</v>
-      </c>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>736</v>
-      </c>
-      <c r="B127" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>743</v>
-      </c>
-      <c r="B128" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>737</v>
-      </c>
-      <c r="B129" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A134" s="63" t="s">
-        <v>641</v>
-      </c>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63"/>
-    </row>
-    <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-    </row>
-    <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-    </row>
-    <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-    </row>
-    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A144" s="63" t="s">
-        <v>643</v>
-      </c>
-      <c r="B144" s="63"/>
-      <c r="C144" s="63"/>
-    </row>
-    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A150" s="63" t="s">
-        <v>644</v>
-      </c>
-      <c r="B150" s="63"/>
-      <c r="C150" s="63"/>
-    </row>
-    <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A157" s="63" t="s">
-        <v>646</v>
-      </c>
-      <c r="B157" s="63"/>
-      <c r="C157" s="63"/>
-    </row>
-    <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A158" s="64"/>
-      <c r="B158" s="64"/>
-      <c r="C158" s="64"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A163" s="63" t="s">
-        <v>735</v>
-      </c>
-      <c r="B163" s="63"/>
-      <c r="C163" s="63"/>
-    </row>
-    <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="64"/>
-      <c r="B164" s="64"/>
-      <c r="C164" s="64"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A168" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="B168" s="63"/>
-      <c r="C168" s="63"/>
-    </row>
-    <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A169" s="64" t="s">
-        <v>772</v>
-      </c>
-      <c r="B169" s="64"/>
-      <c r="C169" s="64"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="64" t="s">
-        <v>773</v>
-      </c>
-      <c r="B176" s="64"/>
-      <c r="C176" s="64"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="41" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="41" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A224" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" s="65"/>
+      <c r="C224" s="65"/>
+    </row>
+    <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A225" s="66" t="s">
+        <v>775</v>
+      </c>
+      <c r="B225" s="66"/>
+      <c r="C225" s="66"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="41" t="s">
+        <v>776</v>
+      </c>
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="B227" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="41" t="s">
+        <v>786</v>
+      </c>
+      <c r="B228" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="41" t="s">
+        <v>799</v>
+      </c>
+      <c r="B229" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="41" t="s">
+        <v>787</v>
+      </c>
+      <c r="B230" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A231" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="B231" s="66"/>
+      <c r="C231" s="66"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="41" t="s">
+        <v>779</v>
+      </c>
+      <c r="B232" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="41" t="s">
+        <v>783</v>
+      </c>
+      <c r="B233" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="B234" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="41" t="s">
+        <v>802</v>
+      </c>
+      <c r="B235" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="B236" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A237" s="66" t="s">
+        <v>778</v>
+      </c>
+      <c r="B237" s="66"/>
+      <c r="C237" s="66"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="41" t="s">
+        <v>780</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="41" t="s">
+        <v>785</v>
+      </c>
+      <c r="B239" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="41" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="64" t="s">
-        <v>771</v>
-      </c>
-      <c r="B182" s="64"/>
-      <c r="C182" s="64"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A191" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B191" s="63"/>
-      <c r="C191" s="63"/>
-    </row>
-    <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A192" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="B192" s="64"/>
-      <c r="C192" s="64"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>778</v>
-      </c>
-      <c r="B193" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>768</v>
-      </c>
-      <c r="B194" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>788</v>
-      </c>
-      <c r="B195" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>801</v>
-      </c>
-      <c r="B196" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>789</v>
-      </c>
-      <c r="B197" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A198" s="64" t="s">
-        <v>779</v>
-      </c>
-      <c r="B198" s="64"/>
-      <c r="C198" s="64"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B240" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="B241" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="41" t="s">
         <v>781</v>
       </c>
-      <c r="B199" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>785</v>
-      </c>
-      <c r="B200" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>786</v>
-      </c>
-      <c r="B201" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>804</v>
-      </c>
-      <c r="B202" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>802</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="B242" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A204" s="64" t="s">
-        <v>780</v>
-      </c>
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>782</v>
-      </c>
-      <c r="B205" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>787</v>
-      </c>
-      <c r="B206" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>759</v>
-      </c>
-      <c r="B207" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>784</v>
-      </c>
-      <c r="B208" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>783</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A76:C76"/>
+  <mergeCells count="50">
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A156:C156"/>
     <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A162:C162"/>
     <mergeCell ref="A144:C144"/>
     <mergeCell ref="A112:C112"/>
     <mergeCell ref="A134:C134"/>
@@ -9039,19 +9447,21 @@
     <mergeCell ref="A126:C126"/>
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449AD7EE-0448-4535-87F1-E7B9104AC9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787E106A-9C2C-4FAF-9826-9471D4AD57A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="345" yWindow="525" windowWidth="21600" windowHeight="12735" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="851">
   <si>
     <t>Strength</t>
   </si>
@@ -2591,6 +2591,9 @@
   </si>
   <si>
     <t>Steam</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -3106,8 +3109,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3118,22 +3133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5312,6 +5315,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="C84:C87"/>
@@ -5328,90 +5415,6 @@
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="D80:D83"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6183,9 +6186,9 @@
       <c r="A2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="45"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -6196,15 +6199,15 @@
       <c r="K2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="49"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
@@ -6213,15 +6216,15 @@
         <v>64</v>
       </c>
       <c r="K3" s="48"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="49"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
@@ -6230,55 +6233,55 @@
         <v>65</v>
       </c>
       <c r="K4" s="48"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="49"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="48"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="49"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="49"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="47"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6295,8 +6298,8 @@
         <v>4</v>
       </c>
       <c r="K9" s="48"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
       <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6312,13 +6315,13 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="64"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6334,13 +6337,13 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="55"/>
+      <c r="H11" s="58"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6356,13 +6359,13 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="58"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6378,13 +6381,13 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="58"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6392,13 +6395,13 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="55"/>
+      <c r="H14" s="58"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6406,25 +6409,25 @@
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="55"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="58"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
@@ -6433,97 +6436,97 @@
       <c r="A18" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="45"/>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="55"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="49"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="55"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="49"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="49"/>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="49"/>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="55"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="49"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="55"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="49"/>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="47"/>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="55"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6532,15 +6535,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="G27" s="55" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="G27" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6549,15 +6552,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="G28" s="55" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="G28" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="55"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6566,15 +6569,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="G29" s="55" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="G29" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6583,15 +6586,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="G30" s="55" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="G30" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6600,15 +6603,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="G31" s="55" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="G31" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6617,23 +6620,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="G32" s="55" t="s">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="G32" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="J32" s="60" t="s">
+      <c r="H32" s="58"/>
+      <c r="J32" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6642,22 +6645,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="G33" s="55" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="G33" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="58"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6669,22 +6672,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="G34" s="55" t="s">
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="G34" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="55"/>
+      <c r="H34" s="58"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6696,22 +6699,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="G35" s="55" t="s">
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="G35" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="55"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6723,22 +6726,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="G36" s="55" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="G36" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="55"/>
+      <c r="H36" s="58"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6750,22 +6753,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="G37" s="55" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="G37" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="55"/>
+      <c r="H37" s="58"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6777,13 +6780,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6792,13 +6795,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6807,13 +6810,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6822,13 +6825,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6837,13 +6840,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6852,11 +6855,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6865,11 +6868,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6878,11 +6881,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6891,11 +6894,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6904,11 +6907,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6917,16 +6920,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -6935,9 +6938,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -6946,9 +6949,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -6957,9 +6960,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -6968,9 +6971,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -6979,41 +6982,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -7023,28 +7026,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="63" t="s">
+      <c r="K58" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -7428,11 +7431,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="C60:E60"/>
@@ -7449,62 +7503,11 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7532,10 +7535,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -8020,7 +8023,7 @@
   <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8976,6 +8979,9 @@
       <c r="A167" s="41" t="s">
         <v>828</v>
       </c>
+      <c r="B167" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
@@ -9412,25 +9418,21 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A181:C181"/>
@@ -9447,21 +9449,25 @@
     <mergeCell ref="A126:C126"/>
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A211:C211"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787E106A-9C2C-4FAF-9826-9471D4AD57A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FF02C-9689-4E49-A437-2C52103D2843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="525" windowWidth="21600" windowHeight="12735" tabRatio="440" firstSheet="5" activeTab="7" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="10" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -3109,20 +3109,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3133,10 +3121,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4416,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:D103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,7 +4426,7 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="76.140625" customWidth="1"/>
     <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,6 +4684,10 @@
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
+      <c r="F23" t="str">
+        <f>A84</f>
+        <v>Equipment Change Rendering Player and other Characters</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
@@ -4697,6 +4701,10 @@
       </c>
       <c r="D24" s="51" t="s">
         <v>303</v>
+      </c>
+      <c r="F24" t="str">
+        <f>A88</f>
+        <v>Full Round (Class)</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,18 +4712,30 @@
       <c r="B25" s="68"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
+      <c r="F25" t="str">
+        <f>A92</f>
+        <v>Full Round (Gathering)</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
+      <c r="F26" t="str">
+        <f>A96</f>
+        <v>Full Round (Crafting)</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
+      <c r="F27" t="str">
+        <f>A100</f>
+        <v>Full Round (Regular Quest Line)</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
@@ -5315,38 +5335,58 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="C44:C47"/>
@@ -5363,58 +5403,38 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6186,9 +6206,9 @@
       <c r="A2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="45"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -6199,15 +6219,15 @@
       <c r="K2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="49"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
@@ -6216,15 +6236,15 @@
         <v>64</v>
       </c>
       <c r="K3" s="48"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="49"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
@@ -6233,55 +6253,55 @@
         <v>65</v>
       </c>
       <c r="K4" s="48"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="49"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="48"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="49"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="49"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="47"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6298,8 +6318,8 @@
         <v>4</v>
       </c>
       <c r="K9" s="48"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6315,13 +6335,13 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="61"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6337,13 +6357,13 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="55"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6359,13 +6379,13 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="55"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6381,13 +6401,13 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="55"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6395,13 +6415,13 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="55"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6409,25 +6429,25 @@
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="55"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
@@ -6436,97 +6456,97 @@
       <c r="A18" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="45"/>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="49"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="49"/>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="58"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="49"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="49"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="49"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="49"/>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="47"/>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6535,15 +6555,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="G27" s="58" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="G27" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6552,15 +6572,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="G28" s="58" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="G28" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="58"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6569,15 +6589,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="G29" s="58" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="G29" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6586,15 +6606,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="G30" s="58" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="G30" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6603,15 +6623,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="G31" s="58" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="G31" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6620,23 +6640,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="G32" s="58" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="G32" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="J32" s="63" t="s">
+      <c r="H32" s="55"/>
+      <c r="J32" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6645,22 +6665,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="G33" s="58" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="G33" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="55"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6672,22 +6692,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="G34" s="58" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="G34" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="55"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6699,22 +6719,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="G35" s="58" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="G35" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="58"/>
+      <c r="H35" s="55"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6726,22 +6746,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="G36" s="58" t="s">
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="G36" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="58"/>
+      <c r="H36" s="55"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6753,22 +6773,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="G37" s="58" t="s">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="G37" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="58"/>
+      <c r="H37" s="55"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6780,13 +6800,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6795,13 +6815,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6810,13 +6830,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6825,13 +6845,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6840,13 +6860,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6855,11 +6875,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6868,11 +6888,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6881,11 +6901,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6894,11 +6914,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6907,11 +6927,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6920,16 +6940,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -6938,9 +6958,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -6949,9 +6969,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -6960,9 +6980,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -6971,9 +6991,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -6982,41 +7002,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -7026,28 +7046,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="59" t="s">
+      <c r="K58" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -7431,13 +7451,60 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A18:E25"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -7454,60 +7521,13 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7535,10 +7555,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -8022,7 +8042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6677C-E81F-401F-B2BD-E236F8A650D1}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
@@ -9418,21 +9438,25 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A156:C156"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A181:C181"/>
@@ -9449,25 +9473,21 @@
     <mergeCell ref="A126:C126"/>
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FF02C-9689-4E49-A437-2C52103D2843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD609C-8F41-4B8D-BC06-95C0826F5EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="440" firstSheet="5" activeTab="10" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="689" firstSheet="2" activeTab="11" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Equipment" sheetId="6" r:id="rId9"/>
     <sheet name="Advanced Combat" sheetId="8" r:id="rId10"/>
     <sheet name="Checklist" sheetId="7" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="883">
   <si>
     <t>Strength</t>
   </si>
@@ -2594,6 +2597,102 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Mine Rock</t>
+  </si>
+  <si>
+    <t>See rock in inventory</t>
+  </si>
+  <si>
+    <t>Save to both server and client</t>
+  </si>
+  <si>
+    <t>Have Hammer in inventory (error if not)</t>
+  </si>
+  <si>
+    <t>Go to anvil</t>
+  </si>
+  <si>
+    <t>Open crafting menu</t>
+  </si>
+  <si>
+    <t>Show options available</t>
+  </si>
+  <si>
+    <t>Go To Furnace</t>
+  </si>
+  <si>
+    <t>Have ore in inventory</t>
+  </si>
+  <si>
+    <t>Check stats for available items</t>
+  </si>
+  <si>
+    <t>Has required level</t>
+  </si>
+  <si>
+    <t>Create item in server and client inventory</t>
+  </si>
+  <si>
+    <t>Click to create</t>
+  </si>
+  <si>
+    <t>Prereqs</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Utility Item type in inventory list</t>
+  </si>
+  <si>
+    <t>Items in inventory</t>
+  </si>
+  <si>
+    <t>Check resource availabliity</t>
+  </si>
+  <si>
+    <t>Check if pickaxe is equipped (error message)</t>
+  </si>
+  <si>
+    <t>Rock Resources on Server</t>
+  </si>
+  <si>
+    <t>Inventory Item Hover Menu</t>
+  </si>
+  <si>
+    <t>Hover item to show menu and item name</t>
+  </si>
+  <si>
+    <t>Used instead of models so we can tell what is what</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Stats are on the SQL Server</t>
+  </si>
+  <si>
+    <t>Pull those</t>
+  </si>
+  <si>
+    <t>When do we update stats?</t>
+  </si>
+  <si>
+    <t>When we get XP</t>
+  </si>
+  <si>
+    <t>One just base stats</t>
+  </si>
+  <si>
+    <t>3 Tables</t>
+  </si>
+  <si>
+    <t>Total XP for each stat</t>
+  </si>
+  <si>
+    <t>Current Hits / Max Hits &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; DELAYED / Updated on Hit / Damage / Heal</t>
   </si>
 </sst>
 </file>
@@ -3109,8 +3208,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3121,22 +3232,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3640,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D486571-9D67-47BB-9D65-E846FA7325BB}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,6 +4847,10 @@
         <v>304</v>
       </c>
       <c r="D28" s="51"/>
+      <c r="F28" t="str">
+        <f>A104</f>
+        <v>Inventory Item Hover Menu</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
@@ -5333,8 +5436,128 @@
       <c r="C103" s="51"/>
       <c r="D103" s="51"/>
     </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="67" t="s">
+        <v>871</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>872</v>
+      </c>
+      <c r="D104" s="51" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="67"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="67"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="67"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="104">
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="C84:C87"/>
@@ -5351,91 +5574,153 @@
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="D80:D83"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB6A08E-A9A6-467B-8DE6-4224317EBD93}">
+  <dimension ref="A2:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F3" t="s">
+        <v>865</v>
+      </c>
+      <c r="L3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>861</v>
+      </c>
+      <c r="F4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>869</v>
+      </c>
+      <c r="F5" t="s">
+        <v>867</v>
+      </c>
+      <c r="L5" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>868</v>
+      </c>
+      <c r="F6" t="s">
+        <v>870</v>
+      </c>
+      <c r="L6" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>853</v>
+      </c>
+      <c r="L8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6206,9 +6491,9 @@
       <c r="A2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="45"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -6219,15 +6504,15 @@
       <c r="K2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="49"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
@@ -6236,15 +6521,15 @@
         <v>64</v>
       </c>
       <c r="K3" s="48"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="49"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
@@ -6253,55 +6538,55 @@
         <v>65</v>
       </c>
       <c r="K4" s="48"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="49"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="48"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="49"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="49"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="47"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6318,8 +6603,8 @@
         <v>4</v>
       </c>
       <c r="K9" s="48"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
       <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6335,13 +6620,13 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="64"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6357,13 +6642,13 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="55"/>
+      <c r="H11" s="58"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6379,13 +6664,13 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="58"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6401,13 +6686,13 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="58"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6415,13 +6700,13 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="55"/>
+      <c r="H14" s="58"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6429,25 +6714,25 @@
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="55"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="58"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
@@ -6456,97 +6741,97 @@
       <c r="A18" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="45"/>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="55"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="49"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="55"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="49"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="49"/>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="49"/>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="55"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="49"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="55"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="49"/>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="47"/>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="55"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6555,15 +6840,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="G27" s="55" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="G27" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6572,15 +6857,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="G28" s="55" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="G28" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="55"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6589,15 +6874,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="G29" s="55" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="G29" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6606,15 +6891,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="G30" s="55" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="G30" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6623,15 +6908,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="G31" s="55" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="G31" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6640,23 +6925,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="G32" s="55" t="s">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="G32" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="J32" s="60" t="s">
+      <c r="H32" s="58"/>
+      <c r="J32" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6665,22 +6950,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="G33" s="55" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="G33" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="58"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6692,22 +6977,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="G34" s="55" t="s">
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="G34" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="55"/>
+      <c r="H34" s="58"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -6719,22 +7004,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="G35" s="55" t="s">
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="G35" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="55"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -6746,22 +7031,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="G36" s="55" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="G36" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="55"/>
+      <c r="H36" s="58"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -6773,22 +7058,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="G37" s="55" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="G37" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="55"/>
+      <c r="H37" s="58"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -6800,13 +7085,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6815,13 +7100,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6830,13 +7115,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6845,13 +7130,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6860,13 +7145,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6875,11 +7160,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6888,11 +7173,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6901,11 +7186,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6914,11 +7199,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6927,11 +7212,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6940,16 +7225,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -6958,9 +7243,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -6969,9 +7254,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -6980,9 +7265,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -6991,9 +7276,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -7002,41 +7287,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -7046,28 +7331,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="63" t="s">
+      <c r="K58" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -7451,11 +7736,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="C60:E60"/>
@@ -7472,62 +7808,11 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7555,10 +7840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -9438,25 +9723,21 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A181:C181"/>
@@ -9473,21 +9754,25 @@
     <mergeCell ref="A126:C126"/>
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A211:C211"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD609C-8F41-4B8D-BC06-95C0826F5EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC3298-3EC5-492B-BA29-DC24A46051D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="689" firstSheet="2" activeTab="11" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="689" firstSheet="2" activeTab="8" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="906">
   <si>
     <t>Strength</t>
   </si>
@@ -2693,6 +2693,75 @@
   </si>
   <si>
     <t>Current Hits / Max Hits &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; DELAYED / Updated on Hit / Damage / Heal</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Slot Number</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Shoulders</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Wrist1</t>
+  </si>
+  <si>
+    <t>Writst2</t>
+  </si>
+  <si>
+    <t>Hands1</t>
+  </si>
+  <si>
+    <t>Hands2</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Legs1</t>
+  </si>
+  <si>
+    <t>Legs2</t>
+  </si>
+  <si>
+    <t>Boots1</t>
+  </si>
+  <si>
+    <t>Boots2</t>
+  </si>
+  <si>
+    <t>Head2</t>
+  </si>
+  <si>
+    <t>Head1</t>
+  </si>
+  <si>
+    <t>1HW1</t>
+  </si>
+  <si>
+    <t>1HW2</t>
+  </si>
+  <si>
+    <t>2HW1</t>
+  </si>
+  <si>
+    <t>2HW2</t>
+  </si>
+  <si>
+    <t>Accessory1</t>
+  </si>
+  <si>
+    <t>Accessory2</t>
   </si>
 </sst>
 </file>
@@ -3208,20 +3277,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3232,10 +3289,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3389,16 +3458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>421735</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>108860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>433969</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>188100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3427,8 +3496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-772416" y="3477516"/>
-          <a:ext cx="6255525" cy="4691644"/>
+          <a:off x="2559459" y="3619461"/>
+          <a:ext cx="6751870" cy="5064667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5470,18 +5539,74 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="B88:B91"/>
     <mergeCell ref="C88:C91"/>
@@ -5506,74 +5631,18 @@
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5583,7 +5652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB6A08E-A9A6-467B-8DE6-4224317EBD93}">
   <dimension ref="A2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -6491,9 +6560,9 @@
       <c r="A2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="45"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -6504,15 +6573,15 @@
       <c r="K2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="49"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
@@ -6521,15 +6590,15 @@
         <v>64</v>
       </c>
       <c r="K3" s="48"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="49"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
@@ -6538,55 +6607,55 @@
         <v>65</v>
       </c>
       <c r="K4" s="48"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="49"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="48"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="49"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="49"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="47"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6603,8 +6672,8 @@
         <v>4</v>
       </c>
       <c r="K9" s="48"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6620,13 +6689,13 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="61"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6642,13 +6711,13 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="55"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6664,13 +6733,13 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="55"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6686,13 +6755,13 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="55"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6700,13 +6769,13 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="55"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6714,25 +6783,25 @@
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="55"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
@@ -6741,97 +6810,97 @@
       <c r="A18" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="45"/>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="49"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="49"/>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="58"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="49"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="49"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="49"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="49"/>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="47"/>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6840,15 +6909,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="G27" s="58" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="G27" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6857,15 +6926,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="G28" s="58" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="G28" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="58"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6874,15 +6943,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="G29" s="58" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="G29" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6891,15 +6960,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="G30" s="58" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="G30" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6908,15 +6977,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="G31" s="58" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="G31" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6925,23 +6994,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="G32" s="58" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="G32" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="J32" s="63" t="s">
+      <c r="H32" s="55"/>
+      <c r="J32" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6950,22 +7019,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="G33" s="58" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="G33" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="55"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -6977,22 +7046,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="G34" s="58" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="G34" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="58"/>
+      <c r="H34" s="55"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -7004,22 +7073,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="G35" s="58" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="G35" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="58"/>
+      <c r="H35" s="55"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -7031,22 +7100,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="G36" s="58" t="s">
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="G36" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="58"/>
+      <c r="H36" s="55"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -7058,22 +7127,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="G37" s="58" t="s">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="G37" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="58"/>
+      <c r="H37" s="55"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -7085,13 +7154,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -7100,13 +7169,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7115,13 +7184,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -7130,13 +7199,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -7145,13 +7214,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -7160,11 +7229,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7173,11 +7242,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7186,11 +7255,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7199,11 +7268,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7212,11 +7281,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7225,16 +7294,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -7243,9 +7312,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -7254,9 +7323,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -7265,9 +7334,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -7276,9 +7345,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -7287,41 +7356,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -7331,28 +7400,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="59" t="s">
+      <c r="K58" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -7736,13 +7805,60 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A18:E25"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -7759,60 +7875,13 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7840,10 +7909,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -9723,21 +9792,25 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A156:C156"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A181:C181"/>
@@ -9754,25 +9827,21 @@
     <mergeCell ref="A126:C126"/>
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9781,13 +9850,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9842,6 +9915,182 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>884</v>
+      </c>
+      <c r="B17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC3298-3EC5-492B-BA29-DC24A46051D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47ED8C1-95BA-4510-B27A-474C09126185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="689" firstSheet="2" activeTab="8" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="689" firstSheet="3" activeTab="15" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,11 @@
     <sheet name="Equipment" sheetId="6" r:id="rId9"/>
     <sheet name="Advanced Combat" sheetId="8" r:id="rId10"/>
     <sheet name="Checklist" sheetId="7" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="Full Runs" sheetId="12" r:id="rId12"/>
+    <sheet name="Class Ideas" sheetId="13" r:id="rId13"/>
+    <sheet name="Growing End Game Differently" sheetId="14" r:id="rId14"/>
+    <sheet name="Boss Mechanics" sheetId="15" r:id="rId15"/>
+    <sheet name="Dungeon Mechanics" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="973">
   <si>
     <t>Strength</t>
   </si>
@@ -2762,6 +2766,207 @@
   </si>
   <si>
     <t>Accessory2</t>
+  </si>
+  <si>
+    <t>Combat Ideas</t>
+  </si>
+  <si>
+    <t>CDR Reducers</t>
+  </si>
+  <si>
+    <t>Reduces the cooldown of other abilities on the chain - some abilities wont go down in cdr without a reducer</t>
+  </si>
+  <si>
+    <t>Left / Right Balancers</t>
+  </si>
+  <si>
+    <t>Positional</t>
+  </si>
+  <si>
+    <t>Damage type shield</t>
+  </si>
+  <si>
+    <t>range increase</t>
+  </si>
+  <si>
+    <t>range decrease</t>
+  </si>
+  <si>
+    <t>Standing with ally / turret / companion / ground effect</t>
+  </si>
+  <si>
+    <t>Certain combo sends to the right / other to the left. Specific effect in center, right and left</t>
+  </si>
+  <si>
+    <t>Mouse Aim</t>
+  </si>
+  <si>
+    <t>CDR</t>
+  </si>
+  <si>
+    <t>Balancer</t>
+  </si>
+  <si>
+    <t>Potential Skill / Spell Effects in Hybrid for Class Identity</t>
+  </si>
+  <si>
+    <t>CD Reduction</t>
+  </si>
+  <si>
+    <t>Stacking Buffs</t>
+  </si>
+  <si>
+    <t>Stacking DeBuffs</t>
+  </si>
+  <si>
+    <t>"Builds"</t>
+  </si>
+  <si>
+    <t>Primary Spike DMG</t>
+  </si>
+  <si>
+    <t>Primary AOE DMG</t>
+  </si>
+  <si>
+    <t>Ground DoTs</t>
+  </si>
+  <si>
+    <t>Single Target DoTs</t>
+  </si>
+  <si>
+    <t>Multi Target DoTs</t>
+  </si>
+  <si>
+    <t>Tent-Pole DoT</t>
+  </si>
+  <si>
+    <t>Cycle Re-Up</t>
+  </si>
+  <si>
+    <t>LifeSteal</t>
+  </si>
+  <si>
+    <t>SpellSteal</t>
+  </si>
+  <si>
+    <t>Secondary.Primary</t>
+  </si>
+  <si>
+    <t>Focused on creating zones for Damage. Funneling enemies</t>
+  </si>
+  <si>
+    <t>Creating and Spreading DoTs. Seems like Fire and Disease</t>
+  </si>
+  <si>
+    <t>Could be a main DoT that is incredibly strong that has a complex sequence or it could be a sustained DoT with a sequence the re-ups the DoT. The sequence doesn't have to be a damage cycle. It could be zone or utility ability based</t>
+  </si>
+  <si>
+    <t>Similar to above but there are no other dots. It could be a dot that increases all other damage to that target from you from a specific source</t>
+  </si>
+  <si>
+    <t>After a sequence, you refresh all of the buffs and debuffs from your chain. Some things could naturally come off of cooldown but others may be unavailable until they get another charge from a cycle</t>
+  </si>
+  <si>
+    <t>On sequence, naturally big cooldown skills can be reduced. Pairs well with something like a big haste or big crit cooldown maybe</t>
+  </si>
+  <si>
+    <t>Sequence creates a strong buff that stacks everytime. Can be something that stacks to 10 and is easy to gain but hard to lose. Could be something that stacks to 3 and is easy to lose and hard to stack for a better effect.</t>
+  </si>
+  <si>
+    <t>^Could be the same but on targets instead of self. Also, could be a hybrid where you lose something like healing as your damage goes up.</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>On sequence, gain lifesteal on specific abilities over some time</t>
+  </si>
+  <si>
+    <t>^ same but with the spellbook</t>
+  </si>
+  <si>
+    <t>Puncture, Pierce, Infuse, Crushing, Slicing. Probably necessities for some specific content</t>
+  </si>
+  <si>
+    <t>vision increase</t>
+  </si>
+  <si>
+    <t>vision decrease</t>
+  </si>
+  <si>
+    <t>sequence success</t>
+  </si>
+  <si>
+    <t>sequence pass</t>
+  </si>
+  <si>
+    <t>sequence fail</t>
+  </si>
+  <si>
+    <t>Balancers</t>
+  </si>
+  <si>
+    <t>Left - Right. Or don't go over or under. Could be cycling were extremes are rewarded, could be the other way around.</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>Stacks an inert buff and then discharges for some effect. Could be damage or heal or utility</t>
+  </si>
+  <si>
+    <t>General Areas of Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealing, Reducing, Increasing, Adding, Removing </t>
+  </si>
+  <si>
+    <t>Damage, Healing, Resistance, Mitigation, Movement, Zones, Buffs, Debuffs, Unique Counters, Minions</t>
+  </si>
+  <si>
+    <t>AI Minions</t>
+  </si>
+  <si>
+    <t>Could be a horde of small, a few small, a few big, One big, temporary or permanent</t>
+  </si>
+  <si>
+    <t>Gathering Mini Games</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Crafting Turn ins (Non Quest Related / Maybe Only useful for the quest)</t>
+  </si>
+  <si>
+    <t>Drop Turn ins (Drop Farms)</t>
+  </si>
+  <si>
+    <t>Buying (All Kinds of Currency)</t>
+  </si>
+  <si>
+    <t>Something Similar to Rifts</t>
+  </si>
+  <si>
+    <t>Something Similar to Maps</t>
+  </si>
+  <si>
+    <t>Roguelike "Mini Game"</t>
+  </si>
+  <si>
+    <t>Gear LVL Grinding (Not All Gear - Only Certain pieces in that area)</t>
+  </si>
+  <si>
+    <t>Guild / Faction Reps</t>
+  </si>
+  <si>
+    <t>Ideas for scaling during end game and earlier systems (Most can double as access quest rewards)</t>
+  </si>
+  <si>
+    <t>Town / Outpost Building Areas (Both friendly and hostile)(Just non-static zones)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungeon </t>
   </si>
 </sst>
 </file>
@@ -3139,7 +3344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3241,6 +3446,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3313,6 +3521,9 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3321,6 +3532,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3852,62 +4069,62 @@
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="E14" s="44" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="E16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="43"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -4246,10 +4463,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,14 +4476,16 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>374</v>
       </c>
@@ -4274,7 +4493,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>375</v>
       </c>
@@ -4282,7 +4501,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -4290,7 +4509,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -4298,7 +4517,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>376</v>
       </c>
@@ -4306,7 +4525,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="37" t="s">
         <v>520</v>
       </c>
@@ -4317,7 +4536,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>385</v>
       </c>
@@ -4334,7 +4553,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -4348,7 +4567,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>388</v>
       </c>
@@ -4362,7 +4581,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>387</v>
       </c>
@@ -4375,8 +4594,12 @@
       <c r="E13" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="68" t="s">
+        <v>906</v>
+      </c>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>389</v>
       </c>
@@ -4389,19 +4612,34 @@
       <c r="E14" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>907</v>
+      </c>
+      <c r="H14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>390</v>
       </c>
+      <c r="B15" t="s">
+        <v>916</v>
+      </c>
       <c r="D15" t="s">
         <v>527</v>
       </c>
       <c r="E15" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>909</v>
+      </c>
+      <c r="H15" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>391</v>
       </c>
@@ -4410,6 +4648,12 @@
       </c>
       <c r="E16" t="s">
         <v>553</v>
+      </c>
+      <c r="G16" t="s">
+        <v>910</v>
+      </c>
+      <c r="H16" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4446,6 +4690,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>917</v>
+      </c>
       <c r="D20" t="s">
         <v>543</v>
       </c>
@@ -4454,6 +4701,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>918</v>
+      </c>
       <c r="D21" t="s">
         <v>544</v>
       </c>
@@ -4462,6 +4712,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>432</v>
+      </c>
       <c r="D22" t="s">
         <v>545</v>
       </c>
@@ -4529,53 +4782,80 @@
       <c r="D30" t="s">
         <v>538</v>
       </c>
+      <c r="E30" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>540</v>
       </c>
+      <c r="E31" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>564</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G13:H13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4620,16 +4900,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>293</v>
       </c>
       <c r="F4" t="str">
@@ -4638,46 +4918,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="52" t="s">
         <v>296</v>
       </c>
       <c r="F8" t="str">
@@ -4686,92 +4966,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="52" t="s">
         <v>299</v>
       </c>
       <c r="F16" t="str">
@@ -4780,46 +5060,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>301</v>
       </c>
       <c r="F20" t="str">
@@ -4828,46 +5108,46 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="F23" t="str">
         <f>A84</f>
         <v>Equipment Change Rendering Player and other Characters</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="52" t="s">
         <v>303</v>
       </c>
       <c r="F24" t="str">
@@ -4876,666 +5156,666 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="F25" t="str">
         <f>A92</f>
         <v>Full Round (Gathering)</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="F26" t="str">
         <f>A96</f>
         <v>Full Round (Crafting)</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
       <c r="F27" t="str">
         <f>A100</f>
         <v>Full Round (Regular Quest Line)</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="52"/>
       <c r="F28" t="str">
         <f>A104</f>
         <v>Inventory Item Hover Menu</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="52" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="71" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="52" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="52" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="52" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="52" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="52" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="52" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="52" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="52" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="52" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="68" t="s">
+      <c r="B88" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D88" s="52" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="D92" s="51" t="s">
+      <c r="D92" s="52" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="67" t="s">
+      <c r="A96" s="69" t="s">
         <v>466</v>
       </c>
-      <c r="B96" s="68" t="s">
+      <c r="B96" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="D96" s="52" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="67" t="s">
+      <c r="A100" s="69" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="D100" s="51" t="s">
+      <c r="D100" s="52" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="A103" s="69"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="67" t="s">
+      <c r="A104" s="69" t="s">
         <v>871</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="52" t="s">
         <v>872</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="52" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="A107" s="69"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="104">
@@ -5794,6 +6074,320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137B8E9-2819-4CA1-B7CE-EA4FF1D66E66}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="185" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>955</v>
+      </c>
+      <c r="B2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>923</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>926</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>928</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>929</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>930</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>920</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>921</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>922</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>924</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>925</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>931</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>932</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
+        <v>933</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>951</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>953</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="25"/>
+    </row>
+    <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19531194-4C2B-4B8D-B18A-3687431752BD}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBD1EEF-87AF-4A3B-B7C8-EE0166C1DDE2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A95B86-92D3-4BDD-A672-B0E92C303D0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D030F2-414B-46C8-BD50-E67A9BF07732}">
   <dimension ref="A1:D19"/>
@@ -5884,10 +6478,10 @@
       <c r="A14" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="34" t="s">
         <v>374</v>
       </c>
@@ -5896,10 +6490,10 @@
       <c r="A15" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="31" t="s">
         <v>454</v>
       </c>
@@ -5908,10 +6502,10 @@
       <c r="A16" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="31" t="s">
         <v>456</v>
       </c>
@@ -5920,10 +6514,10 @@
       <c r="A17" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="31" t="s">
         <v>455</v>
       </c>
@@ -5932,10 +6526,10 @@
       <c r="A18" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="31" t="s">
         <v>463</v>
       </c>
@@ -5944,10 +6538,10 @@
       <c r="A19" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="31" t="s">
         <v>457</v>
       </c>
@@ -6244,11 +6838,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="25" t="s">
         <v>260</v>
       </c>
@@ -6262,9 +6856,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="25" t="s">
         <v>261</v>
       </c>
@@ -6278,9 +6872,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="29" t="s">
         <v>384</v>
       </c>
@@ -6294,9 +6888,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -6308,9 +6902,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -6557,106 +7151,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="46"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="45"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="50"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="49"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="50"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="49"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="49"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="50"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="49"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="50"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="49"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -6671,10 +7265,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -6689,14 +7283,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="49"/>
+      <c r="H10" s="62"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -6711,14 +7305,14 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="49"/>
+      <c r="H11" s="56"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -6733,14 +7327,14 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="49"/>
+      <c r="H12" s="56"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -6755,152 +7349,152 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="49"/>
+      <c r="H13" s="56"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="47"/>
+      <c r="H14" s="56"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="55"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="56"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="45"/>
-      <c r="G18" s="55" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="46"/>
+      <c r="G18" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="55"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="49"/>
-      <c r="G19" s="55" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50"/>
+      <c r="G19" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="55"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="49"/>
-      <c r="G20" s="55" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="50"/>
+      <c r="G20" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="49"/>
-      <c r="G21" s="55" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="50"/>
+      <c r="G21" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="49"/>
-      <c r="G22" s="55" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="50"/>
+      <c r="G22" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="55"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="49"/>
-      <c r="G23" s="55" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="50"/>
+      <c r="G23" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="55"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="49"/>
-      <c r="G24" s="55" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="50"/>
+      <c r="G24" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="55" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="48"/>
+      <c r="G25" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="55"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6909,15 +7503,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="G27" s="55" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="G27" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6926,15 +7520,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="G28" s="55" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="G28" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="55"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6943,15 +7537,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="G29" s="55" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="G29" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6960,15 +7554,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="G30" s="55" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="G30" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6977,15 +7571,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="G31" s="55" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="G31" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="56"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6994,23 +7588,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="G32" s="55" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="G32" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="J32" s="60" t="s">
+      <c r="H32" s="56"/>
+      <c r="J32" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7019,22 +7613,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="G33" s="55" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="G33" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="56"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -7046,22 +7640,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="G34" s="55" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="G34" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="55"/>
+      <c r="H34" s="56"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -7073,22 +7667,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="G35" s="55" t="s">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="G35" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="55"/>
+      <c r="H35" s="56"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -7100,22 +7694,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="G36" s="55" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="G36" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="55"/>
+      <c r="H36" s="56"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -7127,22 +7721,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="G37" s="55" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="56" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="55"/>
+      <c r="H37" s="56"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -7154,13 +7748,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -7169,13 +7763,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7184,13 +7778,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -7199,13 +7793,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -7214,13 +7808,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -7229,11 +7823,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7242,11 +7836,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7255,11 +7849,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7268,11 +7862,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7281,11 +7875,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7294,16 +7888,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -7312,9 +7906,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -7323,9 +7917,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -7334,9 +7928,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -7345,9 +7939,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -7356,41 +7950,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -7400,28 +7994,28 @@
       <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="63" t="s">
+      <c r="K58" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -7909,10 +8503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -7923,42 +8517,42 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
         <v>271</v>
@@ -7968,33 +8562,33 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>424</v>
@@ -8010,10 +8604,10 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>425</v>
@@ -8026,8 +8620,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>425</v>
@@ -8040,8 +8634,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>425</v>
@@ -8054,8 +8648,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>425</v>
@@ -8068,8 +8662,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>425</v>
@@ -8085,15 +8679,15 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>424</v>
@@ -8106,8 +8700,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>425</v>
@@ -8117,8 +8711,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>425</v>
@@ -8128,8 +8722,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>425</v>
@@ -8408,18 +9002,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -8462,11 +9056,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -8499,11 +9093,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -8531,18 +9125,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
@@ -8575,11 +9169,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
@@ -8612,11 +9206,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
@@ -8649,18 +9243,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="66" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="67" t="s">
         <v>608</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -8693,11 +9287,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -8730,11 +9324,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -8767,18 +9361,18 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="66" t="s">
         <v>624</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
     </row>
     <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -8811,11 +9405,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -8848,11 +9442,11 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
@@ -8885,18 +9479,18 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="66" t="s">
         <v>722</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="66" t="s">
+      <c r="A92" s="67" t="s">
         <v>728</v>
       </c>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
@@ -8942,11 +9536,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="67" t="s">
         <v>723</v>
       </c>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
@@ -8989,11 +9583,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="66" t="s">
+      <c r="A104" s="67" t="s">
         <v>724</v>
       </c>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
@@ -9044,18 +9638,18 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A112" s="65" t="s">
+      <c r="A112" s="66" t="s">
         <v>642</v>
       </c>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
     </row>
     <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="66" t="s">
+      <c r="A113" s="67" t="s">
         <v>730</v>
       </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="41" t="s">
@@ -9097,11 +9691,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="66" t="s">
+      <c r="A120" s="67" t="s">
         <v>731</v>
       </c>
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="s">
@@ -9144,11 +9738,11 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="66" t="s">
+      <c r="A126" s="67" t="s">
         <v>732</v>
       </c>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="41" t="s">
@@ -9190,40 +9784,40 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A134" s="65" t="s">
+      <c r="A134" s="66" t="s">
         <v>641</v>
       </c>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="66"/>
     </row>
     <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="66"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A138" s="66"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
     </row>
     <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="66"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
     </row>
     <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="66" t="s">
         <v>643</v>
       </c>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="66"/>
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="66" t="s">
+      <c r="A145" s="67" t="s">
         <v>783</v>
       </c>
-      <c r="B145" s="66"/>
-      <c r="C145" s="66"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
@@ -9257,11 +9851,11 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="66" t="s">
+      <c r="A151" s="67" t="s">
         <v>811</v>
       </c>
-      <c r="B151" s="66"/>
-      <c r="C151" s="66"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="41" t="s">
@@ -9282,11 +9876,11 @@
       <c r="A155" s="41"/>
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A156" s="66" t="s">
+      <c r="A156" s="67" t="s">
         <v>812</v>
       </c>
-      <c r="B156" s="66"/>
-      <c r="C156" s="66"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="41" t="s">
@@ -9312,18 +9906,18 @@
       <c r="A161" s="41"/>
     </row>
     <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A162" s="65" t="s">
+      <c r="A162" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A163" s="66" t="s">
+      <c r="A163" s="67" t="s">
         <v>810</v>
       </c>
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="41" t="s">
@@ -9361,11 +9955,11 @@
       <c r="A168" s="41"/>
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A169" s="66" t="s">
+      <c r="A169" s="67" t="s">
         <v>814</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="41" t="s">
@@ -9390,11 +9984,11 @@
       <c r="A174" s="41"/>
     </row>
     <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="66" t="s">
+      <c r="A175" s="67" t="s">
         <v>826</v>
       </c>
-      <c r="B175" s="66"/>
-      <c r="C175" s="66"/>
+      <c r="B175" s="67"/>
+      <c r="C175" s="67"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="41" t="s">
@@ -9418,18 +10012,18 @@
       <c r="A180" s="41"/>
     </row>
     <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A181" s="65" t="s">
+      <c r="A181" s="66" t="s">
         <v>646</v>
       </c>
-      <c r="B181" s="65"/>
-      <c r="C181" s="65"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="66"/>
     </row>
     <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="66" t="s">
+      <c r="A182" s="67" t="s">
         <v>815</v>
       </c>
-      <c r="B182" s="66"/>
-      <c r="C182" s="66"/>
+      <c r="B182" s="67"/>
+      <c r="C182" s="67"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="41" t="s">
@@ -9462,11 +10056,11 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="66" t="s">
+      <c r="A189" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="B189" s="66"/>
-      <c r="C189" s="66"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="67"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="41" t="s">
@@ -9492,11 +10086,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A194" s="66" t="s">
+      <c r="A194" s="67" t="s">
         <v>817</v>
       </c>
-      <c r="B194" s="66"/>
-      <c r="C194" s="66"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="67"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="41" t="s">
@@ -9522,16 +10116,16 @@
       <c r="A199" s="41"/>
     </row>
     <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A200" s="65" t="s">
+      <c r="A200" s="66" t="s">
         <v>733</v>
       </c>
-      <c r="B200" s="65"/>
-      <c r="C200" s="65"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="66"/>
     </row>
     <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A201" s="66"/>
-      <c r="B201" s="66"/>
-      <c r="C201" s="66"/>
+      <c r="A201" s="67"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="67"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="41" t="s">
@@ -9545,18 +10139,18 @@
       <c r="A204" s="41"/>
     </row>
     <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A205" s="65" t="s">
+      <c r="A205" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="B205" s="65"/>
-      <c r="C205" s="65"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="66"/>
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="66" t="s">
+      <c r="A206" s="67" t="s">
         <v>770</v>
       </c>
-      <c r="B206" s="66"/>
-      <c r="C206" s="66"/>
+      <c r="B206" s="67"/>
+      <c r="C206" s="67"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="41" t="s">
@@ -9579,11 +10173,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A211" s="66" t="s">
+      <c r="A211" s="67" t="s">
         <v>771</v>
       </c>
-      <c r="B211" s="66"/>
-      <c r="C211" s="66"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="41" t="s">
@@ -9611,11 +10205,11 @@
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A217" s="66" t="s">
+      <c r="A217" s="67" t="s">
         <v>769</v>
       </c>
-      <c r="B217" s="66"/>
-      <c r="C217" s="66"/>
+      <c r="B217" s="67"/>
+      <c r="C217" s="67"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="41" t="s">
@@ -9643,18 +10237,18 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A224" s="65" t="s">
+      <c r="A224" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B224" s="65"/>
-      <c r="C224" s="65"/>
+      <c r="B224" s="66"/>
+      <c r="C224" s="66"/>
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A225" s="66" t="s">
+      <c r="A225" s="67" t="s">
         <v>775</v>
       </c>
-      <c r="B225" s="66"/>
-      <c r="C225" s="66"/>
+      <c r="B225" s="67"/>
+      <c r="C225" s="67"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="41" t="s">
@@ -9697,11 +10291,11 @@
       </c>
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A231" s="66" t="s">
+      <c r="A231" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="B231" s="66"/>
-      <c r="C231" s="66"/>
+      <c r="B231" s="67"/>
+      <c r="C231" s="67"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="41" t="s">
@@ -9744,11 +10338,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A237" s="66" t="s">
+      <c r="A237" s="67" t="s">
         <v>778</v>
       </c>
-      <c r="B237" s="66"/>
-      <c r="C237" s="66"/>
+      <c r="B237" s="67"/>
+      <c r="C237" s="67"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="41" t="s">
@@ -9852,8 +10446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD599A-923F-4747-99B7-36F41DFFA6EB}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Game Theory.xlsx
+++ b/Game Theory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47ED8C1-95BA-4510-B27A-474C09126185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E3272-66C4-4E6E-BC59-68C0420CDB62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="689" firstSheet="3" activeTab="15" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="689" firstSheet="9" activeTab="21" xr2:uid="{A1BE79B9-B4EE-42B4-9FA0-1B70B1F5C2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats - General" sheetId="3" r:id="rId1"/>
@@ -22,13 +22,19 @@
     <sheet name="Class Guides" sheetId="2" r:id="rId7"/>
     <sheet name="Class Packs" sheetId="11" r:id="rId8"/>
     <sheet name="Equipment" sheetId="6" r:id="rId9"/>
-    <sheet name="Advanced Combat" sheetId="8" r:id="rId10"/>
-    <sheet name="Checklist" sheetId="7" r:id="rId11"/>
-    <sheet name="Full Runs" sheetId="12" r:id="rId12"/>
-    <sheet name="Class Ideas" sheetId="13" r:id="rId13"/>
-    <sheet name="Growing End Game Differently" sheetId="14" r:id="rId14"/>
-    <sheet name="Boss Mechanics" sheetId="15" r:id="rId15"/>
-    <sheet name="Dungeon Mechanics" sheetId="16" r:id="rId16"/>
+    <sheet name="Concepts - Weapons" sheetId="18" r:id="rId10"/>
+    <sheet name="Ideas - Weapons" sheetId="19" r:id="rId11"/>
+    <sheet name="Advanced Combat" sheetId="8" r:id="rId12"/>
+    <sheet name="Checklist" sheetId="7" r:id="rId13"/>
+    <sheet name="Full Runs" sheetId="12" r:id="rId14"/>
+    <sheet name="Class Ideas" sheetId="13" r:id="rId15"/>
+    <sheet name="Growing End Game Differently" sheetId="14" r:id="rId16"/>
+    <sheet name="Dungeon Mechanics" sheetId="16" r:id="rId17"/>
+    <sheet name="Balance Theory" sheetId="17" r:id="rId18"/>
+    <sheet name="Boss Mechanics" sheetId="15" r:id="rId19"/>
+    <sheet name="Lore Dump" sheetId="20" r:id="rId20"/>
+    <sheet name="Main Characters" sheetId="21" r:id="rId21"/>
+    <sheet name="Races" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1201">
   <si>
     <t>Strength</t>
   </si>
@@ -2870,9 +2876,6 @@
     <t>On sequence, naturally big cooldown skills can be reduced. Pairs well with something like a big haste or big crit cooldown maybe</t>
   </si>
   <si>
-    <t>Sequence creates a strong buff that stacks everytime. Can be something that stacks to 10 and is easy to gain but hard to lose. Could be something that stacks to 3 and is easy to lose and hard to stack for a better effect.</t>
-  </si>
-  <si>
     <t>^Could be the same but on targets instead of self. Also, could be a hybrid where you lose something like healing as your damage goes up.</t>
   </si>
   <si>
@@ -2966,7 +2969,694 @@
     <t>Town / Outpost Building Areas (Both friendly and hostile)(Just non-static zones)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dungeon </t>
+    <t>Sequence creates a strong buff that stacks everytime. Can be something that stacks to 10 and is easy to gain but hard to lose. Could be something that stacks to 3 and is easy to lose and hard to stack for a better effect. Differences in classes can be how you collect them and gear that aids in collection. I.E., stacking buffs by going through zones. Gear can help with mobility or some gear can make zones larger or creep towards the caster. It could also be gears or gems or body parts</t>
+  </si>
+  <si>
+    <t>Utility / Mobility / 0 DPS Builds</t>
+  </si>
+  <si>
+    <t>Something to the affect as a pure support. Can be a "pacifist" only healing with no way of doing damage. Could be useful in some instances. Could be a pure healer or pure stat booster or builder or other build with no dps. Basically an anti-class that doesn't really play the game in combat. Most of the time they will have a crafting bonus and work best with a team that can carry them if they don't add any benefits. Similar to running a dungeon with a penalty to get more loot. Could be a class with a significant DPS disadvantage but the mobility to make farming something specific and lower grindable.</t>
+  </si>
+  <si>
+    <t>Luck Build</t>
+  </si>
+  <si>
+    <t>Random effects cycling. Could be strong but needs some reward for the randomness.</t>
+  </si>
+  <si>
+    <t>Large Object Build</t>
+  </si>
+  <si>
+    <t>Building something like a snowball and then release it. Similar to a primer/detonator. Could be cycling to create a turret and then level it up</t>
+  </si>
+  <si>
+    <t>Dungeon Mechanics Ideas</t>
+  </si>
+  <si>
+    <t>The point of having all of the classes that don't synergize is to make dungeons that aren't so templated or similar</t>
+  </si>
+  <si>
+    <t>Type Rewarding for Dungeons</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Minions</t>
+  </si>
+  <si>
+    <t>Sacrifices</t>
+  </si>
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t>Survivability</t>
+  </si>
+  <si>
+    <t>Hybrid(Tank/Heal/DPS)</t>
+  </si>
+  <si>
+    <t>0DPS</t>
+  </si>
+  <si>
+    <t>Some dungeons can be generated and others static</t>
+  </si>
+  <si>
+    <t>Main Dungeon Themes</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Parts of the dungeon cannot be completed without a dash or some other gap clearing ability</t>
+  </si>
+  <si>
+    <t>Mobility Gauntlets</t>
+  </si>
+  <si>
+    <t>Maze (Gened)</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Minion Sacrifices to summon the boss</t>
+  </si>
+  <si>
+    <t>Need enough people on the plate to continue</t>
+  </si>
+  <si>
+    <t>Solo paths (Require Hybrid)</t>
+  </si>
+  <si>
+    <t>All Utility</t>
+  </si>
+  <si>
+    <t>All DPS</t>
+  </si>
+  <si>
+    <t>All Tank. Groups have to do a certain amount of time per boss to continue)\</t>
+  </si>
+  <si>
+    <t>All Heals. Cleansing or Purge dungeon. Dealing damage could slow down progress</t>
+  </si>
+  <si>
+    <t>Above all else, dungeon have to scale in tiers. It doesn't have to be much but some.</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>Philactory</t>
+  </si>
+  <si>
+    <t>Main Ideas for Boss Mechanics in dungeons</t>
+  </si>
+  <si>
+    <t>Adds</t>
+  </si>
+  <si>
+    <t>Need to heal to kill</t>
+  </si>
+  <si>
+    <t>reduces vision</t>
+  </si>
+  <si>
+    <t>phases where solo</t>
+  </si>
+  <si>
+    <t>phases where only one damage type works</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Mystic</t>
+  </si>
+  <si>
+    <t>Keeper</t>
+  </si>
+  <si>
+    <t>Enlightened</t>
+  </si>
+  <si>
+    <t>Diviner</t>
+  </si>
+  <si>
+    <t>Balance Theory Guidelines</t>
+  </si>
+  <si>
+    <t>Class Purposes</t>
+  </si>
+  <si>
+    <t>Class differentiation is primarily for 4 specific areas (Dungeeoneering, Crafting, Gathering, Mobility). Because of these different goals, balancing is tuned in these areas and classes classified by being of one fo the 4 groups. Maybe hybrids in the future.</t>
+  </si>
+  <si>
+    <t>Dungeoneering</t>
+  </si>
+  <si>
+    <t>These are the classes that are focused on completing dungeons fighting enemies. This can come in quite a few forms.</t>
+  </si>
+  <si>
+    <t>These are designed to have access to specific recipes and profeciencies that would not be obtainable otherwise.</t>
+  </si>
+  <si>
+    <t>Very similar to crafting in the sense that areas are only available to certain classes.</t>
+  </si>
+  <si>
+    <t>These would be considered weak classes. Their purpose is tuned for mostly end game scenarios. The main idea is to be very quick and have combos and spells that do not aid in most combat scenarios (some but not much). For doing content quickly with a risk, these classes will be best suited. Gathering the more basic items may be more expediant with these classes since they can reach storage more easily or pass through gaps more easily.</t>
+  </si>
+  <si>
+    <t>Simple Balance Checklist</t>
+  </si>
+  <si>
+    <t>What is it good at?</t>
+  </si>
+  <si>
+    <t>Is it good at more than one thing?</t>
+  </si>
+  <si>
+    <t>Hallowblade</t>
+  </si>
+  <si>
+    <t>Luminarch</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Myrmidon</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>General Concepts</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Short Sword</t>
+  </si>
+  <si>
+    <t>Class Differences</t>
+  </si>
+  <si>
+    <t>Weapon choices should be broad in general but very focused and narrow for specific classes (i.e.: Broad for something like a Knight but narrow for something like a shapeshifting druid.)</t>
+  </si>
+  <si>
+    <t>Long Sword</t>
+  </si>
+  <si>
+    <t>Rapier</t>
+  </si>
+  <si>
+    <t>Claymore</t>
+  </si>
+  <si>
+    <t>Greatsword</t>
+  </si>
+  <si>
+    <t>Zweihander</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Handaxe</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Light Hammer</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Quarterstaff</t>
+  </si>
+  <si>
+    <t>Sling</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Throwing Star</t>
+  </si>
+  <si>
+    <t>Throwing Axe</t>
+  </si>
+  <si>
+    <t>Glaive</t>
+  </si>
+  <si>
+    <t>Greataxe</t>
+  </si>
+  <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
+    <t>Flail</t>
+  </si>
+  <si>
+    <t>Javelin</t>
+  </si>
+  <si>
+    <t>Short Bow</t>
+  </si>
+  <si>
+    <t>Long Bow</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Maul</t>
+  </si>
+  <si>
+    <t>Morning star</t>
+  </si>
+  <si>
+    <t>Scimitar</t>
+  </si>
+  <si>
+    <t>Trident</t>
+  </si>
+  <si>
+    <t>Whip</t>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Hand Crossbow</t>
+  </si>
+  <si>
+    <t>Light Crossbow</t>
+  </si>
+  <si>
+    <t>Heavy Crossbow</t>
+  </si>
+  <si>
+    <t>Blowgun</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Fists</t>
+  </si>
+  <si>
+    <t>Feat</t>
+  </si>
+  <si>
+    <t>Libram</t>
+  </si>
+  <si>
+    <t>Greatstaff</t>
+  </si>
+  <si>
+    <t>Wrench</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Scattergun</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Gatlin</t>
+  </si>
+  <si>
+    <t>Bombs</t>
+  </si>
+  <si>
+    <t>Unarmed</t>
+  </si>
+  <si>
+    <t>Damage Types</t>
+  </si>
+  <si>
+    <t>Weapon Choices</t>
+  </si>
+  <si>
+    <t>Knuckles</t>
+  </si>
+  <si>
+    <t>Cestus</t>
+  </si>
+  <si>
+    <t>Sickle</t>
+  </si>
+  <si>
+    <t>Kunai</t>
+  </si>
+  <si>
+    <t>Gauntlets</t>
+  </si>
+  <si>
+    <t>Claws</t>
+  </si>
+  <si>
+    <t>Gladius</t>
+  </si>
+  <si>
+    <t>Katar</t>
+  </si>
+  <si>
+    <t>Cane</t>
+  </si>
+  <si>
+    <t>Crook</t>
+  </si>
+  <si>
+    <t>Cutlass</t>
+  </si>
+  <si>
+    <t>Ankus</t>
+  </si>
+  <si>
+    <t>Chakram</t>
+  </si>
+  <si>
+    <t>Kama</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Nunchaku</t>
+  </si>
+  <si>
+    <t>Sabre</t>
+  </si>
+  <si>
+    <t>Falchion</t>
+  </si>
+  <si>
+    <t>Estoc</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Harpoon</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Polearm</t>
+  </si>
+  <si>
+    <t>Garrote</t>
+  </si>
+  <si>
+    <t>Scythe</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Shuriken</t>
+  </si>
+  <si>
+    <t>Grapple</t>
+  </si>
+  <si>
+    <t>Slingshot</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>~Element</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Tomb</t>
+  </si>
+  <si>
+    <t>Charm</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Greatshield</t>
+  </si>
+  <si>
+    <t>Buckler</t>
+  </si>
+  <si>
+    <t>Kite Shield</t>
+  </si>
+  <si>
+    <t>Square Shield</t>
+  </si>
+  <si>
+    <t>Quill</t>
+  </si>
+  <si>
+    <t>Gadget</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Leash</t>
+  </si>
+  <si>
+    <t>Reins</t>
+  </si>
+  <si>
+    <t>Slashing, Peircing, Crushing, Elements (might include deity types). The types will help creating dynamics in dungeons and weapon differences.</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Projectiles (Class)</t>
+  </si>
+  <si>
+    <t>Consumables (Class)</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Blade</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Exotic</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Boomerang</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Simple, Advanced, Exotic, and Unique. Simple and Advanced are very broad categories. I think a lot of exotics will go into the Unique category later, but the main reasoning behind both is to limit what can be used in classes. Exotic is a broad category but most capabilities will name Exotic or Uniques specifically. That makes Exotic kind of meaningless for now but it may change.</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Equipping certain types of items will give benefits to specific classes. That could be broad like dual wielding, or specific like a book or lantern. 2 handed. Unarmed.</t>
+  </si>
+  <si>
+    <t>The main idea behind weapon choices, especially the weird ones, is to create content that requires or strongly recommends specific types. That can be broad in damage type, or specific in exact weapon (i.e. the "Grand Scythe" must be equipped by everyone in the party or just one person or just to enter and can be swapped or just in the inventory</t>
+  </si>
+  <si>
+    <t>Longspear</t>
+  </si>
+  <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>2 Handed</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
+    <t>Category 4</t>
+  </si>
+  <si>
+    <t>Versatile</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>2-Handed</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Ideas for Species and Races</t>
+  </si>
+  <si>
+    <t>Not sure why but 3 letter races seem interesting. It reminds me of th charms from Diablo naming</t>
+  </si>
+  <si>
+    <t>Kul</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
+    <t>Mul</t>
+  </si>
+  <si>
+    <t>Nal</t>
+  </si>
+  <si>
+    <t>Xev</t>
+  </si>
+  <si>
+    <t>Zao</t>
+  </si>
+  <si>
+    <t>Bwo</t>
+  </si>
+  <si>
+    <t>Tro</t>
+  </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Hyl</t>
+  </si>
+  <si>
+    <t>Pha</t>
+  </si>
+  <si>
+    <t>Fer</t>
+  </si>
+  <si>
+    <t>Jhi</t>
+  </si>
+  <si>
+    <t>Eer</t>
+  </si>
+  <si>
+    <t>Ael</t>
+  </si>
+  <si>
+    <t>Not sure if those will be used but it can provide for differences in races that may not look different except for small differences (elves, humans, orcs, dwarves, giants)</t>
+  </si>
+  <si>
+    <t>Broader Races</t>
+  </si>
+  <si>
+    <t>Humans</t>
+  </si>
+  <si>
+    <t>Elves</t>
+  </si>
+  <si>
+    <t>Dwarves</t>
+  </si>
+  <si>
+    <t>Orcs</t>
+  </si>
+  <si>
+    <t>Halflings</t>
+  </si>
+  <si>
+    <t>Lizard People</t>
+  </si>
+  <si>
+    <t>Bird People</t>
+  </si>
+  <si>
+    <t>Fox People</t>
+  </si>
+  <si>
+    <t>Bear People</t>
+  </si>
+  <si>
+    <t>Fish people</t>
+  </si>
+  <si>
+    <t>Giants</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +4034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3450,6 +4140,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3485,8 +4187,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3497,22 +4211,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3525,19 +4227,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4069,62 +4765,62 @@
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="E14" s="44" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="E14" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="44"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="E16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="44"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="44"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -4462,6 +5158,1135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4465AD87-B453-47D8-96C9-915D76E98057}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="47"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="47"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="47"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="47"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="47"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="47"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2683CADB-3B8E-4314-8991-66903604F5DD}">
+  <dimension ref="A1:G105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77303197-CDB9-4986-A878-7CD56B4A0DF4}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -4594,10 +6419,10 @@
       <c r="E13" t="s">
         <v>555</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="72" t="s">
         <v>906</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4807,7 +6632,7 @@
         <v>541</v>
       </c>
       <c r="E33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
@@ -4815,7 +6640,7 @@
         <v>546</v>
       </c>
       <c r="E34" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
@@ -4823,7 +6648,7 @@
         <v>547</v>
       </c>
       <c r="E35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
@@ -4831,7 +6656,7 @@
         <v>548</v>
       </c>
       <c r="E36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
@@ -4839,7 +6664,7 @@
         <v>549</v>
       </c>
       <c r="E37" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
@@ -4860,7 +6685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E61FB-347C-4063-9B10-037963F6D049}">
   <dimension ref="A1:F107"/>
   <sheetViews>
@@ -4900,16 +6725,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="56" t="s">
         <v>293</v>
       </c>
       <c r="F4" t="str">
@@ -4918,46 +6743,46 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="F5" t="str">
         <f>A8</f>
         <v>Instancing: Client - Dungeons / Zones</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="F6" t="str">
         <f>A12</f>
         <v>Items on Ground</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="F7" t="str">
         <f>A16</f>
         <v>Equipment Manager</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="56" t="s">
         <v>296</v>
       </c>
       <c r="F8" t="str">
@@ -4966,92 +6791,92 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="F9" t="str">
         <f>A24</f>
         <v>Augmenting Equipment</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="F10" t="str">
         <f>A28</f>
         <v>Perks Panel</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="F11" t="str">
         <f>A32</f>
         <v>Perk Activate Panel - Equip</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="56"/>
       <c r="F12" t="str">
         <f>A36</f>
         <v>Simple combat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="F13" t="str">
         <f>A44</f>
         <v>Advanced combat</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="F14" t="str">
         <f>A48</f>
         <v>Gathering - Server</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="F15" t="str">
         <f>A52</f>
         <v>Gathering - Client</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="56" t="s">
         <v>299</v>
       </c>
       <c r="F16" t="str">
@@ -5060,46 +6885,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" t="str">
         <f>A60</f>
         <v>Banking</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="F18" t="str">
         <f>A64</f>
         <v>Quest Manager</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="F19" t="str">
         <f>A68</f>
         <v>Spellbooks</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="56" t="s">
         <v>301</v>
       </c>
       <c r="F20" t="str">
@@ -5108,46 +6933,46 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="F21" t="str">
         <f>A76</f>
         <v>Camera Controls</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="F22" t="str">
         <f>A80</f>
         <v>UI and Menus</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="F23" t="str">
         <f>A84</f>
         <v>Equipment Change Rendering Player and other Characters</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="56" t="s">
         <v>303</v>
       </c>
       <c r="F24" t="str">
@@ -5156,669 +6981,749 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="F25" t="str">
         <f>A92</f>
         <v>Full Round (Gathering)</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="F26" t="str">
         <f>A96</f>
         <v>Full Round (Crafting)</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="F27" t="str">
         <f>A100</f>
         <v>Full Round (Regular Quest Line)</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="56"/>
       <c r="F28" t="str">
         <f>A104</f>
         <v>Inventory Item Hover Menu</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="56"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="56" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="56" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="56" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="52"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="56" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="56" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="56" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="56" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="56" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="D72" s="52"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
+      <c r="A75" s="73"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
+      <c r="A77" s="73"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="56" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
+      <c r="A81" s="73"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
+      <c r="A83" s="73"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="56" t="s">
         <v>437</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="56" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
+      <c r="A87" s="75"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="69" t="s">
+      <c r="A88" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="D88" s="52" t="s">
+      <c r="D88" s="56" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="75" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="56" t="s">
         <v>469</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="56" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="B96" s="70" t="s">
+      <c r="B96" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="56" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="56"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="69" t="s">
+      <c r="A100" s="75" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="70" t="s">
+      <c r="B100" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="D100" s="52" t="s">
+      <c r="D100" s="56" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="56"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="75" t="s">
         <v>871</v>
       </c>
-      <c r="B104" s="70" t="s">
+      <c r="B104" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="56" t="s">
         <v>872</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="56" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
+      <c r="A105" s="75"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="69"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
@@ -5843,92 +7748,12 @@
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="D80:D83"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB6A08E-A9A6-467B-8DE6-4224317EBD93}">
   <dimension ref="A2:Q21"/>
   <sheetViews>
@@ -6074,12 +7899,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137B8E9-2819-4CA1-B7CE-EA4FF1D66E66}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,22 +7914,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>919</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="45" t="s">
+        <v>954</v>
+      </c>
+      <c r="B2" t="s">
         <v>955</v>
-      </c>
-      <c r="B2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,7 +7941,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="44" t="s">
         <v>926</v>
       </c>
       <c r="B6" s="25" t="s">
@@ -6124,7 +7949,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="44" t="s">
         <v>928</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -6132,7 +7957,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="44" t="s">
         <v>927</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -6140,7 +7965,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="44" t="s">
         <v>929</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -6148,7 +7973,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="44" t="s">
         <v>930</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -6156,7 +7981,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="44" t="s">
         <v>920</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -6164,117 +7989,139 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="44" t="s">
         <v>921</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>922</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>922</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>924</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>924</v>
-      </c>
-      <c r="B14" s="25" t="s">
+    <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>931</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>925</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
-        <v>931</v>
-      </c>
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>932</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>932</v>
-      </c>
-      <c r="B17" s="25" t="s">
+    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
-        <v>933</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>945</v>
-      </c>
-    </row>
     <row r="19" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="44" t="s">
+        <v>950</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>951</v>
       </c>
-      <c r="B19" s="25" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="B20" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="44" t="s">
+        <v>957</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>958</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>959</v>
-      </c>
     </row>
     <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="44" t="s">
+        <v>976</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A24" s="44" t="s">
+        <v>972</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
       <c r="B25" s="25"/>
     </row>
-    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="25"/>
     </row>
-    <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
       <c r="B27" s="25"/>
     </row>
-    <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
       <c r="B28" s="25"/>
     </row>
-    <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="25"/>
     </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -6283,7 +8130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19531194-4C2B-4B8D-B18A-3687431752BD}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -6295,62 +8142,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -6358,29 +8205,340 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBD1EEF-87AF-4A3B-B7C8-EE0166C1DDE2}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A95B86-92D3-4BDD-A672-B0E92C303D0D}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>980</v>
+      </c>
+      <c r="D6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>982</v>
+      </c>
+      <c r="D8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>983</v>
+      </c>
+      <c r="D9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>984</v>
+      </c>
+      <c r="D10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>985</v>
+      </c>
+      <c r="D11" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D12" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>987</v>
+      </c>
+      <c r="D13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>988</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>989</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>990</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A95B86-92D3-4BDD-A672-B0E92C303D0D}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D371EBC-3B64-4348-A18E-F92BAAE05941}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBD1EEF-87AF-4A3B-B7C8-EE0166C1DDE2}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>972</v>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -6478,10 +8636,10 @@
       <c r="A14" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="34" t="s">
         <v>374</v>
       </c>
@@ -6490,10 +8648,10 @@
       <c r="A15" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="31" t="s">
         <v>454</v>
       </c>
@@ -6502,10 +8660,10 @@
       <c r="A16" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="31" t="s">
         <v>456</v>
       </c>
@@ -6514,10 +8672,10 @@
       <c r="A17" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="31" t="s">
         <v>455</v>
       </c>
@@ -6526,10 +8684,10 @@
       <c r="A18" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="31" t="s">
         <v>463</v>
       </c>
@@ -6538,10 +8696,10 @@
       <c r="A19" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="31" t="s">
         <v>457</v>
       </c>
@@ -6555,6 +8713,211 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231F662-99BC-479F-A0DC-B1D53418B5D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EECAF7-A4BE-430C-958E-B752B1021CCA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA65B08-8851-4E6D-A2D5-212A00044767}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6838,11 +9201,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="25" t="s">
         <v>260</v>
       </c>
@@ -6856,9 +9219,9 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="25" t="s">
         <v>261</v>
       </c>
@@ -6872,9 +9235,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="29" t="s">
         <v>384</v>
       </c>
@@ -6888,9 +9251,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -6902,9 +9265,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -7121,10 +9484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69264F54-9ABE-4235-8AC2-FF730385718C}">
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7151,106 +9514,106 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="50"/>
       <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="46"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="54"/>
       <c r="G3" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="50"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="54"/>
       <c r="G4" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="50"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="54"/>
       <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="50"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="50"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="50"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="54"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="50"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="54"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="54"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="54"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -7265,10 +9628,10 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="50"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -7283,14 +9646,14 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="50"/>
+      <c r="H10" s="69"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -7305,14 +9668,14 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="50"/>
+      <c r="H11" s="63"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7327,14 +9690,14 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="50"/>
+      <c r="H12" s="63"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -7349,152 +9712,152 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="50"/>
+      <c r="H13" s="63"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="48"/>
+      <c r="H14" s="63"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="56"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="56"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="56"/>
+      <c r="H17" s="63"/>
       <c r="J17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46"/>
-      <c r="G18" s="56" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="50"/>
+      <c r="G18" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="50"/>
-      <c r="G19" s="56" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="54"/>
+      <c r="G19" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="56"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="50"/>
-      <c r="G20" s="56" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="54"/>
+      <c r="G20" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="50"/>
-      <c r="G21" s="56" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="54"/>
+      <c r="G21" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="50"/>
-      <c r="G22" s="56" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="54"/>
+      <c r="G22" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="50"/>
-      <c r="G23" s="56" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="54"/>
+      <c r="G23" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="56"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="50"/>
-      <c r="G24" s="56" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="54"/>
+      <c r="G24" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="56"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="48"/>
-      <c r="G25" s="56" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="52"/>
+      <c r="G25" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="56"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7503,15 +9866,15 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="G27" s="56" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="G27" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7520,15 +9883,15 @@
       <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="G28" s="56" t="s">
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="G28" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="56"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -7537,15 +9900,15 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="G29" s="56" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="G29" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="H29" s="56"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -7554,15 +9917,15 @@
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="G30" s="56" t="s">
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="G30" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -7571,15 +9934,15 @@
       <c r="B31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="G31" s="56" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="G31" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7588,23 +9951,23 @@
       <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="G32" s="56" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="G32" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="J32" s="61" t="s">
+      <c r="H32" s="63"/>
+      <c r="J32" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7613,22 +9976,22 @@
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="G33" s="56" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="G33" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="63"/>
       <c r="J33" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
       <c r="O33" s="26" t="s">
         <v>401</v>
       </c>
@@ -7640,22 +10003,22 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="G34" s="56" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="G34" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="H34" s="56"/>
+      <c r="H34" s="63"/>
       <c r="J34" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
       <c r="O34" s="26" t="s">
         <v>375</v>
       </c>
@@ -7667,22 +10030,22 @@
       <c r="B35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="G35" s="56" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="G35" s="63" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="56"/>
+      <c r="H35" s="63"/>
       <c r="J35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
       <c r="O35" s="26" t="s">
         <v>403</v>
       </c>
@@ -7694,22 +10057,22 @@
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="G36" s="56" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="G36" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="63"/>
       <c r="J36" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
       <c r="O36" s="26" t="s">
         <v>405</v>
       </c>
@@ -7721,22 +10084,22 @@
       <c r="B37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="G37" s="56" t="s">
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="G37" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="63"/>
       <c r="J37" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
       <c r="O37" s="26" t="s">
         <v>407</v>
       </c>
@@ -7748,13 +10111,13 @@
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -7763,13 +10126,13 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7778,13 +10141,13 @@
       <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -7793,13 +10156,13 @@
       <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -7808,13 +10171,13 @@
       <c r="B42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -7823,11 +10186,11 @@
       <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7836,11 +10199,11 @@
       <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7849,11 +10212,11 @@
       <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7862,11 +10225,11 @@
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7875,11 +10238,11 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7888,16 +10251,16 @@
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
       <c r="F49" t="s">
         <v>350</v>
       </c>
@@ -7906,9 +10269,9 @@
       <c r="B50" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
       <c r="F50" t="s">
         <v>351</v>
       </c>
@@ -7917,9 +10280,9 @@
       <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
       <c r="F51" t="s">
         <v>353</v>
       </c>
@@ -7928,9 +10291,9 @@
       <c r="B52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
       <c r="F52" t="s">
         <v>354</v>
       </c>
@@ -7939,9 +10302,9 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
       <c r="F53" t="s">
         <v>355</v>
       </c>
@@ -7950,41 +10313,41 @@
       <c r="B54" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>340</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
       <c r="F58" t="s">
         <v>494</v>
       </c>
@@ -8005,17 +10368,17 @@
       <c r="B59" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
       <c r="F60" t="s">
         <v>495</v>
       </c>
@@ -8397,13 +10760,109 @@
         <v>809</v>
       </c>
     </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>1036</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:E25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K2:N14"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A2:E8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="C60:E60"/>
@@ -8420,62 +10879,11 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="K2:N14"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:E8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:E25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8487,7 +10895,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:M32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8503,10 +10911,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="35"/>
       <c r="D1" s="28"/>
       <c r="E1" t="s">
@@ -8517,42 +10925,42 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="27"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="27"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="27"/>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="27"/>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="27"/>
       <c r="E6" t="s">
         <v>271</v>
@@ -8562,33 +10970,33 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="27"/>
       <c r="F9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>424</v>
@@ -8604,10 +11012,10 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>425</v>
@@ -8620,8 +11028,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>425</v>
@@ -8634,8 +11042,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>425</v>
@@ -8648,8 +11056,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>425</v>
@@ -8662,8 +11070,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>425</v>
@@ -8679,15 +11087,15 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>424</v>
@@ -8700,8 +11108,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>425</v>
@@ -8711,8 +11119,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>425</v>
@@ -8722,8 +11130,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>425</v>
@@ -9002,18 +11410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -9056,11 +11464,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -9093,11 +11501,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -9125,18 +11533,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="70" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="71" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
@@ -9169,11 +11577,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="71" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
@@ -9206,11 +11614,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
@@ -9243,18 +11651,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="70" t="s">
         <v>607</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="71" t="s">
         <v>608</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -9287,11 +11695,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -9324,11 +11732,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -9361,18 +11769,18 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="70" t="s">
         <v>624</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
     </row>
     <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -9405,11 +11813,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -9442,11 +11850,11 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
@@ -9479,18 +11887,18 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="66" t="s">
+      <c r="A91" s="70" t="s">
         <v>722</v>
       </c>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="71" t="s">
         <v>728</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
@@ -9536,11 +11944,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="67" t="s">
+      <c r="A98" s="71" t="s">
         <v>723</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
@@ -9583,11 +11991,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="67" t="s">
+      <c r="A104" s="71" t="s">
         <v>724</v>
       </c>
-      <c r="B104" s="67"/>
-      <c r="C104" s="67"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="71"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
@@ -9638,18 +12046,18 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A112" s="66" t="s">
+      <c r="A112" s="70" t="s">
         <v>642</v>
       </c>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
     </row>
     <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="71" t="s">
         <v>730</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="71"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="41" t="s">
@@ -9691,11 +12099,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="67" t="s">
+      <c r="A120" s="71" t="s">
         <v>731</v>
       </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="71"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="s">
@@ -9738,11 +12146,11 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="67" t="s">
+      <c r="A126" s="71" t="s">
         <v>732</v>
       </c>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="71"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="41" t="s">
@@ -9784,40 +12192,40 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A134" s="66" t="s">
+      <c r="A134" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
     </row>
     <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="67"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
+      <c r="A135" s="71"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="71"/>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A138" s="67"/>
-      <c r="B138" s="67"/>
-      <c r="C138" s="67"/>
+      <c r="A138" s="71"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="71"/>
     </row>
     <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="67"/>
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
+      <c r="A141" s="71"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="71"/>
     </row>
     <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A144" s="66" t="s">
+      <c r="A144" s="70" t="s">
         <v>643</v>
       </c>
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="67" t="s">
+      <c r="A145" s="71" t="s">
         <v>783</v>
       </c>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="71"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
@@ -9851,11 +12259,11 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="67" t="s">
+      <c r="A151" s="71" t="s">
         <v>811</v>
       </c>
-      <c r="B151" s="67"/>
-      <c r="C151" s="67"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="41" t="s">
@@ -9876,11 +12284,11 @@
       <c r="A155" s="41"/>
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A156" s="67" t="s">
+      <c r="A156" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="B156" s="67"/>
-      <c r="C156" s="67"/>
+      <c r="B156" s="71"/>
+      <c r="C156" s="71"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="41" t="s">
@@ -9906,18 +12314,18 @@
       <c r="A161" s="41"/>
     </row>
     <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r=